--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Laurent\OneDrive\Dev\Github\TypeCobol\TypeCobol.Grammar\Grammars\Cobol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="470">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1428,6 +1423,12 @@
   </si>
   <si>
     <t>YYYYMMDD</t>
+  </si>
+  <si>
+    <t>TYPEDEF</t>
+  </si>
+  <si>
+    <t>STRONG</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1745,13 +1746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="C451" sqref="C451"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="C453" sqref="C453"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
@@ -7938,7 +7939,7 @@
         <v>450</v>
       </c>
       <c r="B387">
-        <f t="shared" ref="B387:B450" si="13">B386+1</f>
+        <f t="shared" ref="B387:B451" si="13">B386+1</f>
         <v>387</v>
       </c>
       <c r="C387" t="s">
@@ -8953,8 +8954,40 @@
         <v>467</v>
       </c>
       <c r="D450" t="str">
-        <f t="shared" ref="D450" si="14">"        "&amp;C450&amp;"="&amp;B450&amp;","</f>
+        <f t="shared" ref="D450:D451" si="14">"        "&amp;C450&amp;"="&amp;B450&amp;","</f>
         <v xml:space="preserve">        YYYYMMDD=450,</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <f t="shared" si="13"/>
+        <v>451</v>
+      </c>
+      <c r="C451" t="s">
+        <v>468</v>
+      </c>
+      <c r="D451" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        TYPEDEF=451,</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <f t="shared" ref="B452" si="15">B451+1</f>
+        <v>452</v>
+      </c>
+      <c r="C452" t="s">
+        <v>469</v>
+      </c>
+      <c r="D452" t="str">
+        <f t="shared" ref="D452" si="16">"        "&amp;C452&amp;"="&amp;B452&amp;","</f>
+        <v xml:space="preserve">        STRONG=452,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="471">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>STRONG</t>
+  </si>
+  <si>
+    <t>UNSAFE</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1746,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D452"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C453" sqref="C453"/>
+      <selection activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8979,7 +8982,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <f t="shared" ref="B452" si="15">B451+1</f>
+        <f t="shared" ref="B452:B453" si="15">B451+1</f>
         <v>452</v>
       </c>
       <c r="C452" t="s">
@@ -8988,6 +8991,19 @@
       <c r="D452" t="str">
         <f t="shared" ref="D452" si="16">"        "&amp;C452&amp;"="&amp;B452&amp;","</f>
         <v xml:space="preserve">        STRONG=452,</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B453">
+        <f t="shared" si="15"/>
+        <v>453</v>
+      </c>
+      <c r="C453" t="s">
+        <v>470</v>
+      </c>
+      <c r="D453" t="str">
+        <f t="shared" ref="D453" si="17">"        "&amp;C453&amp;"="&amp;B453&amp;","</f>
+        <v xml:space="preserve">        UNSAFE=453,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="473">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1432,6 +1432,12 @@
   </si>
   <si>
     <t>UNSAFE</t>
+  </si>
+  <si>
+    <t>END_DECLARE</t>
+  </si>
+  <si>
+    <t>DECLARE</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1749,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="D454" sqref="D454"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8982,7 +8988,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <f t="shared" ref="B452:B453" si="15">B451+1</f>
+        <f t="shared" ref="B452:B455" si="15">B451+1</f>
         <v>452</v>
       </c>
       <c r="C452" t="s">
@@ -8999,11 +9005,36 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
+        <v>472</v>
+      </c>
+      <c r="D453" t="str">
+        <f t="shared" ref="D453:D454" si="17">"        "&amp;C453&amp;"="&amp;B453&amp;","</f>
+        <v xml:space="preserve">        DECLARE=453,</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B454">
+        <v>454</v>
+      </c>
+      <c r="C454" t="s">
+        <v>471</v>
+      </c>
+      <c r="D454" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        END_DECLARE=454,</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B455">
+        <f t="shared" si="15"/>
+        <v>455</v>
+      </c>
+      <c r="C455" t="s">
         <v>470</v>
       </c>
-      <c r="D453" t="str">
-        <f t="shared" ref="D453" si="17">"        "&amp;C453&amp;"="&amp;B453&amp;","</f>
-        <v xml:space="preserve">        UNSAFE=453,</v>
+      <c r="D455" t="str">
+        <f t="shared" ref="D455" si="18">"        "&amp;C455&amp;"="&amp;B455&amp;","</f>
+        <v xml:space="preserve">        UNSAFE=455,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="475">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1438,6 +1438,12 @@
   </si>
   <si>
     <t>DECLARE</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
+  </si>
+  <si>
+    <t>PRIVATE</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1755,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="B457" sqref="B457"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C458" sqref="C458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8988,7 +8994,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <f t="shared" ref="B452:B455" si="15">B451+1</f>
+        <f t="shared" ref="B452:B457" si="15">B451+1</f>
         <v>452</v>
       </c>
       <c r="C452" t="s">
@@ -9037,6 +9043,32 @@
         <v xml:space="preserve">        UNSAFE=455,</v>
       </c>
     </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B456">
+        <f t="shared" si="15"/>
+        <v>456</v>
+      </c>
+      <c r="C456" t="s">
+        <v>473</v>
+      </c>
+      <c r="D456" t="str">
+        <f t="shared" ref="D456:D457" si="19">"        "&amp;C456&amp;"="&amp;B456&amp;","</f>
+        <v xml:space="preserve">        PUBLIC=456,</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B457">
+        <f t="shared" si="15"/>
+        <v>457</v>
+      </c>
+      <c r="C457" t="s">
+        <v>474</v>
+      </c>
+      <c r="D457" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">        PRIVATE=457,</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="476">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1444,6 +1444,9 @@
   </si>
   <si>
     <t>PRIVATE</t>
+  </si>
+  <si>
+    <t>INOUT</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1761,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D458"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C458" sqref="C458"/>
+      <selection activeCell="C459" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8994,7 +8997,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <f t="shared" ref="B452:B457" si="15">B451+1</f>
+        <f t="shared" ref="B452:B458" si="15">B451+1</f>
         <v>452</v>
       </c>
       <c r="C452" t="s">
@@ -9069,6 +9072,19 @@
         <v xml:space="preserve">        PRIVATE=457,</v>
       </c>
     </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B458">
+        <f t="shared" si="15"/>
+        <v>458</v>
+      </c>
+      <c r="C458" t="s">
+        <v>475</v>
+      </c>
+      <c r="D458" t="str">
+        <f t="shared" ref="D458" si="20">"        "&amp;C458&amp;"="&amp;B458&amp;","</f>
+        <v xml:space="preserve">        INOUT=458,</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="481">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -647,9 +647,6 @@
     <t>ATTRIBUTE</t>
   </si>
   <si>
-    <t>ATTRIBUTES</t>
-  </si>
-  <si>
     <t>AUTHOR</t>
   </si>
   <si>
@@ -1455,6 +1452,21 @@
   </si>
   <si>
     <t>STRICT</t>
+  </si>
+  <si>
+    <t>QuestionMark</t>
+  </si>
+  <si>
+    <t>CompilerDirective</t>
+  </si>
+  <si>
+    <t>CopyImportDirective</t>
+  </si>
+  <si>
+    <t>ReplaceDirective</t>
+  </si>
+  <si>
+    <t>ContinuationTokenGroup</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1511,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1806,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="D280" sqref="D280"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1896,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1839,14 +1911,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1855,7 +1927,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1871,7 +1943,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1887,7 +1959,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1903,7 +1975,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1919,7 +1991,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1935,7 +2007,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -1951,7 +2023,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -1967,14 +2039,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -1983,7 +2055,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -1999,7 +2071,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2015,7 +2087,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2031,7 +2103,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2047,7 +2119,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2063,7 +2135,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2079,7 +2151,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2095,7 +2167,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2111,7 +2183,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2127,7 +2199,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2143,7 +2215,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2159,7 +2231,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2175,7 +2247,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2191,7 +2263,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2207,7 +2279,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2223,7 +2295,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2239,7 +2311,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2255,7 +2327,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2284,14 +2356,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2300,7 +2372,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2316,7 +2388,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2332,7 +2404,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2348,7 +2420,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2364,7 +2436,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2393,14 +2465,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2409,14 +2481,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2425,7 +2497,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2441,14 +2513,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2457,7 +2529,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2473,7 +2545,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2489,7 +2561,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2505,7 +2577,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2521,7 +2593,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2537,7 +2609,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2553,7 +2625,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2569,7 +2641,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2585,7 +2657,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2601,7 +2673,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2617,7 +2689,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2633,7 +2705,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2649,7 +2721,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2665,7 +2737,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2681,7 +2753,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2697,14 +2769,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2713,7 +2785,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2729,7 +2801,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2745,7 +2817,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2761,7 +2833,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2777,7 +2849,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2793,7 +2865,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2809,7 +2881,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2825,7 +2897,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2841,7 +2913,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2857,7 +2929,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2873,7 +2945,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2889,7 +2961,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2905,7 +2977,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2921,7 +2993,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -2937,14 +3009,14 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
@@ -2953,14 +3025,14 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
@@ -2969,14 +3041,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -2985,7 +3057,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3001,7 +3073,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3017,7 +3089,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3033,7 +3105,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3049,14 +3121,14 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
@@ -3065,7 +3137,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3081,7 +3153,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3097,7 +3169,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3113,14 +3185,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3129,7 +3201,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3145,7 +3217,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3161,7 +3233,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3177,7 +3249,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3193,7 +3265,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3209,7 +3281,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3225,7 +3297,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3241,7 +3313,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3257,7 +3329,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3273,7 +3345,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3289,7 +3361,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3305,7 +3377,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3321,7 +3393,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3337,7 +3409,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3353,7 +3425,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3369,7 +3441,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3385,7 +3457,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3401,7 +3473,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3417,7 +3489,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3433,7 +3505,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3449,7 +3521,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3465,7 +3537,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3481,7 +3553,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3497,7 +3569,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3513,7 +3585,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3529,14 +3601,14 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="2"/>
@@ -3545,7 +3617,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3561,7 +3633,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3577,7 +3649,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3593,7 +3665,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3609,7 +3681,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3625,7 +3697,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3641,7 +3713,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3657,7 +3729,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3673,7 +3745,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3689,7 +3761,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3705,7 +3777,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3721,7 +3793,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3737,7 +3809,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3753,7 +3825,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3769,7 +3841,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3785,7 +3857,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3801,7 +3873,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3817,14 +3889,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
@@ -3833,7 +3905,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3849,7 +3921,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3865,7 +3937,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3881,14 +3953,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3897,7 +3969,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3913,7 +3985,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3929,7 +4001,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -3945,7 +4017,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -3961,7 +4033,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -3977,7 +4049,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -3993,7 +4065,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4009,7 +4081,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4025,7 +4097,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4041,7 +4113,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4057,7 +4129,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4073,7 +4145,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4089,7 +4161,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4105,7 +4177,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4121,7 +4193,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4137,7 +4209,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4153,7 +4225,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4169,7 +4241,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4185,7 +4257,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4201,7 +4273,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4217,7 +4289,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4233,14 +4305,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4249,7 +4321,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4265,7 +4337,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4281,7 +4353,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4297,7 +4369,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4313,7 +4385,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4329,7 +4401,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4345,7 +4417,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4361,7 +4433,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4377,7 +4449,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4393,7 +4465,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4409,7 +4481,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4425,7 +4497,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4441,7 +4513,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4457,7 +4529,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4473,7 +4545,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4489,7 +4561,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4505,7 +4577,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4521,7 +4593,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4537,7 +4609,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4553,7 +4625,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4569,7 +4641,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4585,7 +4657,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4601,7 +4673,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4617,7 +4689,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4633,7 +4705,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4649,7 +4721,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4665,7 +4737,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4681,7 +4753,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4697,7 +4769,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4713,7 +4785,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4729,7 +4801,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="5"/>
@@ -4745,7 +4817,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4761,7 +4833,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4777,7 +4849,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4793,7 +4865,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4809,7 +4881,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4825,7 +4897,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4841,7 +4913,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4857,7 +4929,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4873,7 +4945,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4889,7 +4961,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4905,7 +4977,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4915,13 +4987,13 @@
         <v>177</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" ref="D194:D257" si="6">"        "&amp;C194&amp;"="&amp;B194&amp;","</f>
+        <f t="shared" ref="D194:D256" si="6">"        "&amp;C194&amp;"="&amp;B194&amp;","</f>
         <v xml:space="preserve">        QUOTES=192,</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -4937,10 +5009,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B196" s="1">
-        <f t="shared" ref="B196:B259" si="7">B195+1</f>
+        <f t="shared" ref="B196:B258" si="7">B195+1</f>
         <v>194</v>
       </c>
       <c r="C196" t="s">
@@ -4953,7 +5025,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -4969,7 +5041,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -4985,7 +5057,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5001,7 +5073,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5017,7 +5089,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5033,7 +5105,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5049,7 +5121,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5065,7 +5137,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5081,7 +5153,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5097,7 +5169,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5113,7 +5185,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5129,7 +5201,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5145,7 +5217,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5161,7 +5233,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5177,7 +5249,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5193,7 +5265,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5209,7 +5281,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5225,7 +5297,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5241,7 +5313,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5257,7 +5329,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5273,7 +5345,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5289,7 +5361,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5305,7 +5377,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5321,7 +5393,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5337,7 +5409,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5353,7 +5425,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5369,7 +5441,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5385,7 +5457,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5396,15 +5468,15 @@
       </c>
       <c r="D224" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        ATTRIBUTES=222,</v>
+        <v xml:space="preserve">        AUTHOR=222,</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B225" s="1">
-        <f>B224+1</f>
+        <f t="shared" si="7"/>
         <v>223</v>
       </c>
       <c r="C225" t="s">
@@ -5412,12 +5484,12 @@
       </c>
       <c r="D225" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        AUTHOR=223,</v>
+        <v xml:space="preserve">        BEFORE=223,</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5428,12 +5500,12 @@
       </c>
       <c r="D226" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BEFORE=224,</v>
+        <v xml:space="preserve">        BEGINNING=224,</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5444,12 +5516,12 @@
       </c>
       <c r="D227" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BEGINNING=225,</v>
+        <v xml:space="preserve">        BINARY=225,</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5460,12 +5532,12 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BINARY=226,</v>
+        <v xml:space="preserve">        BLANK=226,</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5476,12 +5548,12 @@
       </c>
       <c r="D229" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BLANK=227,</v>
+        <v xml:space="preserve">        BLOCK=227,</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5492,12 +5564,12 @@
       </c>
       <c r="D230" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BLOCK=228,</v>
+        <v xml:space="preserve">        BOTTOM=228,</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5508,12 +5580,12 @@
       </c>
       <c r="D231" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BOTTOM=229,</v>
+        <v xml:space="preserve">        BY=229,</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5524,12 +5596,12 @@
       </c>
       <c r="D232" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BY=230,</v>
+        <v xml:space="preserve">        CHARACTER=230,</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5540,12 +5612,12 @@
       </c>
       <c r="D233" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CHARACTER=231,</v>
+        <v xml:space="preserve">        CHARACTERS=231,</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5556,12 +5628,12 @@
       </c>
       <c r="D234" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CHARACTERS=232,</v>
+        <v xml:space="preserve">        CLASS=232,</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5572,12 +5644,12 @@
       </c>
       <c r="D235" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CLASS=233,</v>
+        <v xml:space="preserve">        CLASS_ID=233,</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5588,12 +5660,12 @@
       </c>
       <c r="D236" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CLASS_ID=234,</v>
+        <v xml:space="preserve">        COBOL=234,</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5604,12 +5676,12 @@
       </c>
       <c r="D237" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COBOL=235,</v>
+        <v xml:space="preserve">        CODE=235,</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5620,12 +5692,12 @@
       </c>
       <c r="D238" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CODE=236,</v>
+        <v xml:space="preserve">        CODE_SET=236,</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5636,12 +5708,12 @@
       </c>
       <c r="D239" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CODE_SET=237,</v>
+        <v xml:space="preserve">        COLLATING=237,</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5652,12 +5724,12 @@
       </c>
       <c r="D240" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COLLATING=238,</v>
+        <v xml:space="preserve">        COM_REG=238,</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5668,12 +5740,12 @@
       </c>
       <c r="D241" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COM_REG=239,</v>
+        <v xml:space="preserve">        COMMA=239,</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5684,12 +5756,12 @@
       </c>
       <c r="D242" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMMA=240,</v>
+        <v xml:space="preserve">        COMMON=240,</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5700,12 +5772,12 @@
       </c>
       <c r="D243" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMMON=241,</v>
+        <v xml:space="preserve">        COMP=241,</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5716,12 +5788,12 @@
       </c>
       <c r="D244" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP=242,</v>
+        <v xml:space="preserve">        COMP_1=242,</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5732,12 +5804,12 @@
       </c>
       <c r="D245" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_1=243,</v>
+        <v xml:space="preserve">        COMP_2=243,</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5748,12 +5820,12 @@
       </c>
       <c r="D246" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_2=244,</v>
+        <v xml:space="preserve">        COMP_3=244,</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5764,12 +5836,12 @@
       </c>
       <c r="D247" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_3=245,</v>
+        <v xml:space="preserve">        COMP_4=245,</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5780,12 +5852,12 @@
       </c>
       <c r="D248" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_4=246,</v>
+        <v xml:space="preserve">        COMP_5=246,</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5796,12 +5868,12 @@
       </c>
       <c r="D249" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_5=247,</v>
+        <v xml:space="preserve">        COMPUTATIONAL=247,</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5812,12 +5884,12 @@
       </c>
       <c r="D250" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL=248,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_1=248,</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5828,12 +5900,12 @@
       </c>
       <c r="D251" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_1=249,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_2=249,</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5844,12 +5916,12 @@
       </c>
       <c r="D252" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_2=250,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_3=250,</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5860,12 +5932,12 @@
       </c>
       <c r="D253" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_3=251,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_4=251,</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5876,12 +5948,12 @@
       </c>
       <c r="D254" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_4=252,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_5=252,</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5892,12 +5964,12 @@
       </c>
       <c r="D255" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_5=253,</v>
+        <v xml:space="preserve">        CONTAINS=253,</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5908,12 +5980,12 @@
       </c>
       <c r="D256" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CONTAINS=254,</v>
+        <v xml:space="preserve">        CONTENT=254,</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5923,13 +5995,13 @@
         <v>240</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">        CONTENT=255,</v>
+        <f t="shared" ref="D257:D318" si="8">"        "&amp;C257&amp;"="&amp;B257&amp;","</f>
+        <v xml:space="preserve">        CONVERTING=255,</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="7"/>
@@ -5939,16 +6011,16 @@
         <v>241</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" ref="D258:D319" si="8">"        "&amp;C258&amp;"="&amp;B258&amp;","</f>
-        <v xml:space="preserve">        CONVERTING=256,</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">        CORR=256,</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B259" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B259:B321" si="9">B258+1</f>
         <v>257</v>
       </c>
       <c r="C259" t="s">
@@ -5956,15 +6028,15 @@
       </c>
       <c r="D259" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        CORR=257,</v>
+        <v xml:space="preserve">        CORRESPONDING=257,</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B260" s="1">
-        <f t="shared" ref="B260:B322" si="9">B259+1</f>
+        <f t="shared" si="9"/>
         <v>258</v>
       </c>
       <c r="C260" t="s">
@@ -5972,12 +6044,12 @@
       </c>
       <c r="D260" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        CORRESPONDING=258,</v>
+        <v xml:space="preserve">        COUNT=258,</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -5988,28 +6060,28 @@
       </c>
       <c r="D261" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        COUNT=259,</v>
+        <v xml:space="preserve">        CURRENCY=259,</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        CURRENCY=260,</v>
+        <v xml:space="preserve">        DATE=260,</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6020,12 +6092,12 @@
       </c>
       <c r="D263" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DATE=261,</v>
+        <v xml:space="preserve">        DATE_COMPILED=261,</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6036,12 +6108,12 @@
       </c>
       <c r="D264" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DATE_COMPILED=262,</v>
+        <v xml:space="preserve">        DATE_WRITTEN=262,</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6052,12 +6124,12 @@
       </c>
       <c r="D265" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DATE_WRITTEN=263,</v>
+        <v xml:space="preserve">        DAY=263,</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6068,12 +6140,12 @@
       </c>
       <c r="D266" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DAY=264,</v>
+        <v xml:space="preserve">        DAY_OF_WEEK=264,</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6084,12 +6156,12 @@
       </c>
       <c r="D267" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DAY_OF_WEEK=265,</v>
+        <v xml:space="preserve">        DBCS=265,</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6100,12 +6172,12 @@
       </c>
       <c r="D268" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DBCS=266,</v>
+        <v xml:space="preserve">        DEBUGGING=266,</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6116,28 +6188,28 @@
       </c>
       <c r="D269" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DEBUGGING=267,</v>
+        <v xml:space="preserve">        DECIMAL_POINT=267,</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="C270" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DECIMAL_POINT=268,</v>
+        <v xml:space="preserve">        DELIMITED=268,</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6148,12 +6220,12 @@
       </c>
       <c r="D271" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DELIMITED=269,</v>
+        <v xml:space="preserve">        DELIMITER=269,</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6164,12 +6236,12 @@
       </c>
       <c r="D272" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DELIMITER=270,</v>
+        <v xml:space="preserve">        DEPENDING=270,</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6180,12 +6252,12 @@
       </c>
       <c r="D273" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DEPENDING=271,</v>
+        <v xml:space="preserve">        DESCENDING=271,</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6196,12 +6268,12 @@
       </c>
       <c r="D274" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DESCENDING=272,</v>
+        <v xml:space="preserve">        DISPLAY_1=272,</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6212,12 +6284,12 @@
       </c>
       <c r="D275" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DISPLAY_1=273,</v>
+        <v xml:space="preserve">        DIVISION=273,</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6228,12 +6300,12 @@
       </c>
       <c r="D276" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DIVISION=274,</v>
+        <v xml:space="preserve">        DOWN=274,</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6244,12 +6316,12 @@
       </c>
       <c r="D277" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DOWN=275,</v>
+        <v xml:space="preserve">        DUPLICATES=275,</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6260,12 +6332,12 @@
       </c>
       <c r="D278" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DUPLICATES=276,</v>
+        <v xml:space="preserve">        DYNAMIC=276,</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6276,12 +6348,12 @@
       </c>
       <c r="D279" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DYNAMIC=277,</v>
+        <v xml:space="preserve">        EGCS=277,</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6292,28 +6364,28 @@
       </c>
       <c r="D280" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EGCS=278,</v>
+        <v xml:space="preserve">        ELEMENT=278,</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
         <v>279</v>
       </c>
       <c r="C281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ELEMENT=279,</v>
+        <v xml:space="preserve">        END_OF_PAGE=279,</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6324,12 +6396,12 @@
       </c>
       <c r="D282" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        END_OF_PAGE=280,</v>
+        <v xml:space="preserve">        ENDING=280,</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6340,12 +6412,12 @@
       </c>
       <c r="D283" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ENDING=281,</v>
+        <v xml:space="preserve">        EOP=281,</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6356,12 +6428,12 @@
       </c>
       <c r="D284" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EOP=282,</v>
+        <v xml:space="preserve">        EQUAL=282,</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6372,12 +6444,12 @@
       </c>
       <c r="D285" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EQUAL=283,</v>
+        <v xml:space="preserve">        ERROR=283,</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6388,12 +6460,12 @@
       </c>
       <c r="D286" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ERROR=284,</v>
+        <v xml:space="preserve">        EVERY=284,</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6404,12 +6476,12 @@
       </c>
       <c r="D287" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EVERY=285,</v>
+        <v xml:space="preserve">        EXCEPTION=285,</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6420,12 +6492,12 @@
       </c>
       <c r="D288" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXCEPTION=286,</v>
+        <v xml:space="preserve">        EXTEND=286,</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6436,12 +6508,12 @@
       </c>
       <c r="D289" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXTEND=287,</v>
+        <v xml:space="preserve">        EXTERNAL=287,</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6452,12 +6524,12 @@
       </c>
       <c r="D290" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXTERNAL=288,</v>
+        <v xml:space="preserve">        FACTORY=288,</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6468,28 +6540,28 @@
       </c>
       <c r="D291" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FACTORY=289,</v>
+        <v xml:space="preserve">        FALSE=289,</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
         <v>290</v>
       </c>
       <c r="C292" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FALSE=290,</v>
+        <v xml:space="preserve">        FILLER=290,</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6500,12 +6572,12 @@
       </c>
       <c r="D293" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FILLER=291,</v>
+        <v xml:space="preserve">        FIRST=291,</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6516,12 +6588,12 @@
       </c>
       <c r="D294" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FIRST=292,</v>
+        <v xml:space="preserve">        FOOTING=292,</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6532,12 +6604,12 @@
       </c>
       <c r="D295" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FOOTING=293,</v>
+        <v xml:space="preserve">        FOR=293,</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6548,12 +6620,12 @@
       </c>
       <c r="D296" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FOR=294,</v>
+        <v xml:space="preserve">        FROM=294,</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6564,12 +6636,12 @@
       </c>
       <c r="D297" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FROM=295,</v>
+        <v xml:space="preserve">        FUNCTION=295,</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6580,12 +6652,12 @@
       </c>
       <c r="D298" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FUNCTION=296,</v>
+        <v xml:space="preserve">        FUNCTION_POINTER=296,</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6596,12 +6668,12 @@
       </c>
       <c r="D299" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FUNCTION_POINTER=297,</v>
+        <v xml:space="preserve">        GENERATE=297,</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6612,12 +6684,12 @@
       </c>
       <c r="D300" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GENERATE=298,</v>
+        <v xml:space="preserve">        GIVING=298,</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6628,12 +6700,12 @@
       </c>
       <c r="D301" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GIVING=299,</v>
+        <v xml:space="preserve">        GLOBAL=299,</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6644,12 +6716,12 @@
       </c>
       <c r="D302" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GLOBAL=300,</v>
+        <v xml:space="preserve">        GREATER=300,</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6660,12 +6732,12 @@
       </c>
       <c r="D303" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GREATER=301,</v>
+        <v xml:space="preserve">        GROUP_USAGE=301,</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6676,12 +6748,12 @@
       </c>
       <c r="D304" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GROUP_USAGE=302,</v>
+        <v xml:space="preserve">        I_O=302,</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6692,12 +6764,12 @@
       </c>
       <c r="D305" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        I_O=303,</v>
+        <v xml:space="preserve">        IN=303,</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6708,12 +6780,12 @@
       </c>
       <c r="D306" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        IN=304,</v>
+        <v xml:space="preserve">        INDEX=304,</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6724,12 +6796,12 @@
       </c>
       <c r="D307" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INDEX=305,</v>
+        <v xml:space="preserve">        INDEXED=305,</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6740,12 +6812,12 @@
       </c>
       <c r="D308" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INDEXED=306,</v>
+        <v xml:space="preserve">        INHERITS=306,</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6756,12 +6828,12 @@
       </c>
       <c r="D309" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INHERITS=307,</v>
+        <v xml:space="preserve">        INITIAL=307,</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6772,12 +6844,12 @@
       </c>
       <c r="D310" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INITIAL=308,</v>
+        <v xml:space="preserve">        INPUT=308,</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6788,12 +6860,12 @@
       </c>
       <c r="D311" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INPUT=309,</v>
+        <v xml:space="preserve">        INSTALLATION=309,</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6804,12 +6876,12 @@
       </c>
       <c r="D312" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INSTALLATION=310,</v>
+        <v xml:space="preserve">        INTO=310,</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6820,12 +6892,12 @@
       </c>
       <c r="D313" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INTO=311,</v>
+        <v xml:space="preserve">        INVALID=311,</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6836,12 +6908,12 @@
       </c>
       <c r="D314" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INVALID=312,</v>
+        <v xml:space="preserve">        IS=312,</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6852,12 +6924,12 @@
       </c>
       <c r="D315" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        IS=313,</v>
+        <v xml:space="preserve">        JUST=313,</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6868,12 +6940,12 @@
       </c>
       <c r="D316" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        JUST=314,</v>
+        <v xml:space="preserve">        JUSTIFIED=314,</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6884,12 +6956,12 @@
       </c>
       <c r="D317" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        JUSTIFIED=315,</v>
+        <v xml:space="preserve">        KANJI=315,</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6900,12 +6972,12 @@
       </c>
       <c r="D318" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        KANJI=316,</v>
+        <v xml:space="preserve">        KEY=316,</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6915,13 +6987,13 @@
         <v>306</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">        KEY=317,</v>
+        <f t="shared" ref="D319:D382" si="10">"        "&amp;C319&amp;"="&amp;B319&amp;","</f>
+        <v xml:space="preserve">        LABEL=317,</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="9"/>
@@ -6931,13 +7003,13 @@
         <v>307</v>
       </c>
       <c r="D320" t="str">
-        <f t="shared" ref="D320:D383" si="10">"        "&amp;C320&amp;"="&amp;B320&amp;","</f>
-        <v xml:space="preserve">        LABEL=318,</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">        LEADING=318,</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="9"/>
@@ -6948,15 +7020,15 @@
       </c>
       <c r="D321" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LEADING=319,</v>
+        <v xml:space="preserve">        LEFT=319,</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B322" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B322:B385" si="11">B321+1</f>
         <v>320</v>
       </c>
       <c r="C322" t="s">
@@ -6964,15 +7036,15 @@
       </c>
       <c r="D322" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LEFT=320,</v>
+        <v xml:space="preserve">        LESS=320,</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B323" s="1">
-        <f t="shared" ref="B323:B386" si="11">B322+1</f>
+        <f t="shared" si="11"/>
         <v>321</v>
       </c>
       <c r="C323" t="s">
@@ -6980,12 +7052,12 @@
       </c>
       <c r="D323" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LESS=321,</v>
+        <v xml:space="preserve">        LINAGE=321,</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -6996,12 +7068,12 @@
       </c>
       <c r="D324" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINAGE=322,</v>
+        <v xml:space="preserve">        LINE=322,</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7012,12 +7084,12 @@
       </c>
       <c r="D325" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINE=323,</v>
+        <v xml:space="preserve">        LINES=323,</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7028,12 +7100,12 @@
       </c>
       <c r="D326" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINES=324,</v>
+        <v xml:space="preserve">        LOCK=324,</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7044,12 +7116,12 @@
       </c>
       <c r="D327" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LOCK=325,</v>
+        <v xml:space="preserve">        MEMORY=325,</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7060,12 +7132,12 @@
       </c>
       <c r="D328" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MEMORY=326,</v>
+        <v xml:space="preserve">        METHOD=326,</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7076,12 +7148,12 @@
       </c>
       <c r="D329" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        METHOD=327,</v>
+        <v xml:space="preserve">        METHOD_ID=327,</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7092,12 +7164,12 @@
       </c>
       <c r="D330" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        METHOD_ID=328,</v>
+        <v xml:space="preserve">        MODE=328,</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7108,12 +7180,12 @@
       </c>
       <c r="D331" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MODE=329,</v>
+        <v xml:space="preserve">        MODULES=329,</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7124,12 +7196,12 @@
       </c>
       <c r="D332" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MODULES=330,</v>
+        <v xml:space="preserve">        MORE_LABELS=330,</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7140,12 +7212,12 @@
       </c>
       <c r="D333" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MORE_LABELS=331,</v>
+        <v xml:space="preserve">        NAME=331,</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7156,12 +7228,12 @@
       </c>
       <c r="D334" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NAME=332,</v>
+        <v xml:space="preserve">        NAMESPACE=332,</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7172,12 +7244,12 @@
       </c>
       <c r="D335" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NAMESPACE=333,</v>
+        <v xml:space="preserve">        NAMESPACE_PREFIX=333,</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7188,12 +7260,12 @@
       </c>
       <c r="D336" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NAMESPACE_PREFIX=334,</v>
+        <v xml:space="preserve">        NATIONAL=334,</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7204,12 +7276,12 @@
       </c>
       <c r="D337" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL=335,</v>
+        <v xml:space="preserve">        NATIONAL_EDITED=335,</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7220,12 +7292,12 @@
       </c>
       <c r="D338" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL_EDITED=336,</v>
+        <v xml:space="preserve">        NATIVE=336,</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7236,12 +7308,12 @@
       </c>
       <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIVE=337,</v>
+        <v xml:space="preserve">        NEGATIVE=337,</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7252,28 +7324,28 @@
       </c>
       <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEGATIVE=338,</v>
+        <v xml:space="preserve">        NEW=338,</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
         <v>339</v>
       </c>
       <c r="C341" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D341" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEW=339,</v>
+        <v xml:space="preserve">        NO=339,</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7284,12 +7356,12 @@
       </c>
       <c r="D342" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NO=340,</v>
+        <v xml:space="preserve">        NONNUMERIC=340,</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7300,12 +7372,12 @@
       </c>
       <c r="D343" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NONNUMERIC=341,</v>
+        <v xml:space="preserve">        NOT=341,</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7316,12 +7388,12 @@
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NOT=342,</v>
+        <v xml:space="preserve">        NUMERIC=342,</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7332,12 +7404,12 @@
       </c>
       <c r="D345" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC=343,</v>
+        <v xml:space="preserve">        NUMERIC_EDITED=343,</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7348,12 +7420,12 @@
       </c>
       <c r="D346" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC_EDITED=344,</v>
+        <v xml:space="preserve">        OBJECT=344,</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7364,12 +7436,12 @@
       </c>
       <c r="D347" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OBJECT=345,</v>
+        <v xml:space="preserve">        OCCURS=345,</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7380,12 +7452,12 @@
       </c>
       <c r="D348" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OCCURS=346,</v>
+        <v xml:space="preserve">        OF=346,</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7396,12 +7468,12 @@
       </c>
       <c r="D349" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OF=347,</v>
+        <v xml:space="preserve">        OFF=347,</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7412,12 +7484,12 @@
       </c>
       <c r="D350" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OFF=348,</v>
+        <v xml:space="preserve">        OMITTED=348,</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7428,12 +7500,12 @@
       </c>
       <c r="D351" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OMITTED=349,</v>
+        <v xml:space="preserve">        ON=349,</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7444,12 +7516,12 @@
       </c>
       <c r="D352" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ON=350,</v>
+        <v xml:space="preserve">        OPTIONAL=350,</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7460,12 +7532,12 @@
       </c>
       <c r="D353" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OPTIONAL=351,</v>
+        <v xml:space="preserve">        OR=351,</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7476,12 +7548,12 @@
       </c>
       <c r="D354" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OR=352,</v>
+        <v xml:space="preserve">        ORDER=352,</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7492,12 +7564,12 @@
       </c>
       <c r="D355" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORDER=353,</v>
+        <v xml:space="preserve">        ORGANIZATION=353,</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7508,12 +7580,12 @@
       </c>
       <c r="D356" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORGANIZATION=354,</v>
+        <v xml:space="preserve">        OTHER=354,</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7524,12 +7596,12 @@
       </c>
       <c r="D357" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OTHER=355,</v>
+        <v xml:space="preserve">        OUTPUT=355,</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7540,12 +7612,12 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OUTPUT=356,</v>
+        <v xml:space="preserve">        OVERFLOW=356,</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7556,12 +7628,12 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERFLOW=357,</v>
+        <v xml:space="preserve">        OVERRIDE=357,</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7572,12 +7644,12 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERRIDE=358,</v>
+        <v xml:space="preserve">        PACKED_DECIMAL=358,</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7588,12 +7660,12 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PACKED_DECIMAL=359,</v>
+        <v xml:space="preserve">        PADDING=359,</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7604,12 +7676,12 @@
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PADDING=360,</v>
+        <v xml:space="preserve">        PAGE=360,</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7620,12 +7692,12 @@
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PAGE=361,</v>
+        <v xml:space="preserve">        PARSE=361,</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7636,12 +7708,12 @@
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PARSE=362,</v>
+        <v xml:space="preserve">        PASSWORD=362,</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7652,12 +7724,12 @@
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PASSWORD=363,</v>
+        <v xml:space="preserve">        PIC=363,</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7668,12 +7740,12 @@
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PIC=364,</v>
+        <v xml:space="preserve">        PICTURE=364,</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7684,12 +7756,12 @@
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PICTURE=365,</v>
+        <v xml:space="preserve">        POINTER=365,</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7700,12 +7772,12 @@
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POINTER=366,</v>
+        <v xml:space="preserve">        POSITION=366,</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7716,28 +7788,28 @@
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITION=367,</v>
+        <v xml:space="preserve">        POSITIVE=367,</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
         <v>368</v>
       </c>
       <c r="C370" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITIVE=368,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER=368,</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7748,12 +7820,12 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER=369,</v>
+        <v xml:space="preserve">        PROCEDURES=369,</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7764,12 +7836,12 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURES=370,</v>
+        <v xml:space="preserve">        PROCEED=370,</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7780,12 +7852,12 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEED=371,</v>
+        <v xml:space="preserve">        PROCESSING=371,</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7796,12 +7868,12 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCESSING=372,</v>
+        <v xml:space="preserve">        PROGRAM=372,</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7812,12 +7884,12 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM=373,</v>
+        <v xml:space="preserve">        PROGRAM_ID=373,</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7828,12 +7900,12 @@
       </c>
       <c r="D376" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM_ID=374,</v>
+        <v xml:space="preserve">        RANDOM=374,</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7844,12 +7916,12 @@
       </c>
       <c r="D377" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RANDOM=375,</v>
+        <v xml:space="preserve">        RECORD=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7860,12 +7932,12 @@
       </c>
       <c r="D378" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORD=376,</v>
+        <v xml:space="preserve">        RECORDING=376,</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7876,12 +7948,12 @@
       </c>
       <c r="D379" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDING=377,</v>
+        <v xml:space="preserve">        RECORDS=377,</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="11"/>
@@ -7892,12 +7964,12 @@
       </c>
       <c r="D380" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDS=378,</v>
+        <v xml:space="preserve">        RECURSIVE=378,</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="11"/>
@@ -7908,12 +7980,12 @@
       </c>
       <c r="D381" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECURSIVE=379,</v>
+        <v xml:space="preserve">        REDEFINES=379,</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="11"/>
@@ -7924,12 +7996,12 @@
       </c>
       <c r="D382" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        REDEFINES=380,</v>
+        <v xml:space="preserve">        REEL=380,</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="11"/>
@@ -7939,13 +8011,13 @@
         <v>372</v>
       </c>
       <c r="D383" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">        REEL=381,</v>
+        <f t="shared" ref="D383:D446" si="12">"        "&amp;C383&amp;"="&amp;B383&amp;","</f>
+        <v xml:space="preserve">        REFERENCE=381,</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="11"/>
@@ -7955,13 +8027,13 @@
         <v>373</v>
       </c>
       <c r="D384" t="str">
-        <f t="shared" ref="D384:D447" si="12">"        "&amp;C384&amp;"="&amp;B384&amp;","</f>
-        <v xml:space="preserve">        REFERENCE=382,</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">        REFERENCES=382,</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="11"/>
@@ -7972,15 +8044,15 @@
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REFERENCES=383,</v>
+        <v xml:space="preserve">        RELATIVE=383,</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B386" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B386:B449" si="13">B385+1</f>
         <v>384</v>
       </c>
       <c r="C386" t="s">
@@ -7988,15 +8060,15 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELATIVE=384,</v>
+        <v xml:space="preserve">        RELOAD=384,</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B387" s="1">
-        <f t="shared" ref="B387:B450" si="13">B386+1</f>
+        <f t="shared" si="13"/>
         <v>385</v>
       </c>
       <c r="C387" t="s">
@@ -8004,12 +8076,12 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELOAD=385,</v>
+        <v xml:space="preserve">        REMAINDER=385,</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8020,12 +8092,12 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMAINDER=386,</v>
+        <v xml:space="preserve">        REMOVAL=386,</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8036,12 +8108,12 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMOVAL=387,</v>
+        <v xml:space="preserve">        RENAMES=387,</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8052,12 +8124,12 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RENAMES=388,</v>
+        <v xml:space="preserve">        REPLACING=388,</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8068,12 +8140,12 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REPLACING=389,</v>
+        <v xml:space="preserve">        RESERVE=389,</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8084,12 +8156,12 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RESERVE=390,</v>
+        <v xml:space="preserve">        RETURNING=390,</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8100,12 +8172,12 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RETURNING=391,</v>
+        <v xml:space="preserve">        REVERSED=391,</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8116,12 +8188,12 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REVERSED=392,</v>
+        <v xml:space="preserve">        REWIND=392,</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8132,12 +8204,12 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REWIND=393,</v>
+        <v xml:space="preserve">        RIGHT=393,</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8148,12 +8220,12 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RIGHT=394,</v>
+        <v xml:space="preserve">        ROUNDED=394,</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8164,12 +8236,12 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        ROUNDED=395,</v>
+        <v xml:space="preserve">        RUN=395,</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8180,12 +8252,12 @@
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RUN=396,</v>
+        <v xml:space="preserve">        SECTION=396,</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8196,12 +8268,12 @@
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECTION=397,</v>
+        <v xml:space="preserve">        SECURITY=397,</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8212,12 +8284,12 @@
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECURITY=398,</v>
+        <v xml:space="preserve">        SEGMENT_LIMIT=398,</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8228,12 +8300,12 @@
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT=399,</v>
+        <v xml:space="preserve">        SENTENCE=399,</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8244,12 +8316,12 @@
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SENTENCE=400,</v>
+        <v xml:space="preserve">        SEPARATE=400,</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8260,12 +8332,12 @@
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEPARATE=401,</v>
+        <v xml:space="preserve">        SEQUENCE=401,</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8276,12 +8348,12 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENCE=402,</v>
+        <v xml:space="preserve">        SEQUENTIAL=402,</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8292,12 +8364,12 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENTIAL=403,</v>
+        <v xml:space="preserve">        SIGN=403,</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8308,12 +8380,12 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIGN=404,</v>
+        <v xml:space="preserve">        SIZE=404,</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8324,12 +8396,12 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIZE=405,</v>
+        <v xml:space="preserve">        SORT_MERGE=405,</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8340,12 +8412,12 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SORT_MERGE=406,</v>
+        <v xml:space="preserve">        SQL=406,</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8356,12 +8428,12 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQL=407,</v>
+        <v xml:space="preserve">        SQLIMS=407,</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8372,12 +8444,12 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQLIMS=408,</v>
+        <v xml:space="preserve">        STANDARD=408,</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8388,12 +8460,12 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD=409,</v>
+        <v xml:space="preserve">        STANDARD_1=409,</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8404,12 +8476,12 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_1=410,</v>
+        <v xml:space="preserve">        STANDARD_2=410,</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8420,12 +8492,12 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_2=411,</v>
+        <v xml:space="preserve">        STATUS=411,</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8436,12 +8508,12 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STATUS=412,</v>
+        <v xml:space="preserve">        SUPPRESS=412,</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8452,12 +8524,12 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SUPPRESS=413,</v>
+        <v xml:space="preserve">        SYMBOL=413,</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8468,12 +8540,12 @@
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOL=414,</v>
+        <v xml:space="preserve">        SYMBOLIC=414,</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8484,12 +8556,12 @@
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOLIC=415,</v>
+        <v xml:space="preserve">        SYNC=415,</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8500,12 +8572,12 @@
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNC=416,</v>
+        <v xml:space="preserve">        SYNCHRONIZED=416,</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8516,12 +8588,12 @@
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNCHRONIZED=417,</v>
+        <v xml:space="preserve">        TALLYING=417,</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8532,12 +8604,12 @@
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TALLYING=418,</v>
+        <v xml:space="preserve">        TAPE=418,</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8548,12 +8620,12 @@
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TAPE=419,</v>
+        <v xml:space="preserve">        TEST=419,</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8564,12 +8636,12 @@
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TEST=420,</v>
+        <v xml:space="preserve">        THAN=420,</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8580,12 +8652,12 @@
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THAN=421,</v>
+        <v xml:space="preserve">        THEN=421,</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8596,12 +8668,12 @@
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THEN=422,</v>
+        <v xml:space="preserve">        THROUGH=422,</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8612,12 +8684,12 @@
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THROUGH=423,</v>
+        <v xml:space="preserve">        THRU=423,</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8628,12 +8700,12 @@
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THRU=424,</v>
+        <v xml:space="preserve">        TIME=424,</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8644,12 +8716,12 @@
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIME=425,</v>
+        <v xml:space="preserve">        TIMES=425,</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8660,12 +8732,12 @@
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIMES=426,</v>
+        <v xml:space="preserve">        TO=426,</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8676,12 +8748,12 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TO=427,</v>
+        <v xml:space="preserve">        TOP=427,</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8692,12 +8764,12 @@
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TOP=428,</v>
+        <v xml:space="preserve">        TRACE=428,</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8708,12 +8780,12 @@
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRACE=429,</v>
+        <v xml:space="preserve">        TRAILING=429,</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8724,12 +8796,12 @@
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRAILING=430,</v>
+        <v xml:space="preserve">        TRUE=430,</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8740,12 +8812,12 @@
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRUE=431,</v>
+        <v xml:space="preserve">        TYPE=431,</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8756,12 +8828,12 @@
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TYPE=432,</v>
+        <v xml:space="preserve">        UNBOUNDED=432,</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8772,12 +8844,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNBOUNDED=433,</v>
+        <v xml:space="preserve">        UNIT=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8788,12 +8860,12 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNIT=434,</v>
+        <v xml:space="preserve">        UNTIL=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8804,12 +8876,12 @@
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNTIL=435,</v>
+        <v xml:space="preserve">        UP=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8820,12 +8892,12 @@
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UP=436,</v>
+        <v xml:space="preserve">        UPON=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8836,12 +8908,12 @@
       </c>
       <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UPON=437,</v>
+        <v xml:space="preserve">        USAGE=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8852,12 +8924,12 @@
       </c>
       <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USAGE=438,</v>
+        <v xml:space="preserve">        USING=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
@@ -8868,12 +8940,12 @@
       </c>
       <c r="D441" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USING=439,</v>
+        <v xml:space="preserve">        VALIDATING=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B442" s="1">
         <f t="shared" si="13"/>
@@ -8884,12 +8956,12 @@
       </c>
       <c r="D442" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALIDATING=440,</v>
+        <v xml:space="preserve">        VALUE=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B443" s="1">
         <f t="shared" si="13"/>
@@ -8900,12 +8972,12 @@
       </c>
       <c r="D443" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=441,</v>
+        <v xml:space="preserve">        VALUES=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="1">
         <f t="shared" si="13"/>
@@ -8916,28 +8988,28 @@
       </c>
       <c r="D444" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=442,</v>
+        <v xml:space="preserve">        VARYING=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B445" s="1">
         <f t="shared" si="13"/>
         <v>443</v>
       </c>
       <c r="C445" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D445" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=443,</v>
+        <v xml:space="preserve">        WITH=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B446" s="1">
         <f t="shared" si="13"/>
@@ -8948,12 +9020,12 @@
       </c>
       <c r="D446" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=444,</v>
+        <v xml:space="preserve">        WORDS=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B447" s="1">
         <f t="shared" si="13"/>
@@ -8963,13 +9035,13 @@
         <v>437</v>
       </c>
       <c r="D447" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=445,</v>
+        <f t="shared" ref="D447:D458" si="14">"        "&amp;C447&amp;"="&amp;B447&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B448" s="1">
         <f t="shared" si="13"/>
@@ -8979,13 +9051,13 @@
         <v>438</v>
       </c>
       <c r="D448" t="str">
-        <f t="shared" ref="D448:D459" si="14">"        "&amp;C448&amp;"="&amp;B448&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=446,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_DECLARATION=446,</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B449" s="1">
         <f t="shared" si="13"/>
@@ -8996,15 +9068,15 @@
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_DECLARATION=447,</v>
+        <v xml:space="preserve">        XML_SCHEMA=447,</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B450" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B450:B458" si="15">B449+1</f>
         <v>448</v>
       </c>
       <c r="C450" t="s">
@@ -9012,29 +9084,26 @@
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=448,</v>
+        <v xml:space="preserve">        YYYYDDD=448,</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B451" s="1">
-        <f t="shared" ref="B451:B459" si="15">B450+1</f>
+        <f t="shared" si="15"/>
         <v>449</v>
       </c>
       <c r="C451" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="D451" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=449,</v>
+        <v xml:space="preserve">        YYYYMMDD=449,</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>443</v>
-      </c>
       <c r="B452" s="1">
         <f t="shared" si="15"/>
         <v>450</v>
@@ -9044,7 +9113,7 @@
       </c>
       <c r="D452" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=450,</v>
+        <v xml:space="preserve">        TYPEDEF=450,</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -9057,7 +9126,7 @@
       </c>
       <c r="D453" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=451,</v>
+        <v xml:space="preserve">        STRONG=451,</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -9070,7 +9139,7 @@
       </c>
       <c r="D454" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=452,</v>
+        <v xml:space="preserve">        UNSAFE=452,</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -9079,11 +9148,11 @@
         <v>453</v>
       </c>
       <c r="C455" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D455" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=453,</v>
+        <v xml:space="preserve">        PUBLIC=453,</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -9096,7 +9165,7 @@
       </c>
       <c r="D456" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=454,</v>
+        <v xml:space="preserve">        PRIVATE=454,</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -9105,11 +9174,11 @@
         <v>455</v>
       </c>
       <c r="C457" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D457" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=455,</v>
+        <v xml:space="preserve">        IN_OUT=455,</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -9122,29 +9191,81 @@
       </c>
       <c r="D458" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=456,</v>
+        <v xml:space="preserve">        STRICT=456,</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B459:B462" si="16">B458+1</f>
         <v>457</v>
       </c>
       <c r="C459" t="s">
         <v>476</v>
       </c>
       <c r="D459" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=457,</v>
+        <f t="shared" ref="D459:D462" si="17">"        "&amp;C459&amp;"="&amp;B459&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=457,</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B460" s="1">
+        <f t="shared" si="16"/>
+        <v>458</v>
+      </c>
+      <c r="C460" t="s">
+        <v>477</v>
+      </c>
+      <c r="D460" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=458,</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B461" s="1">
+        <f t="shared" si="16"/>
+        <v>459</v>
+      </c>
+      <c r="C461" t="s">
+        <v>478</v>
+      </c>
+      <c r="D461" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CopyImportDirective=459,</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B462" s="1">
+        <f t="shared" si="16"/>
+        <v>460</v>
+      </c>
+      <c r="C462" t="s">
+        <v>479</v>
+      </c>
+      <c r="D462" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        ReplaceDirective=460,</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B463" s="1">
+        <f t="shared" ref="B463" si="18">B462+1</f>
+        <v>461</v>
+      </c>
+      <c r="C463" t="s">
+        <v>480</v>
+      </c>
+      <c r="D463" t="str">
+        <f t="shared" ref="D463" si="19">"        "&amp;C463&amp;"="&amp;B463&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=461,</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="480">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1338,9 +1338,6 @@
   </si>
   <si>
     <t>WRITE_ONLY</t>
-  </si>
-  <si>
-    <t>XML_DECLARATION</t>
   </si>
   <si>
     <t>XML_SCHEMA</t>
@@ -1878,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467"/>
+      <selection activeCell="C465" sqref="C465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1893,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1911,14 +1908,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1927,7 +1924,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1943,7 +1940,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1975,7 +1972,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -2007,7 +2004,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -2023,7 +2020,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2039,14 +2036,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2055,7 +2052,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2071,7 +2068,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2087,7 +2084,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2103,7 +2100,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2119,7 +2116,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2151,7 +2148,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2167,7 +2164,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2183,7 +2180,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2215,7 +2212,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2231,7 +2228,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2247,7 +2244,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2263,7 +2260,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2279,7 +2276,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2311,7 +2308,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2327,7 +2324,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2356,14 +2353,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2388,7 +2385,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2404,7 +2401,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2420,7 +2417,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2465,14 +2462,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2481,14 +2478,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2497,7 +2494,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2513,14 +2510,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2529,7 +2526,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2545,7 +2542,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2561,7 +2558,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2577,7 +2574,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2593,7 +2590,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2609,7 +2606,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2625,7 +2622,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2641,7 +2638,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2657,7 +2654,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2673,7 +2670,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2689,7 +2686,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2705,7 +2702,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2737,7 +2734,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2753,7 +2750,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2769,14 +2766,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2782,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2801,7 +2798,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2817,7 +2814,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2833,7 +2830,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2849,7 +2846,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2865,7 +2862,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2881,7 +2878,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2897,7 +2894,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2913,7 +2910,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2929,7 +2926,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2945,7 +2942,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2961,7 +2958,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2977,7 +2974,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2993,7 +2990,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -3009,7 +3006,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -3025,7 +3022,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3041,14 +3038,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3057,7 +3054,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3073,7 +3070,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3089,7 +3086,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3105,7 +3102,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3121,7 +3118,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3169,7 +3166,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3185,14 +3182,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3201,7 +3198,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3217,7 +3214,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3233,7 +3230,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3249,7 +3246,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3265,7 +3262,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3281,7 +3278,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3313,7 +3310,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3329,7 +3326,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3345,7 +3342,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3361,7 +3358,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3377,7 +3374,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3393,7 +3390,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3409,7 +3406,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3425,7 +3422,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3441,7 +3438,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3457,7 +3454,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3473,7 +3470,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3489,7 +3486,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3505,7 +3502,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3521,7 +3518,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3553,7 +3550,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3569,7 +3566,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3601,7 +3598,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -3617,7 +3614,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3633,7 +3630,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3665,7 +3662,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3697,7 +3694,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3713,7 +3710,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3729,7 +3726,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3745,7 +3742,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3761,7 +3758,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3777,7 +3774,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3793,7 +3790,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3809,7 +3806,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3825,7 +3822,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3841,7 +3838,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3857,7 +3854,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3873,7 +3870,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3889,7 +3886,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
@@ -3905,7 +3902,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3921,7 +3918,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3937,7 +3934,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3953,7 +3950,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
@@ -3969,7 +3966,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3985,7 +3982,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -4001,7 +3998,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -4017,7 +4014,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4033,7 +4030,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4065,7 +4062,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4081,7 +4078,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4097,7 +4094,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4113,7 +4110,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4129,7 +4126,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4145,7 +4142,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4161,7 +4158,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4177,7 +4174,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4193,7 +4190,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4209,7 +4206,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4225,7 +4222,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4257,7 +4254,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4273,7 +4270,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4289,7 +4286,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4305,7 +4302,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
@@ -4321,7 +4318,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4337,7 +4334,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4353,7 +4350,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4369,7 +4366,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4385,7 +4382,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4401,7 +4398,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4417,7 +4414,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4449,7 +4446,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4465,7 +4462,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4481,7 +4478,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4497,7 +4494,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4513,7 +4510,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4529,7 +4526,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4545,7 +4542,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4561,7 +4558,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4577,7 +4574,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4609,7 +4606,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4625,7 +4622,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4641,7 +4638,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4657,7 +4654,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4673,7 +4670,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4689,7 +4686,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4721,7 +4718,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4737,7 +4734,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4769,7 +4766,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4785,7 +4782,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4801,7 +4798,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="5"/>
@@ -4817,7 +4814,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4833,7 +4830,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4849,7 +4846,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4865,7 +4862,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4881,7 +4878,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4897,7 +4894,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4913,7 +4910,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4929,7 +4926,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4945,7 +4942,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4961,7 +4958,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4993,7 +4990,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -5009,7 +5006,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B258" si="7">B195+1</f>
@@ -5025,7 +5022,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5057,7 +5054,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5073,7 +5070,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5089,7 +5086,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5105,7 +5102,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5121,7 +5118,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5137,7 +5134,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5153,7 +5150,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5169,7 +5166,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5217,7 +5214,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5233,7 +5230,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5249,7 +5246,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5265,7 +5262,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5281,7 +5278,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5297,7 +5294,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5313,7 +5310,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5329,7 +5326,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5345,7 +5342,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5361,7 +5358,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5377,7 +5374,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5393,7 +5390,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5409,7 +5406,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5425,7 +5422,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5441,7 +5438,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5457,7 +5454,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5473,7 +5470,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5489,7 +5486,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5505,7 +5502,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5521,7 +5518,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5553,7 +5550,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5569,7 +5566,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5601,7 +5598,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5617,7 +5614,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5633,7 +5630,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5649,7 +5646,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5665,7 +5662,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5681,7 +5678,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5697,7 +5694,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5713,7 +5710,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5729,7 +5726,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5745,7 +5742,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5761,7 +5758,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5777,7 +5774,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5793,7 +5790,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5809,7 +5806,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5825,7 +5822,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5841,7 +5838,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5857,7 +5854,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5873,7 +5870,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5889,7 +5886,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5905,7 +5902,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5921,7 +5918,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5937,7 +5934,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5953,7 +5950,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5969,7 +5966,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5985,7 +5982,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -6001,7 +5998,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="7"/>
@@ -6017,7 +6014,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" ref="B259:B321" si="9">B258+1</f>
@@ -6033,7 +6030,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6049,7 +6046,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6065,7 +6062,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6081,7 +6078,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6097,7 +6094,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6113,7 +6110,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6129,7 +6126,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6145,7 +6142,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6161,7 +6158,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6177,7 +6174,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6193,7 +6190,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6209,7 +6206,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6225,7 +6222,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6241,7 +6238,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6257,7 +6254,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6273,7 +6270,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6289,7 +6286,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6305,7 +6302,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6321,7 +6318,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6337,7 +6334,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6353,7 +6350,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6369,7 +6366,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6385,7 +6382,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6401,7 +6398,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6417,7 +6414,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6433,7 +6430,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6449,7 +6446,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6465,7 +6462,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6481,7 +6478,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6497,7 +6494,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6513,7 +6510,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6529,7 +6526,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6545,7 +6542,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6561,7 +6558,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6577,7 +6574,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6593,7 +6590,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6609,7 +6606,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6625,7 +6622,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6641,7 +6638,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6657,7 +6654,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6673,7 +6670,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6689,7 +6686,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6705,7 +6702,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6721,7 +6718,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6737,7 +6734,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6753,7 +6750,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6769,7 +6766,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6785,7 +6782,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6801,7 +6798,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6817,7 +6814,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6833,7 +6830,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6849,7 +6846,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6865,7 +6862,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6881,7 +6878,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6897,7 +6894,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6913,7 +6910,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6929,7 +6926,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6945,7 +6942,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6961,7 +6958,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6977,7 +6974,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6993,7 +6990,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="9"/>
@@ -7009,7 +7006,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="9"/>
@@ -7025,7 +7022,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" ref="B322:B385" si="11">B321+1</f>
@@ -7041,7 +7038,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7057,7 +7054,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7073,7 +7070,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7089,7 +7086,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7105,7 +7102,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7121,7 +7118,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7137,7 +7134,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7153,7 +7150,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7169,7 +7166,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7185,7 +7182,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7217,7 +7214,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7233,7 +7230,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7249,7 +7246,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7265,7 +7262,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7281,7 +7278,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7297,7 +7294,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7313,7 +7310,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7329,7 +7326,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7345,7 +7342,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7361,7 +7358,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7377,7 +7374,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7393,7 +7390,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7409,7 +7406,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7425,7 +7422,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7441,7 +7438,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7457,7 +7454,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7473,7 +7470,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7489,7 +7486,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7505,7 +7502,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7521,7 +7518,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7537,7 +7534,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7553,7 +7550,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7569,7 +7566,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7585,7 +7582,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7601,7 +7598,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7617,7 +7614,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7633,7 +7630,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7649,7 +7646,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7665,7 +7662,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7681,7 +7678,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7697,7 +7694,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7713,7 +7710,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7729,7 +7726,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7745,7 +7742,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7761,7 +7758,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7777,7 +7774,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7793,7 +7790,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7809,7 +7806,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7825,7 +7822,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7841,7 +7838,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7857,7 +7854,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7873,7 +7870,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7889,7 +7886,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7905,7 +7902,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7921,7 +7918,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7937,7 +7934,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7953,7 +7950,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="11"/>
@@ -7969,7 +7966,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="11"/>
@@ -7985,7 +7982,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="11"/>
@@ -8001,7 +7998,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="11"/>
@@ -8017,7 +8014,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="11"/>
@@ -8033,7 +8030,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="11"/>
@@ -8049,10 +8046,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B386" s="1">
-        <f t="shared" ref="B386:B449" si="13">B385+1</f>
+        <f t="shared" ref="B386:B448" si="13">B385+1</f>
         <v>384</v>
       </c>
       <c r="C386" t="s">
@@ -8065,7 +8062,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8081,7 +8078,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8097,7 +8094,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8113,7 +8110,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8129,7 +8126,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8145,7 +8142,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8161,7 +8158,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8177,7 +8174,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8193,7 +8190,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8209,7 +8206,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8225,7 +8222,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8241,7 +8238,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8257,7 +8254,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8273,7 +8270,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8289,7 +8286,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8305,7 +8302,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8321,7 +8318,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8337,7 +8334,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8353,7 +8350,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8369,7 +8366,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8385,7 +8382,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8401,7 +8398,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8417,7 +8414,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8433,7 +8430,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8449,7 +8446,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8465,7 +8462,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8481,7 +8478,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8497,7 +8494,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8513,7 +8510,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8529,7 +8526,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8545,7 +8542,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8561,7 +8558,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8577,7 +8574,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8593,7 +8590,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8609,7 +8606,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8625,7 +8622,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8641,7 +8638,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8657,7 +8654,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8673,7 +8670,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8689,7 +8686,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8705,7 +8702,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8721,7 +8718,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8737,7 +8734,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8753,7 +8750,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8769,7 +8766,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8785,7 +8782,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8801,7 +8798,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8817,7 +8814,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8833,7 +8830,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8849,7 +8846,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8865,7 +8862,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8881,7 +8878,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8897,7 +8894,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8913,7 +8910,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8929,7 +8926,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
@@ -8945,7 +8942,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B442" s="1">
         <f t="shared" si="13"/>
@@ -8961,7 +8958,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="1">
         <f t="shared" si="13"/>
@@ -8977,7 +8974,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B444" s="1">
         <f t="shared" si="13"/>
@@ -8993,7 +8990,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B445" s="1">
         <f t="shared" si="13"/>
@@ -9009,7 +9006,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B446" s="1">
         <f t="shared" si="13"/>
@@ -9025,7 +9022,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B447" s="1">
         <f t="shared" si="13"/>
@@ -9035,13 +9032,13 @@
         <v>437</v>
       </c>
       <c r="D447" t="str">
-        <f t="shared" ref="D447:D458" si="14">"        "&amp;C447&amp;"="&amp;B447&amp;","</f>
+        <f t="shared" ref="D447:D457" si="14">"        "&amp;C447&amp;"="&amp;B447&amp;","</f>
         <v xml:space="preserve">        WRITE_ONLY=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B448" s="1">
         <f t="shared" si="13"/>
@@ -9052,15 +9049,15 @@
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_DECLARATION=446,</v>
+        <v xml:space="preserve">        XML_SCHEMA=446,</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B449" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B449:B457" si="15">B448+1</f>
         <v>447</v>
       </c>
       <c r="C449" t="s">
@@ -9068,29 +9065,26 @@
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=447,</v>
+        <v xml:space="preserve">        YYYYDDD=447,</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B450" s="1">
-        <f t="shared" ref="B450:B458" si="15">B449+1</f>
+        <f t="shared" si="15"/>
         <v>448</v>
       </c>
       <c r="C450" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=448,</v>
+        <v xml:space="preserve">        YYYYMMDD=448,</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>442</v>
-      </c>
       <c r="B451" s="1">
         <f t="shared" si="15"/>
         <v>449</v>
@@ -9100,7 +9094,7 @@
       </c>
       <c r="D451" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=449,</v>
+        <v xml:space="preserve">        TYPEDEF=449,</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -9113,7 +9107,7 @@
       </c>
       <c r="D452" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=450,</v>
+        <v xml:space="preserve">        STRONG=450,</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -9126,7 +9120,7 @@
       </c>
       <c r="D453" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=451,</v>
+        <v xml:space="preserve">        UNSAFE=451,</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -9135,11 +9129,11 @@
         <v>452</v>
       </c>
       <c r="C454" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D454" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=452,</v>
+        <v xml:space="preserve">        PUBLIC=452,</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -9152,7 +9146,7 @@
       </c>
       <c r="D455" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=453,</v>
+        <v xml:space="preserve">        PRIVATE=453,</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -9161,11 +9155,11 @@
         <v>454</v>
       </c>
       <c r="C456" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D456" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=454,</v>
+        <v xml:space="preserve">        IN_OUT=454,</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -9178,33 +9172,33 @@
       </c>
       <c r="D457" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=455,</v>
+        <v xml:space="preserve">        STRICT=455,</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B458:B461" si="16">B457+1</f>
         <v>456</v>
       </c>
       <c r="C458" t="s">
         <v>475</v>
       </c>
       <c r="D458" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=456,</v>
+        <f t="shared" ref="D458:D461" si="17">"        "&amp;C458&amp;"="&amp;B458&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=456,</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
-        <f t="shared" ref="B459:B462" si="16">B458+1</f>
+        <f t="shared" si="16"/>
         <v>457</v>
       </c>
       <c r="C459" t="s">
         <v>476</v>
       </c>
       <c r="D459" t="str">
-        <f t="shared" ref="D459:D462" si="17">"        "&amp;C459&amp;"="&amp;B459&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=457,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=457,</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -9217,7 +9211,7 @@
       </c>
       <c r="D460" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=458,</v>
+        <v xml:space="preserve">        CopyImportDirective=458,</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -9230,42 +9224,29 @@
       </c>
       <c r="D461" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=459,</v>
+        <v xml:space="preserve">        ReplaceDirective=459,</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B462" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B462" si="18">B461+1</f>
         <v>460</v>
       </c>
       <c r="C462" t="s">
         <v>479</v>
       </c>
       <c r="D462" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=460,</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B463" s="1">
-        <f t="shared" ref="B463" si="18">B462+1</f>
-        <v>461</v>
-      </c>
-      <c r="C463" t="s">
-        <v>480</v>
-      </c>
-      <c r="D463" t="str">
-        <f t="shared" ref="D463" si="19">"        "&amp;C463&amp;"="&amp;B463&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=461,</v>
+        <f t="shared" ref="D462" si="19">"        "&amp;C462&amp;"="&amp;B462&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=460,</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="479">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -990,9 +990,6 @@
   </si>
   <si>
     <t>NAMESPACE</t>
-  </si>
-  <si>
-    <t>NAMESPACE_PREFIX</t>
   </si>
   <si>
     <t>NATIONAL</t>
@@ -1875,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:D461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C465" sqref="C465"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +1890,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1908,14 +1905,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1924,7 +1921,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1940,7 +1937,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1956,7 +1953,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1972,7 +1969,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1988,7 +1985,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -2004,7 +2001,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -2020,7 +2017,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2036,14 +2033,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2052,7 +2049,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2068,7 +2065,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2084,7 +2081,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2132,7 +2129,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2164,7 +2161,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2180,7 +2177,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2196,7 +2193,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2244,7 +2241,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2260,7 +2257,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2292,7 +2289,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2308,7 +2305,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2353,14 +2350,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2369,7 +2366,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2385,7 +2382,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2401,7 +2398,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2417,7 +2414,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2433,7 +2430,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2462,14 +2459,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2478,14 +2475,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2494,7 +2491,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2510,14 +2507,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2526,7 +2523,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2558,7 +2555,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2574,7 +2571,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2590,7 +2587,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2606,7 +2603,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2622,7 +2619,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2638,7 +2635,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2670,7 +2667,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2686,7 +2683,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2734,7 +2731,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2750,7 +2747,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2766,14 +2763,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2782,7 +2779,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2798,7 +2795,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2814,7 +2811,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2830,7 +2827,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2846,7 +2843,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2862,7 +2859,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2878,7 +2875,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2894,7 +2891,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2910,7 +2907,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2926,7 +2923,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2942,7 +2939,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2958,7 +2955,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2974,7 +2971,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2990,7 +2987,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -3006,7 +3003,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -3022,7 +3019,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3038,14 +3035,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3054,7 +3051,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3070,7 +3067,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3086,7 +3083,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3102,7 +3099,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3118,7 +3115,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -3134,7 +3131,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3150,7 +3147,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3166,7 +3163,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3182,14 +3179,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3214,7 +3211,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3230,7 +3227,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3246,7 +3243,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3262,7 +3259,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3278,7 +3275,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3294,7 +3291,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3310,7 +3307,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3342,7 +3339,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3374,7 +3371,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3390,7 +3387,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3406,7 +3403,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3422,7 +3419,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3438,7 +3435,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3454,7 +3451,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3470,7 +3467,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3486,7 +3483,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3502,7 +3499,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3518,7 +3515,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3534,7 +3531,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3550,7 +3547,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3566,7 +3563,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3582,7 +3579,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3598,7 +3595,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -3614,7 +3611,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3630,7 +3627,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3646,7 +3643,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3662,7 +3659,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3678,7 +3675,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3694,7 +3691,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3710,7 +3707,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3742,7 +3739,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3758,7 +3755,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3774,7 +3771,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3790,7 +3787,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3806,7 +3803,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3822,7 +3819,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3838,7 +3835,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3854,7 +3851,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3870,7 +3867,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3886,14 +3883,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
@@ -3902,7 +3899,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3918,7 +3915,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3934,7 +3931,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3950,14 +3947,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3982,7 +3979,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3998,7 +3995,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -4014,7 +4011,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4030,7 +4027,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4046,7 +4043,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4062,7 +4059,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4078,7 +4075,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4110,7 +4107,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4126,7 +4123,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4142,7 +4139,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4158,7 +4155,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4174,7 +4171,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4190,7 +4187,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4206,7 +4203,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4222,7 +4219,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4238,7 +4235,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4254,7 +4251,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4270,7 +4267,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4286,7 +4283,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4302,14 +4299,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4318,7 +4315,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4334,7 +4331,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4350,7 +4347,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4366,7 +4363,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4382,7 +4379,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4398,7 +4395,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4414,7 +4411,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4446,7 +4443,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4462,7 +4459,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4478,7 +4475,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4494,7 +4491,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4510,7 +4507,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4526,7 +4523,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4542,7 +4539,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4558,7 +4555,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4574,7 +4571,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4590,7 +4587,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4606,7 +4603,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4622,7 +4619,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4638,7 +4635,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4654,7 +4651,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4670,7 +4667,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4686,7 +4683,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4702,7 +4699,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4718,7 +4715,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4734,7 +4731,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4750,7 +4747,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4766,7 +4763,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4782,7 +4779,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4798,10 +4795,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B183" s="1">
-        <f t="shared" si="5"/>
+        <f>B182+1</f>
         <v>181</v>
       </c>
       <c r="C183" t="s">
@@ -4814,7 +4811,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4830,7 +4827,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4846,7 +4843,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4862,7 +4859,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4878,7 +4875,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4894,7 +4891,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4910,7 +4907,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4926,7 +4923,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4942,7 +4939,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4958,7 +4955,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4974,7 +4971,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4990,7 +4987,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -5006,7 +5003,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B258" si="7">B195+1</f>
@@ -5022,7 +5019,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5038,7 +5035,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5054,7 +5051,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5070,7 +5067,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5086,7 +5083,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5102,7 +5099,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5118,7 +5115,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5134,7 +5131,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5150,7 +5147,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5166,7 +5163,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5182,7 +5179,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5198,7 +5195,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5214,7 +5211,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5230,7 +5227,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5246,7 +5243,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5262,7 +5259,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5278,7 +5275,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5294,7 +5291,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5310,7 +5307,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5326,7 +5323,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5342,7 +5339,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5358,7 +5355,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5374,7 +5371,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5390,7 +5387,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5406,7 +5403,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5422,7 +5419,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5438,7 +5435,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5454,7 +5451,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5470,7 +5467,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5486,7 +5483,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5502,7 +5499,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5518,7 +5515,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5534,7 +5531,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5550,7 +5547,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5566,7 +5563,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5582,7 +5579,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5598,7 +5595,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5614,7 +5611,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5630,7 +5627,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5646,7 +5643,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5678,7 +5675,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5694,7 +5691,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5710,7 +5707,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5726,7 +5723,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5742,7 +5739,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5758,7 +5755,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5774,7 +5771,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5790,7 +5787,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5806,7 +5803,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5822,7 +5819,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5838,7 +5835,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5854,7 +5851,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5870,7 +5867,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5886,7 +5883,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5902,7 +5899,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5918,7 +5915,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5934,7 +5931,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5950,7 +5947,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5966,7 +5963,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5982,7 +5979,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5998,7 +5995,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="7"/>
@@ -6014,7 +6011,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" ref="B259:B321" si="9">B258+1</f>
@@ -6030,7 +6027,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6046,7 +6043,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6062,7 +6059,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6078,7 +6075,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6094,7 +6091,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6110,7 +6107,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6126,7 +6123,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6142,7 +6139,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6158,7 +6155,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6174,7 +6171,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6190,7 +6187,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6206,7 +6203,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6222,7 +6219,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6238,7 +6235,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6254,7 +6251,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6270,7 +6267,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6286,7 +6283,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6302,7 +6299,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6318,7 +6315,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6334,7 +6331,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6350,7 +6347,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6366,7 +6363,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6382,7 +6379,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6398,7 +6395,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6414,7 +6411,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6430,7 +6427,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6446,7 +6443,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6462,7 +6459,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6478,7 +6475,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6494,7 +6491,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6510,7 +6507,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6526,7 +6523,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6542,7 +6539,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6558,7 +6555,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6574,7 +6571,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6590,7 +6587,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6606,7 +6603,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6622,7 +6619,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6638,7 +6635,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6654,7 +6651,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6670,7 +6667,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6686,7 +6683,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6702,7 +6699,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6718,7 +6715,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6734,7 +6731,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6750,7 +6747,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6766,7 +6763,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6782,7 +6779,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6798,7 +6795,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6814,7 +6811,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6830,7 +6827,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6846,7 +6843,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6862,7 +6859,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6878,7 +6875,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6894,7 +6891,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6910,7 +6907,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6926,7 +6923,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6942,7 +6939,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6958,7 +6955,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6974,7 +6971,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6984,13 +6981,13 @@
         <v>306</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" ref="D319:D382" si="10">"        "&amp;C319&amp;"="&amp;B319&amp;","</f>
+        <f t="shared" ref="D319:D381" si="10">"        "&amp;C319&amp;"="&amp;B319&amp;","</f>
         <v xml:space="preserve">        LABEL=317,</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="9"/>
@@ -7006,7 +7003,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="9"/>
@@ -7022,10 +7019,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B322" s="1">
-        <f t="shared" ref="B322:B385" si="11">B321+1</f>
+        <f t="shared" ref="B322:B384" si="11">B321+1</f>
         <v>320</v>
       </c>
       <c r="C322" t="s">
@@ -7038,7 +7035,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7054,7 +7051,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7086,7 +7083,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7102,7 +7099,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7118,7 +7115,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7134,7 +7131,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7150,7 +7147,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7166,7 +7163,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7182,7 +7179,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7198,7 +7195,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7214,7 +7211,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7230,7 +7227,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7241,12 +7238,12 @@
       </c>
       <c r="D335" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NAMESPACE_PREFIX=333,</v>
+        <v xml:space="preserve">        NATIONAL=333,</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7257,12 +7254,12 @@
       </c>
       <c r="D336" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL=334,</v>
+        <v xml:space="preserve">        NATIONAL_EDITED=334,</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7273,12 +7270,12 @@
       </c>
       <c r="D337" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL_EDITED=335,</v>
+        <v xml:space="preserve">        NATIVE=335,</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7289,12 +7286,12 @@
       </c>
       <c r="D338" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIVE=336,</v>
+        <v xml:space="preserve">        NEGATIVE=336,</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7305,28 +7302,28 @@
       </c>
       <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEGATIVE=337,</v>
+        <v xml:space="preserve">        NEW=337,</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
         <v>338</v>
       </c>
       <c r="C340" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEW=338,</v>
+        <v xml:space="preserve">        NO=338,</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7337,12 +7334,12 @@
       </c>
       <c r="D341" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NO=339,</v>
+        <v xml:space="preserve">        NONNUMERIC=339,</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7353,12 +7350,12 @@
       </c>
       <c r="D342" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NONNUMERIC=340,</v>
+        <v xml:space="preserve">        NOT=340,</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7369,12 +7366,12 @@
       </c>
       <c r="D343" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NOT=341,</v>
+        <v xml:space="preserve">        NUMERIC=341,</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7385,12 +7382,12 @@
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC=342,</v>
+        <v xml:space="preserve">        NUMERIC_EDITED=342,</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7401,12 +7398,12 @@
       </c>
       <c r="D345" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC_EDITED=343,</v>
+        <v xml:space="preserve">        OBJECT=343,</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7417,12 +7414,12 @@
       </c>
       <c r="D346" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OBJECT=344,</v>
+        <v xml:space="preserve">        OCCURS=344,</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7433,12 +7430,12 @@
       </c>
       <c r="D347" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OCCURS=345,</v>
+        <v xml:space="preserve">        OF=345,</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7449,12 +7446,12 @@
       </c>
       <c r="D348" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OF=346,</v>
+        <v xml:space="preserve">        OFF=346,</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7465,12 +7462,12 @@
       </c>
       <c r="D349" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OFF=347,</v>
+        <v xml:space="preserve">        OMITTED=347,</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7481,12 +7478,12 @@
       </c>
       <c r="D350" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OMITTED=348,</v>
+        <v xml:space="preserve">        ON=348,</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7497,12 +7494,12 @@
       </c>
       <c r="D351" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ON=349,</v>
+        <v xml:space="preserve">        OPTIONAL=349,</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7513,12 +7510,12 @@
       </c>
       <c r="D352" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OPTIONAL=350,</v>
+        <v xml:space="preserve">        OR=350,</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7529,12 +7526,12 @@
       </c>
       <c r="D353" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OR=351,</v>
+        <v xml:space="preserve">        ORDER=351,</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7545,12 +7542,12 @@
       </c>
       <c r="D354" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORDER=352,</v>
+        <v xml:space="preserve">        ORGANIZATION=352,</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7561,12 +7558,12 @@
       </c>
       <c r="D355" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORGANIZATION=353,</v>
+        <v xml:space="preserve">        OTHER=353,</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7577,12 +7574,12 @@
       </c>
       <c r="D356" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OTHER=354,</v>
+        <v xml:space="preserve">        OUTPUT=354,</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7593,12 +7590,12 @@
       </c>
       <c r="D357" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OUTPUT=355,</v>
+        <v xml:space="preserve">        OVERFLOW=355,</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7609,12 +7606,12 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERFLOW=356,</v>
+        <v xml:space="preserve">        OVERRIDE=356,</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7625,12 +7622,12 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERRIDE=357,</v>
+        <v xml:space="preserve">        PACKED_DECIMAL=357,</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7641,12 +7638,12 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PACKED_DECIMAL=358,</v>
+        <v xml:space="preserve">        PADDING=358,</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7657,12 +7654,12 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PADDING=359,</v>
+        <v xml:space="preserve">        PAGE=359,</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7673,12 +7670,12 @@
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PAGE=360,</v>
+        <v xml:space="preserve">        PARSE=360,</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7689,12 +7686,12 @@
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PARSE=361,</v>
+        <v xml:space="preserve">        PASSWORD=361,</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7705,12 +7702,12 @@
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PASSWORD=362,</v>
+        <v xml:space="preserve">        PIC=362,</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7721,12 +7718,12 @@
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PIC=363,</v>
+        <v xml:space="preserve">        PICTURE=363,</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7737,12 +7734,12 @@
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PICTURE=364,</v>
+        <v xml:space="preserve">        POINTER=364,</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7753,12 +7750,12 @@
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POINTER=365,</v>
+        <v xml:space="preserve">        POSITION=365,</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7769,28 +7766,28 @@
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITION=366,</v>
+        <v xml:space="preserve">        POSITIVE=366,</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
         <v>367</v>
       </c>
       <c r="C369" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITIVE=367,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER=367,</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7801,12 +7798,12 @@
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER=368,</v>
+        <v xml:space="preserve">        PROCEDURES=368,</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7817,12 +7814,12 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURES=369,</v>
+        <v xml:space="preserve">        PROCEED=369,</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7833,12 +7830,12 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEED=370,</v>
+        <v xml:space="preserve">        PROCESSING=370,</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7849,12 +7846,12 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCESSING=371,</v>
+        <v xml:space="preserve">        PROGRAM=371,</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7865,12 +7862,12 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM=372,</v>
+        <v xml:space="preserve">        PROGRAM_ID=372,</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7881,12 +7878,12 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM_ID=373,</v>
+        <v xml:space="preserve">        RANDOM=373,</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7897,12 +7894,12 @@
       </c>
       <c r="D376" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RANDOM=374,</v>
+        <v xml:space="preserve">        RECORD=374,</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7913,12 +7910,12 @@
       </c>
       <c r="D377" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORD=375,</v>
+        <v xml:space="preserve">        RECORDING=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7929,12 +7926,12 @@
       </c>
       <c r="D378" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDING=376,</v>
+        <v xml:space="preserve">        RECORDS=376,</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7945,12 +7942,12 @@
       </c>
       <c r="D379" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDS=377,</v>
+        <v xml:space="preserve">        RECURSIVE=377,</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="11"/>
@@ -7961,12 +7958,12 @@
       </c>
       <c r="D380" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECURSIVE=378,</v>
+        <v xml:space="preserve">        REDEFINES=378,</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="11"/>
@@ -7977,12 +7974,12 @@
       </c>
       <c r="D381" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        REDEFINES=379,</v>
+        <v xml:space="preserve">        REEL=379,</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="11"/>
@@ -7992,13 +7989,13 @@
         <v>371</v>
       </c>
       <c r="D382" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">        REEL=380,</v>
+        <f t="shared" ref="D382:D445" si="12">"        "&amp;C382&amp;"="&amp;B382&amp;","</f>
+        <v xml:space="preserve">        REFERENCE=380,</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="11"/>
@@ -8008,13 +8005,13 @@
         <v>372</v>
       </c>
       <c r="D383" t="str">
-        <f t="shared" ref="D383:D446" si="12">"        "&amp;C383&amp;"="&amp;B383&amp;","</f>
-        <v xml:space="preserve">        REFERENCE=381,</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">        REFERENCES=381,</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="11"/>
@@ -8025,15 +8022,15 @@
       </c>
       <c r="D384" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REFERENCES=382,</v>
+        <v xml:space="preserve">        RELATIVE=382,</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B385" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B385:B447" si="13">B384+1</f>
         <v>383</v>
       </c>
       <c r="C385" t="s">
@@ -8041,15 +8038,15 @@
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELATIVE=383,</v>
+        <v xml:space="preserve">        RELOAD=383,</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B386" s="1">
-        <f t="shared" ref="B386:B448" si="13">B385+1</f>
+        <f t="shared" si="13"/>
         <v>384</v>
       </c>
       <c r="C386" t="s">
@@ -8057,12 +8054,12 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELOAD=384,</v>
+        <v xml:space="preserve">        REMAINDER=384,</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8073,12 +8070,12 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMAINDER=385,</v>
+        <v xml:space="preserve">        REMOVAL=385,</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8089,12 +8086,12 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMOVAL=386,</v>
+        <v xml:space="preserve">        RENAMES=386,</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8105,12 +8102,12 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RENAMES=387,</v>
+        <v xml:space="preserve">        REPLACING=387,</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8121,12 +8118,12 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REPLACING=388,</v>
+        <v xml:space="preserve">        RESERVE=388,</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8137,12 +8134,12 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RESERVE=389,</v>
+        <v xml:space="preserve">        RETURNING=389,</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8153,12 +8150,12 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RETURNING=390,</v>
+        <v xml:space="preserve">        REVERSED=390,</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8169,12 +8166,12 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REVERSED=391,</v>
+        <v xml:space="preserve">        REWIND=391,</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8185,12 +8182,12 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REWIND=392,</v>
+        <v xml:space="preserve">        RIGHT=392,</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8201,12 +8198,12 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RIGHT=393,</v>
+        <v xml:space="preserve">        ROUNDED=393,</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8217,12 +8214,12 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        ROUNDED=394,</v>
+        <v xml:space="preserve">        RUN=394,</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8233,12 +8230,12 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RUN=395,</v>
+        <v xml:space="preserve">        SECTION=395,</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8249,12 +8246,12 @@
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECTION=396,</v>
+        <v xml:space="preserve">        SECURITY=396,</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8265,12 +8262,12 @@
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECURITY=397,</v>
+        <v xml:space="preserve">        SEGMENT_LIMIT=397,</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8281,12 +8278,12 @@
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT=398,</v>
+        <v xml:space="preserve">        SENTENCE=398,</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8297,12 +8294,12 @@
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SENTENCE=399,</v>
+        <v xml:space="preserve">        SEPARATE=399,</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8313,12 +8310,12 @@
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEPARATE=400,</v>
+        <v xml:space="preserve">        SEQUENCE=400,</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8329,12 +8326,12 @@
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENCE=401,</v>
+        <v xml:space="preserve">        SEQUENTIAL=401,</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8345,12 +8342,12 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENTIAL=402,</v>
+        <v xml:space="preserve">        SIGN=402,</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8361,12 +8358,12 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIGN=403,</v>
+        <v xml:space="preserve">        SIZE=403,</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8377,12 +8374,12 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIZE=404,</v>
+        <v xml:space="preserve">        SORT_MERGE=404,</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8393,12 +8390,12 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SORT_MERGE=405,</v>
+        <v xml:space="preserve">        SQL=405,</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8409,12 +8406,12 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQL=406,</v>
+        <v xml:space="preserve">        SQLIMS=406,</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8425,12 +8422,12 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQLIMS=407,</v>
+        <v xml:space="preserve">        STANDARD=407,</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8441,12 +8438,12 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD=408,</v>
+        <v xml:space="preserve">        STANDARD_1=408,</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8457,12 +8454,12 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_1=409,</v>
+        <v xml:space="preserve">        STANDARD_2=409,</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8473,12 +8470,12 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_2=410,</v>
+        <v xml:space="preserve">        STATUS=410,</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8489,12 +8486,12 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STATUS=411,</v>
+        <v xml:space="preserve">        SUPPRESS=411,</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8505,12 +8502,12 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SUPPRESS=412,</v>
+        <v xml:space="preserve">        SYMBOL=412,</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8521,12 +8518,12 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOL=413,</v>
+        <v xml:space="preserve">        SYMBOLIC=413,</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8537,12 +8534,12 @@
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOLIC=414,</v>
+        <v xml:space="preserve">        SYNC=414,</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8553,12 +8550,12 @@
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNC=415,</v>
+        <v xml:space="preserve">        SYNCHRONIZED=415,</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8569,12 +8566,12 @@
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNCHRONIZED=416,</v>
+        <v xml:space="preserve">        TALLYING=416,</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8585,12 +8582,12 @@
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TALLYING=417,</v>
+        <v xml:space="preserve">        TAPE=417,</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8601,12 +8598,12 @@
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TAPE=418,</v>
+        <v xml:space="preserve">        TEST=418,</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8617,12 +8614,12 @@
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TEST=419,</v>
+        <v xml:space="preserve">        THAN=419,</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8633,12 +8630,12 @@
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THAN=420,</v>
+        <v xml:space="preserve">        THEN=420,</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8649,12 +8646,12 @@
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THEN=421,</v>
+        <v xml:space="preserve">        THROUGH=421,</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8665,12 +8662,12 @@
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THROUGH=422,</v>
+        <v xml:space="preserve">        THRU=422,</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8681,12 +8678,12 @@
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THRU=423,</v>
+        <v xml:space="preserve">        TIME=423,</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8697,12 +8694,12 @@
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIME=424,</v>
+        <v xml:space="preserve">        TIMES=424,</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8713,12 +8710,12 @@
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIMES=425,</v>
+        <v xml:space="preserve">        TO=425,</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8729,12 +8726,12 @@
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TO=426,</v>
+        <v xml:space="preserve">        TOP=426,</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8745,12 +8742,12 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TOP=427,</v>
+        <v xml:space="preserve">        TRACE=427,</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8761,12 +8758,12 @@
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRACE=428,</v>
+        <v xml:space="preserve">        TRAILING=428,</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8777,12 +8774,12 @@
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRAILING=429,</v>
+        <v xml:space="preserve">        TRUE=429,</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8793,12 +8790,12 @@
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRUE=430,</v>
+        <v xml:space="preserve">        TYPE=430,</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8809,12 +8806,12 @@
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TYPE=431,</v>
+        <v xml:space="preserve">        UNBOUNDED=431,</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8825,12 +8822,12 @@
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNBOUNDED=432,</v>
+        <v xml:space="preserve">        UNIT=432,</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8841,12 +8838,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNIT=433,</v>
+        <v xml:space="preserve">        UNTIL=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8857,12 +8854,12 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNTIL=434,</v>
+        <v xml:space="preserve">        UP=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8873,12 +8870,12 @@
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UP=435,</v>
+        <v xml:space="preserve">        UPON=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8889,12 +8886,12 @@
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UPON=436,</v>
+        <v xml:space="preserve">        USAGE=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8905,12 +8902,12 @@
       </c>
       <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USAGE=437,</v>
+        <v xml:space="preserve">        USING=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8921,12 +8918,12 @@
       </c>
       <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USING=438,</v>
+        <v xml:space="preserve">        VALIDATING=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
@@ -8937,12 +8934,12 @@
       </c>
       <c r="D441" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALIDATING=439,</v>
+        <v xml:space="preserve">        VALUE=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="1">
         <f t="shared" si="13"/>
@@ -8953,12 +8950,12 @@
       </c>
       <c r="D442" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=440,</v>
+        <v xml:space="preserve">        VALUES=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B443" s="1">
         <f t="shared" si="13"/>
@@ -8969,28 +8966,28 @@
       </c>
       <c r="D443" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=441,</v>
+        <v xml:space="preserve">        VARYING=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B444" s="1">
         <f t="shared" si="13"/>
         <v>442</v>
       </c>
       <c r="C444" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D444" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=442,</v>
+        <v xml:space="preserve">        WITH=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B445" s="1">
         <f t="shared" si="13"/>
@@ -9001,12 +8998,12 @@
       </c>
       <c r="D445" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=443,</v>
+        <v xml:space="preserve">        WORDS=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B446" s="1">
         <f t="shared" si="13"/>
@@ -9016,13 +9013,13 @@
         <v>436</v>
       </c>
       <c r="D446" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=444,</v>
+        <f t="shared" ref="D446:D456" si="14">"        "&amp;C446&amp;"="&amp;B446&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B447" s="1">
         <f t="shared" si="13"/>
@@ -9032,16 +9029,16 @@
         <v>437</v>
       </c>
       <c r="D447" t="str">
-        <f t="shared" ref="D447:D457" si="14">"        "&amp;C447&amp;"="&amp;B447&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=445,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_SCHEMA=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B448" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B448:B456" si="15">B447+1</f>
         <v>446</v>
       </c>
       <c r="C448" t="s">
@@ -9049,29 +9046,26 @@
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=446,</v>
+        <v xml:space="preserve">        YYYYDDD=446,</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B449" s="1">
-        <f t="shared" ref="B449:B457" si="15">B448+1</f>
+        <f t="shared" si="15"/>
         <v>447</v>
       </c>
       <c r="C449" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=447,</v>
+        <v xml:space="preserve">        YYYYMMDD=447,</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>441</v>
-      </c>
       <c r="B450" s="1">
         <f t="shared" si="15"/>
         <v>448</v>
@@ -9081,7 +9075,7 @@
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=448,</v>
+        <v xml:space="preserve">        TYPEDEF=448,</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -9094,7 +9088,7 @@
       </c>
       <c r="D451" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=449,</v>
+        <v xml:space="preserve">        STRONG=449,</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -9107,7 +9101,7 @@
       </c>
       <c r="D452" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=450,</v>
+        <v xml:space="preserve">        UNSAFE=450,</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -9116,11 +9110,11 @@
         <v>451</v>
       </c>
       <c r="C453" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D453" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=451,</v>
+        <v xml:space="preserve">        PUBLIC=451,</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -9133,7 +9127,7 @@
       </c>
       <c r="D454" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=452,</v>
+        <v xml:space="preserve">        PRIVATE=452,</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -9142,11 +9136,11 @@
         <v>453</v>
       </c>
       <c r="C455" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D455" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=453,</v>
+        <v xml:space="preserve">        IN_OUT=453,</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -9159,33 +9153,33 @@
       </c>
       <c r="D456" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=454,</v>
+        <v xml:space="preserve">        STRICT=454,</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B457:B460" si="16">B456+1</f>
         <v>455</v>
       </c>
       <c r="C457" t="s">
         <v>474</v>
       </c>
       <c r="D457" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=455,</v>
+        <f t="shared" ref="D457:D460" si="17">"        "&amp;C457&amp;"="&amp;B457&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=455,</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
-        <f t="shared" ref="B458:B461" si="16">B457+1</f>
+        <f t="shared" si="16"/>
         <v>456</v>
       </c>
       <c r="C458" t="s">
         <v>475</v>
       </c>
       <c r="D458" t="str">
-        <f t="shared" ref="D458:D461" si="17">"        "&amp;C458&amp;"="&amp;B458&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=456,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=456,</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -9198,7 +9192,7 @@
       </c>
       <c r="D459" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=457,</v>
+        <v xml:space="preserve">        CopyImportDirective=457,</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -9211,33 +9205,20 @@
       </c>
       <c r="D460" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=458,</v>
+        <v xml:space="preserve">        ReplaceDirective=458,</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B461" si="18">B460+1</f>
         <v>459</v>
       </c>
       <c r="C461" t="s">
         <v>478</v>
       </c>
       <c r="D461" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=459,</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B462" s="1">
-        <f t="shared" ref="B462" si="18">B461+1</f>
-        <v>460</v>
-      </c>
-      <c r="C462" t="s">
-        <v>479</v>
-      </c>
-      <c r="D462" t="str">
-        <f t="shared" ref="D462" si="19">"        "&amp;C462&amp;"="&amp;B462&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=460,</v>
+        <f t="shared" ref="D461" si="19">"        "&amp;C461&amp;"="&amp;B461&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=459,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="478">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -987,9 +987,6 @@
   </si>
   <si>
     <t>NAME</t>
-  </si>
-  <si>
-    <t>NAMESPACE</t>
   </si>
   <si>
     <t>NATIONAL</t>
@@ -1872,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="G339" sqref="G339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,7 +1887,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1905,14 +1902,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1921,7 +1918,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1937,7 +1934,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1953,7 +1950,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1969,7 +1966,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1985,7 +1982,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -2001,7 +1998,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -2017,7 +2014,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2033,14 +2030,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2049,7 +2046,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2065,7 +2062,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2081,7 +2078,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2097,7 +2094,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2113,7 +2110,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2129,7 +2126,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2145,7 +2142,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2161,7 +2158,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2177,7 +2174,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2193,7 +2190,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2209,7 +2206,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2225,7 +2222,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2241,7 +2238,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2257,7 +2254,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2273,7 +2270,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2289,7 +2286,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2305,7 +2302,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2321,7 +2318,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2350,14 +2347,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2366,7 +2363,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2382,7 +2379,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2398,7 +2395,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2414,7 +2411,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2430,7 +2427,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2459,14 +2456,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2475,14 +2472,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2491,7 +2488,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2507,14 +2504,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2523,7 +2520,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2539,7 +2536,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2555,7 +2552,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2571,7 +2568,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2587,7 +2584,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2603,7 +2600,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2619,7 +2616,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2635,7 +2632,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2651,7 +2648,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2667,7 +2664,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2683,7 +2680,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2699,7 +2696,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2715,7 +2712,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2731,7 +2728,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2763,14 +2760,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2779,7 +2776,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2795,7 +2792,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2811,7 +2808,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2827,7 +2824,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2843,7 +2840,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2859,7 +2856,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2891,7 +2888,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2907,7 +2904,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2923,7 +2920,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2939,7 +2936,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2971,7 +2968,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2987,7 +2984,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -3003,7 +3000,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -3019,7 +3016,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3035,14 +3032,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3051,7 +3048,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3067,7 +3064,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3083,7 +3080,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3115,7 +3112,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -3131,7 +3128,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3147,7 +3144,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3163,7 +3160,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3179,14 +3176,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3211,7 +3208,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3227,7 +3224,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3243,7 +3240,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3259,7 +3256,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3291,7 +3288,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3323,7 +3320,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3339,7 +3336,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3355,7 +3352,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3371,7 +3368,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3387,7 +3384,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3403,7 +3400,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3419,7 +3416,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3451,7 +3448,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3467,7 +3464,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3483,7 +3480,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3499,7 +3496,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3515,7 +3512,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3531,7 +3528,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3547,7 +3544,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3563,7 +3560,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3579,7 +3576,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3595,7 +3592,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -3611,7 +3608,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3627,7 +3624,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3643,7 +3640,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3659,7 +3656,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3675,7 +3672,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3691,7 +3688,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3707,7 +3704,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3723,7 +3720,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3739,7 +3736,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3755,7 +3752,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3771,7 +3768,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3787,7 +3784,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3803,7 +3800,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3819,7 +3816,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3835,7 +3832,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3851,7 +3848,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3867,7 +3864,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3883,14 +3880,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
@@ -3899,7 +3896,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3915,7 +3912,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3931,7 +3928,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3947,14 +3944,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3963,7 +3960,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3979,7 +3976,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3995,7 +3992,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -4011,7 +4008,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4027,7 +4024,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4043,7 +4040,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4059,7 +4056,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4075,7 +4072,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4091,7 +4088,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4107,7 +4104,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4123,7 +4120,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4139,7 +4136,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4155,7 +4152,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4171,7 +4168,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4187,7 +4184,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4203,7 +4200,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4219,7 +4216,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4235,7 +4232,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4251,7 +4248,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4267,7 +4264,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4283,7 +4280,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4299,14 +4296,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4331,7 +4328,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4347,7 +4344,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4363,7 +4360,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4379,7 +4376,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4411,7 +4408,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4427,7 +4424,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4443,7 +4440,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4459,7 +4456,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4491,7 +4488,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4507,7 +4504,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4523,7 +4520,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4539,7 +4536,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4555,7 +4552,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4571,7 +4568,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4587,7 +4584,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4603,7 +4600,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4619,7 +4616,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4635,7 +4632,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4651,7 +4648,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4667,7 +4664,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4683,7 +4680,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4699,7 +4696,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4715,7 +4712,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4731,7 +4728,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4747,7 +4744,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4763,7 +4760,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4779,7 +4776,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4795,7 +4792,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
@@ -4811,7 +4808,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4827,7 +4824,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4859,7 +4856,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4875,7 +4872,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4891,7 +4888,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4907,7 +4904,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4923,7 +4920,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4939,7 +4936,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4955,7 +4952,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4971,7 +4968,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4987,7 +4984,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -5003,7 +5000,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B258" si="7">B195+1</f>
@@ -5019,7 +5016,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5035,7 +5032,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5083,7 +5080,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5099,7 +5096,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5115,7 +5112,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5131,7 +5128,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5147,7 +5144,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5163,7 +5160,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5179,7 +5176,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5211,7 +5208,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5227,7 +5224,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5243,7 +5240,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5259,7 +5256,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5275,7 +5272,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5291,7 +5288,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5307,7 +5304,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5323,7 +5320,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5339,7 +5336,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5355,7 +5352,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5371,7 +5368,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5387,7 +5384,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5403,7 +5400,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5419,7 +5416,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5435,7 +5432,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5451,7 +5448,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5467,7 +5464,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5483,7 +5480,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5499,7 +5496,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5515,7 +5512,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5531,7 +5528,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5547,7 +5544,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5563,7 +5560,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5579,7 +5576,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5595,7 +5592,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5611,7 +5608,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5627,7 +5624,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5643,7 +5640,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5659,7 +5656,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5675,7 +5672,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5691,7 +5688,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5707,7 +5704,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5723,7 +5720,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5739,7 +5736,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5755,7 +5752,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5771,7 +5768,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5787,7 +5784,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5803,7 +5800,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5819,7 +5816,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5835,7 +5832,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5851,7 +5848,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5867,7 +5864,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5883,7 +5880,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5899,7 +5896,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5915,7 +5912,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5931,7 +5928,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5947,7 +5944,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5963,7 +5960,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5979,7 +5976,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5995,7 +5992,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="7"/>
@@ -6011,7 +6008,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" ref="B259:B321" si="9">B258+1</f>
@@ -6027,7 +6024,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6043,7 +6040,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6059,7 +6056,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6075,7 +6072,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6091,7 +6088,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6107,7 +6104,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6123,7 +6120,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6139,7 +6136,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6155,7 +6152,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6171,7 +6168,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6187,7 +6184,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6203,7 +6200,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6219,7 +6216,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6235,7 +6232,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6251,7 +6248,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6267,7 +6264,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6283,7 +6280,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6299,7 +6296,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6315,7 +6312,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6331,7 +6328,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6347,7 +6344,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6363,7 +6360,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6379,7 +6376,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6395,7 +6392,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6411,7 +6408,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6427,7 +6424,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6443,7 +6440,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6459,7 +6456,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6475,7 +6472,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6491,7 +6488,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6507,7 +6504,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6523,7 +6520,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6539,7 +6536,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6555,7 +6552,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6571,7 +6568,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6587,7 +6584,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6603,7 +6600,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6619,7 +6616,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6635,7 +6632,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6651,7 +6648,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6667,7 +6664,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6683,7 +6680,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6699,7 +6696,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6715,7 +6712,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6731,7 +6728,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6747,7 +6744,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6763,7 +6760,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6779,7 +6776,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6795,7 +6792,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6811,7 +6808,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6843,7 +6840,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6859,7 +6856,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6875,7 +6872,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6891,7 +6888,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6907,7 +6904,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6923,7 +6920,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6939,7 +6936,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6955,7 +6952,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6971,7 +6968,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6981,13 +6978,13 @@
         <v>306</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" ref="D319:D381" si="10">"        "&amp;C319&amp;"="&amp;B319&amp;","</f>
+        <f t="shared" ref="D319:D380" si="10">"        "&amp;C319&amp;"="&amp;B319&amp;","</f>
         <v xml:space="preserve">        LABEL=317,</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="9"/>
@@ -7003,7 +7000,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="9"/>
@@ -7019,10 +7016,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B322" s="1">
-        <f t="shared" ref="B322:B384" si="11">B321+1</f>
+        <f t="shared" ref="B322:B383" si="11">B321+1</f>
         <v>320</v>
       </c>
       <c r="C322" t="s">
@@ -7035,7 +7032,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7051,7 +7048,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7067,7 +7064,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7083,7 +7080,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7099,7 +7096,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7115,7 +7112,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7131,7 +7128,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7147,7 +7144,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7163,7 +7160,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7179,7 +7176,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7195,7 +7192,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7211,7 +7208,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7222,12 +7219,12 @@
       </c>
       <c r="D334" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NAMESPACE=332,</v>
+        <v xml:space="preserve">        NATIONAL=332,</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7238,12 +7235,12 @@
       </c>
       <c r="D335" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL=333,</v>
+        <v xml:space="preserve">        NATIONAL_EDITED=333,</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7254,12 +7251,12 @@
       </c>
       <c r="D336" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL_EDITED=334,</v>
+        <v xml:space="preserve">        NATIVE=334,</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7270,12 +7267,12 @@
       </c>
       <c r="D337" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIVE=335,</v>
+        <v xml:space="preserve">        NEGATIVE=335,</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7286,28 +7283,28 @@
       </c>
       <c r="D338" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEGATIVE=336,</v>
+        <v xml:space="preserve">        NEW=336,</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
         <v>337</v>
       </c>
       <c r="C339" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEW=337,</v>
+        <v xml:space="preserve">        NO=337,</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7318,12 +7315,12 @@
       </c>
       <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NO=338,</v>
+        <v xml:space="preserve">        NONNUMERIC=338,</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7334,12 +7331,12 @@
       </c>
       <c r="D341" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NONNUMERIC=339,</v>
+        <v xml:space="preserve">        NOT=339,</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7350,12 +7347,12 @@
       </c>
       <c r="D342" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NOT=340,</v>
+        <v xml:space="preserve">        NUMERIC=340,</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7366,12 +7363,12 @@
       </c>
       <c r="D343" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC=341,</v>
+        <v xml:space="preserve">        NUMERIC_EDITED=341,</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7382,12 +7379,12 @@
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC_EDITED=342,</v>
+        <v xml:space="preserve">        OBJECT=342,</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7398,12 +7395,12 @@
       </c>
       <c r="D345" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OBJECT=343,</v>
+        <v xml:space="preserve">        OCCURS=343,</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7414,12 +7411,12 @@
       </c>
       <c r="D346" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OCCURS=344,</v>
+        <v xml:space="preserve">        OF=344,</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7430,12 +7427,12 @@
       </c>
       <c r="D347" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OF=345,</v>
+        <v xml:space="preserve">        OFF=345,</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7446,12 +7443,12 @@
       </c>
       <c r="D348" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OFF=346,</v>
+        <v xml:space="preserve">        OMITTED=346,</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7462,12 +7459,12 @@
       </c>
       <c r="D349" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OMITTED=347,</v>
+        <v xml:space="preserve">        ON=347,</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7478,12 +7475,12 @@
       </c>
       <c r="D350" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ON=348,</v>
+        <v xml:space="preserve">        OPTIONAL=348,</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7494,12 +7491,12 @@
       </c>
       <c r="D351" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OPTIONAL=349,</v>
+        <v xml:space="preserve">        OR=349,</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7510,12 +7507,12 @@
       </c>
       <c r="D352" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OR=350,</v>
+        <v xml:space="preserve">        ORDER=350,</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7526,12 +7523,12 @@
       </c>
       <c r="D353" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORDER=351,</v>
+        <v xml:space="preserve">        ORGANIZATION=351,</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7542,12 +7539,12 @@
       </c>
       <c r="D354" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORGANIZATION=352,</v>
+        <v xml:space="preserve">        OTHER=352,</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7558,12 +7555,12 @@
       </c>
       <c r="D355" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OTHER=353,</v>
+        <v xml:space="preserve">        OUTPUT=353,</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7574,12 +7571,12 @@
       </c>
       <c r="D356" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OUTPUT=354,</v>
+        <v xml:space="preserve">        OVERFLOW=354,</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7590,12 +7587,12 @@
       </c>
       <c r="D357" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERFLOW=355,</v>
+        <v xml:space="preserve">        OVERRIDE=355,</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7606,12 +7603,12 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERRIDE=356,</v>
+        <v xml:space="preserve">        PACKED_DECIMAL=356,</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7622,12 +7619,12 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PACKED_DECIMAL=357,</v>
+        <v xml:space="preserve">        PADDING=357,</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7638,12 +7635,12 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PADDING=358,</v>
+        <v xml:space="preserve">        PAGE=358,</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7654,12 +7651,12 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PAGE=359,</v>
+        <v xml:space="preserve">        PARSE=359,</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7670,12 +7667,12 @@
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PARSE=360,</v>
+        <v xml:space="preserve">        PASSWORD=360,</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7686,12 +7683,12 @@
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PASSWORD=361,</v>
+        <v xml:space="preserve">        PIC=361,</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7702,12 +7699,12 @@
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PIC=362,</v>
+        <v xml:space="preserve">        PICTURE=362,</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7718,12 +7715,12 @@
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PICTURE=363,</v>
+        <v xml:space="preserve">        POINTER=363,</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7734,12 +7731,12 @@
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POINTER=364,</v>
+        <v xml:space="preserve">        POSITION=364,</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7750,28 +7747,28 @@
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITION=365,</v>
+        <v xml:space="preserve">        POSITIVE=365,</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
         <v>366</v>
       </c>
       <c r="C368" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITIVE=366,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER=366,</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7782,12 +7779,12 @@
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER=367,</v>
+        <v xml:space="preserve">        PROCEDURES=367,</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7798,12 +7795,12 @@
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURES=368,</v>
+        <v xml:space="preserve">        PROCEED=368,</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7814,12 +7811,12 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEED=369,</v>
+        <v xml:space="preserve">        PROCESSING=369,</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7830,12 +7827,12 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCESSING=370,</v>
+        <v xml:space="preserve">        PROGRAM=370,</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7846,12 +7843,12 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM=371,</v>
+        <v xml:space="preserve">        PROGRAM_ID=371,</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7862,12 +7859,12 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM_ID=372,</v>
+        <v xml:space="preserve">        RANDOM=372,</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7878,12 +7875,12 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RANDOM=373,</v>
+        <v xml:space="preserve">        RECORD=373,</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7894,12 +7891,12 @@
       </c>
       <c r="D376" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORD=374,</v>
+        <v xml:space="preserve">        RECORDING=374,</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7910,12 +7907,12 @@
       </c>
       <c r="D377" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDING=375,</v>
+        <v xml:space="preserve">        RECORDS=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7926,12 +7923,12 @@
       </c>
       <c r="D378" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDS=376,</v>
+        <v xml:space="preserve">        RECURSIVE=376,</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7942,12 +7939,12 @@
       </c>
       <c r="D379" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECURSIVE=377,</v>
+        <v xml:space="preserve">        REDEFINES=377,</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="11"/>
@@ -7958,12 +7955,12 @@
       </c>
       <c r="D380" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        REDEFINES=378,</v>
+        <v xml:space="preserve">        REEL=378,</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="11"/>
@@ -7973,13 +7970,13 @@
         <v>370</v>
       </c>
       <c r="D381" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">        REEL=379,</v>
+        <f t="shared" ref="D381:D444" si="12">"        "&amp;C381&amp;"="&amp;B381&amp;","</f>
+        <v xml:space="preserve">        REFERENCE=379,</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="11"/>
@@ -7989,13 +7986,13 @@
         <v>371</v>
       </c>
       <c r="D382" t="str">
-        <f t="shared" ref="D382:D445" si="12">"        "&amp;C382&amp;"="&amp;B382&amp;","</f>
-        <v xml:space="preserve">        REFERENCE=380,</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">        REFERENCES=380,</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="11"/>
@@ -8006,15 +8003,15 @@
       </c>
       <c r="D383" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REFERENCES=381,</v>
+        <v xml:space="preserve">        RELATIVE=381,</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B384" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B384:B446" si="13">B383+1</f>
         <v>382</v>
       </c>
       <c r="C384" t="s">
@@ -8022,15 +8019,15 @@
       </c>
       <c r="D384" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELATIVE=382,</v>
+        <v xml:space="preserve">        RELOAD=382,</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B385" s="1">
-        <f t="shared" ref="B385:B447" si="13">B384+1</f>
+        <f t="shared" si="13"/>
         <v>383</v>
       </c>
       <c r="C385" t="s">
@@ -8038,12 +8035,12 @@
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELOAD=383,</v>
+        <v xml:space="preserve">        REMAINDER=383,</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
@@ -8054,12 +8051,12 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMAINDER=384,</v>
+        <v xml:space="preserve">        REMOVAL=384,</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8070,12 +8067,12 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMOVAL=385,</v>
+        <v xml:space="preserve">        RENAMES=385,</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8086,12 +8083,12 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RENAMES=386,</v>
+        <v xml:space="preserve">        REPLACING=386,</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8102,12 +8099,12 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REPLACING=387,</v>
+        <v xml:space="preserve">        RESERVE=387,</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8118,12 +8115,12 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RESERVE=388,</v>
+        <v xml:space="preserve">        RETURNING=388,</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8134,12 +8131,12 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RETURNING=389,</v>
+        <v xml:space="preserve">        REVERSED=389,</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8150,12 +8147,12 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REVERSED=390,</v>
+        <v xml:space="preserve">        REWIND=390,</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8166,12 +8163,12 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REWIND=391,</v>
+        <v xml:space="preserve">        RIGHT=391,</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8182,12 +8179,12 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RIGHT=392,</v>
+        <v xml:space="preserve">        ROUNDED=392,</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8198,12 +8195,12 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        ROUNDED=393,</v>
+        <v xml:space="preserve">        RUN=393,</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8214,12 +8211,12 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RUN=394,</v>
+        <v xml:space="preserve">        SECTION=394,</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8230,12 +8227,12 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECTION=395,</v>
+        <v xml:space="preserve">        SECURITY=395,</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8246,12 +8243,12 @@
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECURITY=396,</v>
+        <v xml:space="preserve">        SEGMENT_LIMIT=396,</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8262,12 +8259,12 @@
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT=397,</v>
+        <v xml:space="preserve">        SENTENCE=397,</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8278,12 +8275,12 @@
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SENTENCE=398,</v>
+        <v xml:space="preserve">        SEPARATE=398,</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8294,12 +8291,12 @@
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEPARATE=399,</v>
+        <v xml:space="preserve">        SEQUENCE=399,</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8310,12 +8307,12 @@
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENCE=400,</v>
+        <v xml:space="preserve">        SEQUENTIAL=400,</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8326,12 +8323,12 @@
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENTIAL=401,</v>
+        <v xml:space="preserve">        SIGN=401,</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8342,12 +8339,12 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIGN=402,</v>
+        <v xml:space="preserve">        SIZE=402,</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8358,12 +8355,12 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIZE=403,</v>
+        <v xml:space="preserve">        SORT_MERGE=403,</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8374,12 +8371,12 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SORT_MERGE=404,</v>
+        <v xml:space="preserve">        SQL=404,</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8390,12 +8387,12 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQL=405,</v>
+        <v xml:space="preserve">        SQLIMS=405,</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8406,12 +8403,12 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQLIMS=406,</v>
+        <v xml:space="preserve">        STANDARD=406,</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8422,12 +8419,12 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD=407,</v>
+        <v xml:space="preserve">        STANDARD_1=407,</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8438,12 +8435,12 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_1=408,</v>
+        <v xml:space="preserve">        STANDARD_2=408,</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8454,12 +8451,12 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_2=409,</v>
+        <v xml:space="preserve">        STATUS=409,</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8470,12 +8467,12 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STATUS=410,</v>
+        <v xml:space="preserve">        SUPPRESS=410,</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8486,12 +8483,12 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SUPPRESS=411,</v>
+        <v xml:space="preserve">        SYMBOL=411,</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8502,12 +8499,12 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOL=412,</v>
+        <v xml:space="preserve">        SYMBOLIC=412,</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8518,12 +8515,12 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOLIC=413,</v>
+        <v xml:space="preserve">        SYNC=413,</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8534,12 +8531,12 @@
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNC=414,</v>
+        <v xml:space="preserve">        SYNCHRONIZED=414,</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8550,12 +8547,12 @@
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNCHRONIZED=415,</v>
+        <v xml:space="preserve">        TALLYING=415,</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8566,12 +8563,12 @@
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TALLYING=416,</v>
+        <v xml:space="preserve">        TAPE=416,</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8582,12 +8579,12 @@
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TAPE=417,</v>
+        <v xml:space="preserve">        TEST=417,</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8598,12 +8595,12 @@
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TEST=418,</v>
+        <v xml:space="preserve">        THAN=418,</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8614,12 +8611,12 @@
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THAN=419,</v>
+        <v xml:space="preserve">        THEN=419,</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8630,12 +8627,12 @@
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THEN=420,</v>
+        <v xml:space="preserve">        THROUGH=420,</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8646,12 +8643,12 @@
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THROUGH=421,</v>
+        <v xml:space="preserve">        THRU=421,</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8662,12 +8659,12 @@
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THRU=422,</v>
+        <v xml:space="preserve">        TIME=422,</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8678,12 +8675,12 @@
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIME=423,</v>
+        <v xml:space="preserve">        TIMES=423,</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8694,12 +8691,12 @@
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIMES=424,</v>
+        <v xml:space="preserve">        TO=424,</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8710,12 +8707,12 @@
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TO=425,</v>
+        <v xml:space="preserve">        TOP=425,</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8726,12 +8723,12 @@
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TOP=426,</v>
+        <v xml:space="preserve">        TRACE=426,</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8742,12 +8739,12 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRACE=427,</v>
+        <v xml:space="preserve">        TRAILING=427,</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8758,12 +8755,12 @@
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRAILING=428,</v>
+        <v xml:space="preserve">        TRUE=428,</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8774,12 +8771,12 @@
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRUE=429,</v>
+        <v xml:space="preserve">        TYPE=429,</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8790,12 +8787,12 @@
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TYPE=430,</v>
+        <v xml:space="preserve">        UNBOUNDED=430,</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8806,12 +8803,12 @@
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNBOUNDED=431,</v>
+        <v xml:space="preserve">        UNIT=431,</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8822,12 +8819,12 @@
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNIT=432,</v>
+        <v xml:space="preserve">        UNTIL=432,</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8838,12 +8835,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNTIL=433,</v>
+        <v xml:space="preserve">        UP=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8854,12 +8851,12 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UP=434,</v>
+        <v xml:space="preserve">        UPON=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8870,12 +8867,12 @@
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UPON=435,</v>
+        <v xml:space="preserve">        USAGE=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8886,12 +8883,12 @@
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USAGE=436,</v>
+        <v xml:space="preserve">        USING=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8902,12 +8899,12 @@
       </c>
       <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USING=437,</v>
+        <v xml:space="preserve">        VALIDATING=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8918,12 +8915,12 @@
       </c>
       <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALIDATING=438,</v>
+        <v xml:space="preserve">        VALUE=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
@@ -8934,12 +8931,12 @@
       </c>
       <c r="D441" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=439,</v>
+        <v xml:space="preserve">        VALUES=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B442" s="1">
         <f t="shared" si="13"/>
@@ -8950,28 +8947,28 @@
       </c>
       <c r="D442" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=440,</v>
+        <v xml:space="preserve">        VARYING=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B443" s="1">
         <f t="shared" si="13"/>
         <v>441</v>
       </c>
       <c r="C443" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D443" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=441,</v>
+        <v xml:space="preserve">        WITH=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B444" s="1">
         <f t="shared" si="13"/>
@@ -8982,12 +8979,12 @@
       </c>
       <c r="D444" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=442,</v>
+        <v xml:space="preserve">        WORDS=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B445" s="1">
         <f t="shared" si="13"/>
@@ -8997,13 +8994,13 @@
         <v>435</v>
       </c>
       <c r="D445" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=443,</v>
+        <f t="shared" ref="D445:D455" si="14">"        "&amp;C445&amp;"="&amp;B445&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B446" s="1">
         <f t="shared" si="13"/>
@@ -9013,16 +9010,16 @@
         <v>436</v>
       </c>
       <c r="D446" t="str">
-        <f t="shared" ref="D446:D456" si="14">"        "&amp;C446&amp;"="&amp;B446&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=444,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_SCHEMA=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B447" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B447:B455" si="15">B446+1</f>
         <v>445</v>
       </c>
       <c r="C447" t="s">
@@ -9030,29 +9027,26 @@
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=445,</v>
+        <v xml:space="preserve">        YYYYDDD=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B448" s="1">
-        <f t="shared" ref="B448:B456" si="15">B447+1</f>
+        <f t="shared" si="15"/>
         <v>446</v>
       </c>
       <c r="C448" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=446,</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>440</v>
-      </c>
+        <v xml:space="preserve">        YYYYMMDD=446,</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
         <f t="shared" si="15"/>
         <v>447</v>
@@ -9062,10 +9056,10 @@
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=447,</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        TYPEDEF=447,</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
         <f t="shared" si="15"/>
         <v>448</v>
@@ -9075,10 +9069,10 @@
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=448,</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        STRONG=448,</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
         <f t="shared" si="15"/>
         <v>449</v>
@@ -9088,23 +9082,23 @@
       </c>
       <c r="D451" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=449,</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        UNSAFE=449,</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <f t="shared" si="15"/>
         <v>450</v>
       </c>
       <c r="C452" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D452" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=450,</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        PUBLIC=450,</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
         <f t="shared" si="15"/>
         <v>451</v>
@@ -9114,23 +9108,23 @@
       </c>
       <c r="D453" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=451,</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        PRIVATE=451,</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
         <f t="shared" si="15"/>
         <v>452</v>
       </c>
       <c r="C454" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D454" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=452,</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        IN_OUT=452,</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
         <f t="shared" si="15"/>
         <v>453</v>
@@ -9140,36 +9134,36 @@
       </c>
       <c r="D455" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=453,</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        STRICT=453,</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B456:B459" si="16">B455+1</f>
         <v>454</v>
       </c>
       <c r="C456" t="s">
         <v>473</v>
       </c>
       <c r="D456" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=454,</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D456:D459" si="17">"        "&amp;C456&amp;"="&amp;B456&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=454,</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
-        <f t="shared" ref="B457:B460" si="16">B456+1</f>
+        <f t="shared" si="16"/>
         <v>455</v>
       </c>
       <c r="C457" t="s">
         <v>474</v>
       </c>
       <c r="D457" t="str">
-        <f t="shared" ref="D457:D460" si="17">"        "&amp;C457&amp;"="&amp;B457&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=455,</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=455,</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <f t="shared" si="16"/>
         <v>456</v>
@@ -9179,10 +9173,10 @@
       </c>
       <c r="D458" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=456,</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        CopyImportDirective=456,</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
         <f t="shared" si="16"/>
         <v>457</v>
@@ -9192,33 +9186,20 @@
       </c>
       <c r="D459" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=457,</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">        ReplaceDirective=457,</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B460" si="18">B459+1</f>
         <v>458</v>
       </c>
       <c r="C460" t="s">
         <v>477</v>
       </c>
       <c r="D460" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=458,</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B461" s="1">
-        <f t="shared" ref="B461" si="18">B460+1</f>
-        <v>459</v>
-      </c>
-      <c r="C461" t="s">
-        <v>478</v>
-      </c>
-      <c r="D461" t="str">
-        <f t="shared" ref="D461" si="19">"        "&amp;C461&amp;"="&amp;B461&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=459,</v>
+        <f t="shared" ref="D460" si="19">"        "&amp;C460&amp;"="&amp;B460&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=458,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="477">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -984,9 +984,6 @@
   </si>
   <si>
     <t>MORE_LABELS</t>
-  </si>
-  <si>
-    <t>NAME</t>
   </si>
   <si>
     <t>NATIONAL</t>
@@ -1869,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D460"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="G339" sqref="G339"/>
+      <selection activeCell="A343" sqref="A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,7 +1884,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1902,14 +1899,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1934,7 +1931,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1950,7 +1947,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1966,7 +1963,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1982,7 +1979,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1998,7 +1995,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2030,14 +2027,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2046,7 +2043,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2062,7 +2059,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2078,7 +2075,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2094,7 +2091,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2110,7 +2107,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2158,7 +2155,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2174,7 +2171,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2190,7 +2187,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2206,7 +2203,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2222,7 +2219,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2238,7 +2235,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2254,7 +2251,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2270,7 +2267,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2286,7 +2283,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2302,7 +2299,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2318,7 +2315,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2347,14 +2344,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2363,7 +2360,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2411,7 +2408,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2427,7 +2424,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2456,14 +2453,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2472,14 +2469,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2488,7 +2485,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2504,14 +2501,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2520,7 +2517,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2536,7 +2533,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2552,7 +2549,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2568,7 +2565,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2584,7 +2581,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2600,7 +2597,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2616,7 +2613,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2648,7 +2645,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2664,7 +2661,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2680,7 +2677,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2696,7 +2693,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2712,7 +2709,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2728,7 +2725,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2744,7 +2741,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2760,14 +2757,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2776,7 +2773,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2792,7 +2789,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2808,7 +2805,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2824,7 +2821,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2856,7 +2853,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2872,7 +2869,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2888,7 +2885,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2904,7 +2901,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2920,7 +2917,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2936,7 +2933,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2952,7 +2949,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2968,7 +2965,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2984,7 +2981,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -3000,7 +2997,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -3016,7 +3013,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3032,14 +3029,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3048,7 +3045,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3064,7 +3061,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3080,7 +3077,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3096,7 +3093,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3112,7 +3109,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -3128,7 +3125,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3144,7 +3141,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3160,7 +3157,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3176,14 +3173,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3192,7 +3189,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3208,7 +3205,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3224,7 +3221,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3240,7 +3237,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3256,7 +3253,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3272,7 +3269,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3288,7 +3285,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3304,7 +3301,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3320,7 +3317,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3336,7 +3333,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3352,7 +3349,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3368,7 +3365,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3384,7 +3381,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3400,7 +3397,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3416,7 +3413,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3432,7 +3429,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3448,7 +3445,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3464,7 +3461,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3480,7 +3477,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3496,7 +3493,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3512,7 +3509,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3528,7 +3525,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3544,7 +3541,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3560,7 +3557,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3576,7 +3573,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3592,7 +3589,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -3608,7 +3605,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3624,7 +3621,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3640,7 +3637,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3656,7 +3653,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3672,7 +3669,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3688,7 +3685,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3704,7 +3701,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3720,7 +3717,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3736,7 +3733,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3752,7 +3749,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3768,7 +3765,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3784,7 +3781,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3800,7 +3797,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3816,7 +3813,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3832,7 +3829,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3848,7 +3845,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3864,7 +3861,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3880,14 +3877,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
@@ -3896,7 +3893,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3912,7 +3909,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3928,7 +3925,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3944,14 +3941,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3976,7 +3973,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3992,7 +3989,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -4008,7 +4005,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4024,7 +4021,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4040,7 +4037,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4056,7 +4053,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4072,7 +4069,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4088,7 +4085,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4104,7 +4101,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4120,7 +4117,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4136,7 +4133,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4152,7 +4149,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4168,7 +4165,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4184,7 +4181,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4200,7 +4197,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4216,7 +4213,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4248,7 +4245,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4264,7 +4261,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4280,7 +4277,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4296,14 +4293,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4312,7 +4309,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4328,7 +4325,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4344,7 +4341,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4360,7 +4357,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4376,7 +4373,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4392,7 +4389,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4408,7 +4405,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4424,7 +4421,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4440,7 +4437,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4456,7 +4453,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4472,7 +4469,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4488,7 +4485,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4504,7 +4501,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4520,7 +4517,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4536,7 +4533,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4552,7 +4549,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4568,7 +4565,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4584,7 +4581,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4600,7 +4597,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4616,7 +4613,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4632,7 +4629,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4648,7 +4645,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4664,7 +4661,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4680,7 +4677,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4696,7 +4693,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4728,7 +4725,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4744,7 +4741,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4760,7 +4757,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4776,7 +4773,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4792,7 +4789,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
@@ -4808,7 +4805,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4824,7 +4821,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4840,7 +4837,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4856,7 +4853,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4872,7 +4869,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4888,7 +4885,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4904,7 +4901,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4920,7 +4917,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4936,7 +4933,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4952,7 +4949,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4968,7 +4965,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4984,7 +4981,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -5000,7 +4997,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B258" si="7">B195+1</f>
@@ -5016,7 +5013,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5032,7 +5029,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5048,7 +5045,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5064,7 +5061,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5080,7 +5077,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5096,7 +5093,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5112,7 +5109,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5128,7 +5125,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5144,7 +5141,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5160,7 +5157,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5176,7 +5173,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5192,7 +5189,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5208,7 +5205,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5224,7 +5221,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5240,7 +5237,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5256,7 +5253,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5272,7 +5269,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5288,7 +5285,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5304,7 +5301,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5320,7 +5317,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5336,7 +5333,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5352,7 +5349,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5368,7 +5365,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5384,7 +5381,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5400,7 +5397,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5416,7 +5413,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5432,7 +5429,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5448,7 +5445,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5464,7 +5461,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5480,7 +5477,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5496,7 +5493,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5512,7 +5509,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5528,7 +5525,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5544,7 +5541,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5560,7 +5557,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5576,7 +5573,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5592,7 +5589,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5608,7 +5605,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5624,7 +5621,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5640,7 +5637,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5656,7 +5653,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5672,7 +5669,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5688,7 +5685,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5704,7 +5701,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5720,7 +5717,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5736,7 +5733,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5752,7 +5749,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5768,7 +5765,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5784,7 +5781,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5800,7 +5797,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5816,7 +5813,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5832,7 +5829,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5848,7 +5845,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5864,7 +5861,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5880,7 +5877,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5896,7 +5893,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5912,7 +5909,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5928,7 +5925,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5944,7 +5941,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5960,7 +5957,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5976,7 +5973,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5992,7 +5989,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="7"/>
@@ -6008,7 +6005,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" ref="B259:B321" si="9">B258+1</f>
@@ -6024,7 +6021,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6040,7 +6037,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6056,7 +6053,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6072,7 +6069,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6088,7 +6085,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6104,7 +6101,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6120,7 +6117,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6136,7 +6133,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6152,7 +6149,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6168,7 +6165,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6184,7 +6181,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6200,7 +6197,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6216,7 +6213,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6232,7 +6229,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6248,7 +6245,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6264,7 +6261,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6280,7 +6277,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6296,7 +6293,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6312,7 +6309,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6328,7 +6325,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6344,7 +6341,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6360,7 +6357,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6376,7 +6373,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6392,7 +6389,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6408,7 +6405,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6424,7 +6421,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6440,7 +6437,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6456,7 +6453,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6472,7 +6469,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6488,7 +6485,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6504,7 +6501,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6520,7 +6517,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6536,7 +6533,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6552,7 +6549,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6568,7 +6565,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6584,7 +6581,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6600,7 +6597,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6616,7 +6613,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6632,7 +6629,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6648,7 +6645,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6664,7 +6661,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6680,7 +6677,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6696,7 +6693,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6712,7 +6709,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6728,7 +6725,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6744,7 +6741,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6760,7 +6757,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6776,7 +6773,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6792,7 +6789,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6808,7 +6805,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6824,7 +6821,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6840,7 +6837,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6856,7 +6853,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6872,7 +6869,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6888,7 +6885,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6904,7 +6901,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6920,7 +6917,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6936,7 +6933,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6952,7 +6949,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6968,7 +6965,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6978,13 +6975,13 @@
         <v>306</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" ref="D319:D380" si="10">"        "&amp;C319&amp;"="&amp;B319&amp;","</f>
+        <f t="shared" ref="D319:D379" si="10">"        "&amp;C319&amp;"="&amp;B319&amp;","</f>
         <v xml:space="preserve">        LABEL=317,</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="9"/>
@@ -7000,7 +6997,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="9"/>
@@ -7016,10 +7013,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B322" s="1">
-        <f t="shared" ref="B322:B383" si="11">B321+1</f>
+        <f t="shared" ref="B322:B382" si="11">B321+1</f>
         <v>320</v>
       </c>
       <c r="C322" t="s">
@@ -7032,7 +7029,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7048,7 +7045,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7064,7 +7061,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7080,7 +7077,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7096,7 +7093,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7112,7 +7109,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7128,7 +7125,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7144,7 +7141,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7160,7 +7157,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7176,7 +7173,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7192,7 +7189,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7203,12 +7200,12 @@
       </c>
       <c r="D333" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NAME=331,</v>
+        <v xml:space="preserve">        NATIONAL=331,</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7219,12 +7216,12 @@
       </c>
       <c r="D334" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL=332,</v>
+        <v xml:space="preserve">        NATIONAL_EDITED=332,</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7235,12 +7232,12 @@
       </c>
       <c r="D335" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL_EDITED=333,</v>
+        <v xml:space="preserve">        NATIVE=333,</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7251,12 +7248,12 @@
       </c>
       <c r="D336" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIVE=334,</v>
+        <v xml:space="preserve">        NEGATIVE=334,</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7267,28 +7264,28 @@
       </c>
       <c r="D337" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEGATIVE=335,</v>
+        <v xml:space="preserve">        NEW=335,</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="C338" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D338" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEW=336,</v>
+        <v xml:space="preserve">        NO=336,</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7299,12 +7296,12 @@
       </c>
       <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NO=337,</v>
+        <v xml:space="preserve">        NONNUMERIC=337,</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7315,12 +7312,12 @@
       </c>
       <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NONNUMERIC=338,</v>
+        <v xml:space="preserve">        NOT=338,</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7331,12 +7328,12 @@
       </c>
       <c r="D341" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NOT=339,</v>
+        <v xml:space="preserve">        NUMERIC=339,</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7347,12 +7344,12 @@
       </c>
       <c r="D342" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC=340,</v>
+        <v xml:space="preserve">        NUMERIC_EDITED=340,</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7363,12 +7360,12 @@
       </c>
       <c r="D343" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC_EDITED=341,</v>
+        <v xml:space="preserve">        OBJECT=341,</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7379,12 +7376,12 @@
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OBJECT=342,</v>
+        <v xml:space="preserve">        OCCURS=342,</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7395,12 +7392,12 @@
       </c>
       <c r="D345" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OCCURS=343,</v>
+        <v xml:space="preserve">        OF=343,</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7411,12 +7408,12 @@
       </c>
       <c r="D346" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OF=344,</v>
+        <v xml:space="preserve">        OFF=344,</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7427,12 +7424,12 @@
       </c>
       <c r="D347" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OFF=345,</v>
+        <v xml:space="preserve">        OMITTED=345,</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7443,12 +7440,12 @@
       </c>
       <c r="D348" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OMITTED=346,</v>
+        <v xml:space="preserve">        ON=346,</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7459,12 +7456,12 @@
       </c>
       <c r="D349" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ON=347,</v>
+        <v xml:space="preserve">        OPTIONAL=347,</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7475,12 +7472,12 @@
       </c>
       <c r="D350" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OPTIONAL=348,</v>
+        <v xml:space="preserve">        OR=348,</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7491,12 +7488,12 @@
       </c>
       <c r="D351" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OR=349,</v>
+        <v xml:space="preserve">        ORDER=349,</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7507,12 +7504,12 @@
       </c>
       <c r="D352" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORDER=350,</v>
+        <v xml:space="preserve">        ORGANIZATION=350,</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7523,12 +7520,12 @@
       </c>
       <c r="D353" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORGANIZATION=351,</v>
+        <v xml:space="preserve">        OTHER=351,</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7539,12 +7536,12 @@
       </c>
       <c r="D354" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OTHER=352,</v>
+        <v xml:space="preserve">        OUTPUT=352,</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7555,12 +7552,12 @@
       </c>
       <c r="D355" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OUTPUT=353,</v>
+        <v xml:space="preserve">        OVERFLOW=353,</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7571,12 +7568,12 @@
       </c>
       <c r="D356" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERFLOW=354,</v>
+        <v xml:space="preserve">        OVERRIDE=354,</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7587,12 +7584,12 @@
       </c>
       <c r="D357" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERRIDE=355,</v>
+        <v xml:space="preserve">        PACKED_DECIMAL=355,</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7603,12 +7600,12 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PACKED_DECIMAL=356,</v>
+        <v xml:space="preserve">        PADDING=356,</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7619,12 +7616,12 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PADDING=357,</v>
+        <v xml:space="preserve">        PAGE=357,</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7635,12 +7632,12 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PAGE=358,</v>
+        <v xml:space="preserve">        PARSE=358,</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7651,12 +7648,12 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PARSE=359,</v>
+        <v xml:space="preserve">        PASSWORD=359,</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7667,12 +7664,12 @@
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PASSWORD=360,</v>
+        <v xml:space="preserve">        PIC=360,</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7683,12 +7680,12 @@
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PIC=361,</v>
+        <v xml:space="preserve">        PICTURE=361,</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7699,12 +7696,12 @@
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PICTURE=362,</v>
+        <v xml:space="preserve">        POINTER=362,</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7715,12 +7712,12 @@
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POINTER=363,</v>
+        <v xml:space="preserve">        POSITION=363,</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7731,28 +7728,28 @@
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITION=364,</v>
+        <v xml:space="preserve">        POSITIVE=364,</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
         <v>365</v>
       </c>
       <c r="C367" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITIVE=365,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER=365,</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7763,12 +7760,12 @@
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER=366,</v>
+        <v xml:space="preserve">        PROCEDURES=366,</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7779,12 +7776,12 @@
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURES=367,</v>
+        <v xml:space="preserve">        PROCEED=367,</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7795,12 +7792,12 @@
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEED=368,</v>
+        <v xml:space="preserve">        PROCESSING=368,</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7811,12 +7808,12 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCESSING=369,</v>
+        <v xml:space="preserve">        PROGRAM=369,</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7827,12 +7824,12 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM=370,</v>
+        <v xml:space="preserve">        PROGRAM_ID=370,</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7843,12 +7840,12 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM_ID=371,</v>
+        <v xml:space="preserve">        RANDOM=371,</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7859,12 +7856,12 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RANDOM=372,</v>
+        <v xml:space="preserve">        RECORD=372,</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7875,12 +7872,12 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORD=373,</v>
+        <v xml:space="preserve">        RECORDING=373,</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7891,12 +7888,12 @@
       </c>
       <c r="D376" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDING=374,</v>
+        <v xml:space="preserve">        RECORDS=374,</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7907,12 +7904,12 @@
       </c>
       <c r="D377" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDS=375,</v>
+        <v xml:space="preserve">        RECURSIVE=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7923,12 +7920,12 @@
       </c>
       <c r="D378" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECURSIVE=376,</v>
+        <v xml:space="preserve">        REDEFINES=376,</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7939,12 +7936,12 @@
       </c>
       <c r="D379" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        REDEFINES=377,</v>
+        <v xml:space="preserve">        REEL=377,</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="11"/>
@@ -7954,13 +7951,13 @@
         <v>369</v>
       </c>
       <c r="D380" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">        REEL=378,</v>
+        <f t="shared" ref="D380:D443" si="12">"        "&amp;C380&amp;"="&amp;B380&amp;","</f>
+        <v xml:space="preserve">        REFERENCE=378,</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="11"/>
@@ -7970,13 +7967,13 @@
         <v>370</v>
       </c>
       <c r="D381" t="str">
-        <f t="shared" ref="D381:D444" si="12">"        "&amp;C381&amp;"="&amp;B381&amp;","</f>
-        <v xml:space="preserve">        REFERENCE=379,</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">        REFERENCES=379,</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="11"/>
@@ -7987,15 +7984,15 @@
       </c>
       <c r="D382" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REFERENCES=380,</v>
+        <v xml:space="preserve">        RELATIVE=380,</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B383" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B383:B445" si="13">B382+1</f>
         <v>381</v>
       </c>
       <c r="C383" t="s">
@@ -8003,15 +8000,15 @@
       </c>
       <c r="D383" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELATIVE=381,</v>
+        <v xml:space="preserve">        RELOAD=381,</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B384" s="1">
-        <f t="shared" ref="B384:B446" si="13">B383+1</f>
+        <f t="shared" si="13"/>
         <v>382</v>
       </c>
       <c r="C384" t="s">
@@ -8019,12 +8016,12 @@
       </c>
       <c r="D384" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELOAD=382,</v>
+        <v xml:space="preserve">        REMAINDER=382,</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="13"/>
@@ -8035,12 +8032,12 @@
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMAINDER=383,</v>
+        <v xml:space="preserve">        REMOVAL=383,</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
@@ -8051,12 +8048,12 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMOVAL=384,</v>
+        <v xml:space="preserve">        RENAMES=384,</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8067,12 +8064,12 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RENAMES=385,</v>
+        <v xml:space="preserve">        REPLACING=385,</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8083,12 +8080,12 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REPLACING=386,</v>
+        <v xml:space="preserve">        RESERVE=386,</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8099,12 +8096,12 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RESERVE=387,</v>
+        <v xml:space="preserve">        RETURNING=387,</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8115,12 +8112,12 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RETURNING=388,</v>
+        <v xml:space="preserve">        REVERSED=388,</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8131,12 +8128,12 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REVERSED=389,</v>
+        <v xml:space="preserve">        REWIND=389,</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8147,12 +8144,12 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REWIND=390,</v>
+        <v xml:space="preserve">        RIGHT=390,</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8163,12 +8160,12 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RIGHT=391,</v>
+        <v xml:space="preserve">        ROUNDED=391,</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8179,12 +8176,12 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        ROUNDED=392,</v>
+        <v xml:space="preserve">        RUN=392,</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8195,12 +8192,12 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RUN=393,</v>
+        <v xml:space="preserve">        SECTION=393,</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8211,12 +8208,12 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECTION=394,</v>
+        <v xml:space="preserve">        SECURITY=394,</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8227,12 +8224,12 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECURITY=395,</v>
+        <v xml:space="preserve">        SEGMENT_LIMIT=395,</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8243,12 +8240,12 @@
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT=396,</v>
+        <v xml:space="preserve">        SENTENCE=396,</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8259,12 +8256,12 @@
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SENTENCE=397,</v>
+        <v xml:space="preserve">        SEPARATE=397,</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8275,12 +8272,12 @@
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEPARATE=398,</v>
+        <v xml:space="preserve">        SEQUENCE=398,</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8291,12 +8288,12 @@
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENCE=399,</v>
+        <v xml:space="preserve">        SEQUENTIAL=399,</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8307,12 +8304,12 @@
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENTIAL=400,</v>
+        <v xml:space="preserve">        SIGN=400,</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8323,12 +8320,12 @@
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIGN=401,</v>
+        <v xml:space="preserve">        SIZE=401,</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8339,12 +8336,12 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIZE=402,</v>
+        <v xml:space="preserve">        SORT_MERGE=402,</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8355,12 +8352,12 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SORT_MERGE=403,</v>
+        <v xml:space="preserve">        SQL=403,</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8371,12 +8368,12 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQL=404,</v>
+        <v xml:space="preserve">        SQLIMS=404,</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8387,12 +8384,12 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQLIMS=405,</v>
+        <v xml:space="preserve">        STANDARD=405,</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8403,12 +8400,12 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD=406,</v>
+        <v xml:space="preserve">        STANDARD_1=406,</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8419,12 +8416,12 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_1=407,</v>
+        <v xml:space="preserve">        STANDARD_2=407,</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8435,12 +8432,12 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_2=408,</v>
+        <v xml:space="preserve">        STATUS=408,</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8451,12 +8448,12 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STATUS=409,</v>
+        <v xml:space="preserve">        SUPPRESS=409,</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8467,12 +8464,12 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SUPPRESS=410,</v>
+        <v xml:space="preserve">        SYMBOL=410,</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8483,12 +8480,12 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOL=411,</v>
+        <v xml:space="preserve">        SYMBOLIC=411,</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8499,12 +8496,12 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOLIC=412,</v>
+        <v xml:space="preserve">        SYNC=412,</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8515,12 +8512,12 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNC=413,</v>
+        <v xml:space="preserve">        SYNCHRONIZED=413,</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8531,12 +8528,12 @@
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNCHRONIZED=414,</v>
+        <v xml:space="preserve">        TALLYING=414,</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8547,12 +8544,12 @@
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TALLYING=415,</v>
+        <v xml:space="preserve">        TAPE=415,</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8563,12 +8560,12 @@
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TAPE=416,</v>
+        <v xml:space="preserve">        TEST=416,</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8579,12 +8576,12 @@
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TEST=417,</v>
+        <v xml:space="preserve">        THAN=417,</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8595,12 +8592,12 @@
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THAN=418,</v>
+        <v xml:space="preserve">        THEN=418,</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8611,12 +8608,12 @@
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THEN=419,</v>
+        <v xml:space="preserve">        THROUGH=419,</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8627,12 +8624,12 @@
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THROUGH=420,</v>
+        <v xml:space="preserve">        THRU=420,</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8643,12 +8640,12 @@
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THRU=421,</v>
+        <v xml:space="preserve">        TIME=421,</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8659,12 +8656,12 @@
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIME=422,</v>
+        <v xml:space="preserve">        TIMES=422,</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8675,12 +8672,12 @@
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIMES=423,</v>
+        <v xml:space="preserve">        TO=423,</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8691,12 +8688,12 @@
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TO=424,</v>
+        <v xml:space="preserve">        TOP=424,</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8707,12 +8704,12 @@
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TOP=425,</v>
+        <v xml:space="preserve">        TRACE=425,</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8723,12 +8720,12 @@
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRACE=426,</v>
+        <v xml:space="preserve">        TRAILING=426,</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8739,12 +8736,12 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRAILING=427,</v>
+        <v xml:space="preserve">        TRUE=427,</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8755,12 +8752,12 @@
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRUE=428,</v>
+        <v xml:space="preserve">        TYPE=428,</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8771,12 +8768,12 @@
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TYPE=429,</v>
+        <v xml:space="preserve">        UNBOUNDED=429,</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8787,12 +8784,12 @@
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNBOUNDED=430,</v>
+        <v xml:space="preserve">        UNIT=430,</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8803,12 +8800,12 @@
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNIT=431,</v>
+        <v xml:space="preserve">        UNTIL=431,</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8819,12 +8816,12 @@
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNTIL=432,</v>
+        <v xml:space="preserve">        UP=432,</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8835,12 +8832,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UP=433,</v>
+        <v xml:space="preserve">        UPON=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8851,12 +8848,12 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UPON=434,</v>
+        <v xml:space="preserve">        USAGE=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8867,12 +8864,12 @@
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USAGE=435,</v>
+        <v xml:space="preserve">        USING=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8883,12 +8880,12 @@
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USING=436,</v>
+        <v xml:space="preserve">        VALIDATING=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8899,12 +8896,12 @@
       </c>
       <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALIDATING=437,</v>
+        <v xml:space="preserve">        VALUE=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8915,12 +8912,12 @@
       </c>
       <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=438,</v>
+        <v xml:space="preserve">        VALUES=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
@@ -8931,28 +8928,28 @@
       </c>
       <c r="D441" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=439,</v>
+        <v xml:space="preserve">        VARYING=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B442" s="1">
         <f t="shared" si="13"/>
         <v>440</v>
       </c>
       <c r="C442" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D442" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=440,</v>
+        <v xml:space="preserve">        WITH=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B443" s="1">
         <f t="shared" si="13"/>
@@ -8963,12 +8960,12 @@
       </c>
       <c r="D443" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=441,</v>
+        <v xml:space="preserve">        WORDS=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B444" s="1">
         <f t="shared" si="13"/>
@@ -8978,13 +8975,13 @@
         <v>434</v>
       </c>
       <c r="D444" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=442,</v>
+        <f t="shared" ref="D444:D454" si="14">"        "&amp;C444&amp;"="&amp;B444&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B445" s="1">
         <f t="shared" si="13"/>
@@ -8994,16 +8991,16 @@
         <v>435</v>
       </c>
       <c r="D445" t="str">
-        <f t="shared" ref="D445:D455" si="14">"        "&amp;C445&amp;"="&amp;B445&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=443,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_SCHEMA=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B446" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B446:B454" si="15">B445+1</f>
         <v>444</v>
       </c>
       <c r="C446" t="s">
@@ -9011,29 +9008,26 @@
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=444,</v>
+        <v xml:space="preserve">        YYYYDDD=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B447" s="1">
-        <f t="shared" ref="B447:B455" si="15">B446+1</f>
+        <f t="shared" si="15"/>
         <v>445</v>
       </c>
       <c r="C447" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=445,</v>
+        <v xml:space="preserve">        YYYYMMDD=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>439</v>
-      </c>
       <c r="B448" s="1">
         <f t="shared" si="15"/>
         <v>446</v>
@@ -9043,7 +9037,7 @@
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=446,</v>
+        <v xml:space="preserve">        TYPEDEF=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
@@ -9056,7 +9050,7 @@
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=447,</v>
+        <v xml:space="preserve">        STRONG=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
@@ -9069,7 +9063,7 @@
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=448,</v>
+        <v xml:space="preserve">        UNSAFE=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
@@ -9078,11 +9072,11 @@
         <v>449</v>
       </c>
       <c r="C451" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D451" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=449,</v>
+        <v xml:space="preserve">        PUBLIC=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
@@ -9095,7 +9089,7 @@
       </c>
       <c r="D452" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=450,</v>
+        <v xml:space="preserve">        PRIVATE=450,</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
@@ -9104,11 +9098,11 @@
         <v>451</v>
       </c>
       <c r="C453" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D453" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=451,</v>
+        <v xml:space="preserve">        IN_OUT=451,</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
@@ -9121,33 +9115,33 @@
       </c>
       <c r="D454" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=452,</v>
+        <v xml:space="preserve">        STRICT=452,</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B455:B458" si="16">B454+1</f>
         <v>453</v>
       </c>
       <c r="C455" t="s">
         <v>472</v>
       </c>
       <c r="D455" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=453,</v>
+        <f t="shared" ref="D455:D458" si="17">"        "&amp;C455&amp;"="&amp;B455&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=453,</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
-        <f t="shared" ref="B456:B459" si="16">B455+1</f>
+        <f t="shared" si="16"/>
         <v>454</v>
       </c>
       <c r="C456" t="s">
         <v>473</v>
       </c>
       <c r="D456" t="str">
-        <f t="shared" ref="D456:D459" si="17">"        "&amp;C456&amp;"="&amp;B456&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=454,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=454,</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
@@ -9160,7 +9154,7 @@
       </c>
       <c r="D457" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=455,</v>
+        <v xml:space="preserve">        CopyImportDirective=455,</v>
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.25">
@@ -9173,33 +9167,20 @@
       </c>
       <c r="D458" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=456,</v>
+        <v xml:space="preserve">        ReplaceDirective=456,</v>
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B459" si="18">B458+1</f>
         <v>457</v>
       </c>
       <c r="C459" t="s">
         <v>476</v>
       </c>
       <c r="D459" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=457,</v>
-      </c>
-    </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B460" s="1">
-        <f t="shared" ref="B460" si="18">B459+1</f>
-        <v>458</v>
-      </c>
-      <c r="C460" t="s">
-        <v>477</v>
-      </c>
-      <c r="D460" t="str">
-        <f t="shared" ref="D460" si="19">"        "&amp;C460&amp;"="&amp;B460&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=458,</v>
+        <f t="shared" ref="D459" si="19">"        "&amp;C459&amp;"="&amp;B459&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=457,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="476">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -642,9 +642,6 @@
   </si>
   <si>
     <t>AT</t>
-  </si>
-  <si>
-    <t>ATTRIBUTE</t>
   </si>
   <si>
     <t>AUTHOR</t>
@@ -1866,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1881,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1899,14 +1896,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1915,7 +1912,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1931,7 +1928,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1947,7 +1944,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1963,7 +1960,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1979,7 +1976,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1995,7 +1992,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2027,14 +2024,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2043,7 +2040,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2059,7 +2056,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2107,7 +2104,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2123,7 +2120,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2139,7 +2136,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2171,7 +2168,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2219,7 +2216,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2251,7 +2248,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2283,7 +2280,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2299,7 +2296,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2315,7 +2312,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2344,14 +2341,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2360,7 +2357,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2376,7 +2373,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2392,7 +2389,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2408,7 +2405,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2453,14 +2450,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2469,14 +2466,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2485,7 +2482,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2501,14 +2498,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2517,7 +2514,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2533,7 +2530,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2549,7 +2546,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2565,7 +2562,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2597,7 +2594,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2613,7 +2610,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2629,7 +2626,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2661,7 +2658,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2677,7 +2674,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2709,7 +2706,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2725,7 +2722,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2741,7 +2738,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2757,14 +2754,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2773,7 +2770,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2789,7 +2786,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2805,7 +2802,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2821,7 +2818,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2853,7 +2850,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2869,7 +2866,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2885,7 +2882,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2901,7 +2898,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2917,7 +2914,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2933,7 +2930,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2949,7 +2946,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2965,7 +2962,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2981,7 +2978,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -2997,14 +2994,14 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
@@ -3013,14 +3010,14 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
@@ -3029,14 +3026,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3045,7 +3042,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3061,7 +3058,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3109,14 +3106,14 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3141,7 +3138,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3157,7 +3154,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3173,14 +3170,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3189,7 +3186,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3205,7 +3202,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3221,7 +3218,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3237,7 +3234,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3253,7 +3250,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3285,7 +3282,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3301,7 +3298,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3317,7 +3314,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3333,7 +3330,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3349,7 +3346,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3365,7 +3362,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3381,7 +3378,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3397,7 +3394,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3429,7 +3426,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3445,7 +3442,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3461,7 +3458,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3477,7 +3474,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3493,7 +3490,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3509,7 +3506,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3525,7 +3522,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3541,7 +3538,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3557,7 +3554,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3573,7 +3570,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3589,14 +3586,14 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="2"/>
@@ -3605,7 +3602,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3621,7 +3618,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3637,7 +3634,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3653,7 +3650,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3685,7 +3682,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3701,7 +3698,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3717,7 +3714,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3765,7 +3762,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3797,7 +3794,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3813,7 +3810,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3829,7 +3826,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3845,7 +3842,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3861,7 +3858,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3877,14 +3874,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
@@ -3893,7 +3890,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3909,7 +3906,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3925,7 +3922,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3941,14 +3938,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3973,7 +3970,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3989,7 +3986,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4021,7 +4018,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4037,7 +4034,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4053,7 +4050,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4069,7 +4066,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4085,7 +4082,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4101,7 +4098,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4117,7 +4114,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4133,7 +4130,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4165,7 +4162,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4181,7 +4178,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4213,7 +4210,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4229,7 +4226,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4245,7 +4242,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4261,7 +4258,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4277,7 +4274,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4293,14 +4290,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4325,7 +4322,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4341,7 +4338,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4357,7 +4354,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4373,7 +4370,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4389,7 +4386,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4405,7 +4402,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4421,7 +4418,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4437,7 +4434,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4453,7 +4450,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4469,7 +4466,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4485,7 +4482,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4501,7 +4498,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4517,7 +4514,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4533,7 +4530,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4549,7 +4546,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4565,7 +4562,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4581,7 +4578,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4597,7 +4594,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4613,7 +4610,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4629,7 +4626,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4645,7 +4642,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4661,7 +4658,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4677,7 +4674,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4693,7 +4690,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4709,7 +4706,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4725,7 +4722,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4741,7 +4738,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4757,7 +4754,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4773,7 +4770,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4789,7 +4786,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
@@ -4805,7 +4802,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4821,7 +4818,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4837,7 +4834,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4853,7 +4850,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4869,7 +4866,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4885,7 +4882,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4901,7 +4898,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4917,7 +4914,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4933,7 +4930,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4949,7 +4946,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4965,7 +4962,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4975,13 +4972,13 @@
         <v>177</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" ref="D194:D256" si="6">"        "&amp;C194&amp;"="&amp;B194&amp;","</f>
+        <f t="shared" ref="D194:D255" si="6">"        "&amp;C194&amp;"="&amp;B194&amp;","</f>
         <v xml:space="preserve">        QUOTES=192,</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -4997,10 +4994,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B196" s="1">
-        <f t="shared" ref="B196:B258" si="7">B195+1</f>
+        <f t="shared" ref="B196:B257" si="7">B195+1</f>
         <v>194</v>
       </c>
       <c r="C196" t="s">
@@ -5013,7 +5010,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5029,7 +5026,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5045,7 +5042,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5061,7 +5058,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5077,7 +5074,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5093,7 +5090,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5109,7 +5106,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5125,7 +5122,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5141,7 +5138,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5157,7 +5154,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5173,7 +5170,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5189,7 +5186,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5205,7 +5202,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5221,7 +5218,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5237,7 +5234,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5253,7 +5250,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5269,7 +5266,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5285,7 +5282,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5301,7 +5298,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5317,7 +5314,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5333,7 +5330,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5349,7 +5346,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5381,7 +5378,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5397,7 +5394,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5413,7 +5410,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5429,7 +5426,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5440,12 +5437,12 @@
       </c>
       <c r="D223" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        ATTRIBUTE=221,</v>
+        <v xml:space="preserve">        AUTHOR=221,</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5456,12 +5453,12 @@
       </c>
       <c r="D224" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        AUTHOR=222,</v>
+        <v xml:space="preserve">        BEFORE=222,</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5472,12 +5469,12 @@
       </c>
       <c r="D225" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BEFORE=223,</v>
+        <v xml:space="preserve">        BEGINNING=223,</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5488,12 +5485,12 @@
       </c>
       <c r="D226" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BEGINNING=224,</v>
+        <v xml:space="preserve">        BINARY=224,</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5504,12 +5501,12 @@
       </c>
       <c r="D227" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BINARY=225,</v>
+        <v xml:space="preserve">        BLANK=225,</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5520,12 +5517,12 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BLANK=226,</v>
+        <v xml:space="preserve">        BLOCK=226,</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5536,12 +5533,12 @@
       </c>
       <c r="D229" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BLOCK=227,</v>
+        <v xml:space="preserve">        BOTTOM=227,</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5552,12 +5549,12 @@
       </c>
       <c r="D230" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BOTTOM=228,</v>
+        <v xml:space="preserve">        BY=228,</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5568,12 +5565,12 @@
       </c>
       <c r="D231" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        BY=229,</v>
+        <v xml:space="preserve">        CHARACTER=229,</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5584,12 +5581,12 @@
       </c>
       <c r="D232" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CHARACTER=230,</v>
+        <v xml:space="preserve">        CHARACTERS=230,</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5600,12 +5597,12 @@
       </c>
       <c r="D233" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CHARACTERS=231,</v>
+        <v xml:space="preserve">        CLASS=231,</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5616,12 +5613,12 @@
       </c>
       <c r="D234" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CLASS=232,</v>
+        <v xml:space="preserve">        CLASS_ID=232,</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5632,12 +5629,12 @@
       </c>
       <c r="D235" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CLASS_ID=233,</v>
+        <v xml:space="preserve">        COBOL=233,</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5648,12 +5645,12 @@
       </c>
       <c r="D236" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COBOL=234,</v>
+        <v xml:space="preserve">        CODE=234,</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5664,12 +5661,12 @@
       </c>
       <c r="D237" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CODE=235,</v>
+        <v xml:space="preserve">        CODE_SET=235,</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5680,12 +5677,12 @@
       </c>
       <c r="D238" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CODE_SET=236,</v>
+        <v xml:space="preserve">        COLLATING=236,</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5696,12 +5693,12 @@
       </c>
       <c r="D239" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COLLATING=237,</v>
+        <v xml:space="preserve">        COM_REG=237,</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5712,12 +5709,12 @@
       </c>
       <c r="D240" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COM_REG=238,</v>
+        <v xml:space="preserve">        COMMA=238,</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5728,12 +5725,12 @@
       </c>
       <c r="D241" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMMA=239,</v>
+        <v xml:space="preserve">        COMMON=239,</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5744,12 +5741,12 @@
       </c>
       <c r="D242" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMMON=240,</v>
+        <v xml:space="preserve">        COMP=240,</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5760,12 +5757,12 @@
       </c>
       <c r="D243" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP=241,</v>
+        <v xml:space="preserve">        COMP_1=241,</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5776,12 +5773,12 @@
       </c>
       <c r="D244" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_1=242,</v>
+        <v xml:space="preserve">        COMP_2=242,</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5792,12 +5789,12 @@
       </c>
       <c r="D245" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_2=243,</v>
+        <v xml:space="preserve">        COMP_3=243,</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5808,12 +5805,12 @@
       </c>
       <c r="D246" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_3=244,</v>
+        <v xml:space="preserve">        COMP_4=244,</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5824,12 +5821,12 @@
       </c>
       <c r="D247" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_4=245,</v>
+        <v xml:space="preserve">        COMP_5=245,</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5840,12 +5837,12 @@
       </c>
       <c r="D248" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMP_5=246,</v>
+        <v xml:space="preserve">        COMPUTATIONAL=246,</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5856,12 +5853,12 @@
       </c>
       <c r="D249" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL=247,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_1=247,</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5872,12 +5869,12 @@
       </c>
       <c r="D250" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_1=248,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_2=248,</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5888,12 +5885,12 @@
       </c>
       <c r="D251" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_2=249,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_3=249,</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5904,12 +5901,12 @@
       </c>
       <c r="D252" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_3=250,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_4=250,</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5920,12 +5917,12 @@
       </c>
       <c r="D253" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_4=251,</v>
+        <v xml:space="preserve">        COMPUTATIONAL_5=251,</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5936,12 +5933,12 @@
       </c>
       <c r="D254" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        COMPUTATIONAL_5=252,</v>
+        <v xml:space="preserve">        CONTAINS=252,</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5952,12 +5949,12 @@
       </c>
       <c r="D255" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        CONTAINS=253,</v>
+        <v xml:space="preserve">        CONTENT=253,</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5967,13 +5964,13 @@
         <v>239</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">        CONTENT=254,</v>
+        <f t="shared" ref="D256:D317" si="8">"        "&amp;C256&amp;"="&amp;B256&amp;","</f>
+        <v xml:space="preserve">        CONVERTING=254,</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5983,16 +5980,16 @@
         <v>240</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" ref="D257:D318" si="8">"        "&amp;C257&amp;"="&amp;B257&amp;","</f>
-        <v xml:space="preserve">        CONVERTING=255,</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">        CORR=255,</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B258" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B258:B320" si="9">B257+1</f>
         <v>256</v>
       </c>
       <c r="C258" t="s">
@@ -6000,15 +5997,15 @@
       </c>
       <c r="D258" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        CORR=256,</v>
+        <v xml:space="preserve">        CORRESPONDING=256,</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B259" s="1">
-        <f t="shared" ref="B259:B321" si="9">B258+1</f>
+        <f t="shared" si="9"/>
         <v>257</v>
       </c>
       <c r="C259" t="s">
@@ -6016,12 +6013,12 @@
       </c>
       <c r="D259" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        CORRESPONDING=257,</v>
+        <v xml:space="preserve">        COUNT=257,</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6032,28 +6029,28 @@
       </c>
       <c r="D260" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        COUNT=258,</v>
+        <v xml:space="preserve">        CURRENCY=258,</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
         <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        CURRENCY=259,</v>
+        <v xml:space="preserve">        DATE=259,</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6064,12 +6061,12 @@
       </c>
       <c r="D262" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DATE=260,</v>
+        <v xml:space="preserve">        DATE_COMPILED=260,</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6080,12 +6077,12 @@
       </c>
       <c r="D263" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DATE_COMPILED=261,</v>
+        <v xml:space="preserve">        DATE_WRITTEN=261,</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6096,12 +6093,12 @@
       </c>
       <c r="D264" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DATE_WRITTEN=262,</v>
+        <v xml:space="preserve">        DAY=262,</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6112,12 +6109,12 @@
       </c>
       <c r="D265" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DAY=263,</v>
+        <v xml:space="preserve">        DAY_OF_WEEK=263,</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6128,12 +6125,12 @@
       </c>
       <c r="D266" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DAY_OF_WEEK=264,</v>
+        <v xml:space="preserve">        DBCS=264,</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6144,12 +6141,12 @@
       </c>
       <c r="D267" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DBCS=265,</v>
+        <v xml:space="preserve">        DEBUGGING=265,</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6160,28 +6157,28 @@
       </c>
       <c r="D268" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DEBUGGING=266,</v>
+        <v xml:space="preserve">        DECIMAL_POINT=266,</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
         <v>267</v>
       </c>
       <c r="C269" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DECIMAL_POINT=267,</v>
+        <v xml:space="preserve">        DELIMITED=267,</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6192,12 +6189,12 @@
       </c>
       <c r="D270" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DELIMITED=268,</v>
+        <v xml:space="preserve">        DELIMITER=268,</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6208,12 +6205,12 @@
       </c>
       <c r="D271" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DELIMITER=269,</v>
+        <v xml:space="preserve">        DEPENDING=269,</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6224,12 +6221,12 @@
       </c>
       <c r="D272" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DEPENDING=270,</v>
+        <v xml:space="preserve">        DESCENDING=270,</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6240,12 +6237,12 @@
       </c>
       <c r="D273" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DESCENDING=271,</v>
+        <v xml:space="preserve">        DISPLAY_1=271,</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6256,12 +6253,12 @@
       </c>
       <c r="D274" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DISPLAY_1=272,</v>
+        <v xml:space="preserve">        DIVISION=272,</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6272,12 +6269,12 @@
       </c>
       <c r="D275" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DIVISION=273,</v>
+        <v xml:space="preserve">        DOWN=273,</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6288,12 +6285,12 @@
       </c>
       <c r="D276" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DOWN=274,</v>
+        <v xml:space="preserve">        DUPLICATES=274,</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6304,12 +6301,12 @@
       </c>
       <c r="D277" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DUPLICATES=275,</v>
+        <v xml:space="preserve">        DYNAMIC=275,</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6320,12 +6317,12 @@
       </c>
       <c r="D278" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        DYNAMIC=276,</v>
+        <v xml:space="preserve">        EGCS=276,</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6336,28 +6333,28 @@
       </c>
       <c r="D279" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EGCS=277,</v>
+        <v xml:space="preserve">        ELEMENT=277,</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="C280" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ELEMENT=278,</v>
+        <v xml:space="preserve">        END_OF_PAGE=278,</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6368,12 +6365,12 @@
       </c>
       <c r="D281" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        END_OF_PAGE=279,</v>
+        <v xml:space="preserve">        ENDING=279,</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6384,12 +6381,12 @@
       </c>
       <c r="D282" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ENDING=280,</v>
+        <v xml:space="preserve">        EOP=280,</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6400,12 +6397,12 @@
       </c>
       <c r="D283" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EOP=281,</v>
+        <v xml:space="preserve">        EQUAL=281,</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6416,12 +6413,12 @@
       </c>
       <c r="D284" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EQUAL=282,</v>
+        <v xml:space="preserve">        ERROR=282,</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6432,12 +6429,12 @@
       </c>
       <c r="D285" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ERROR=283,</v>
+        <v xml:space="preserve">        EVERY=283,</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6448,12 +6445,12 @@
       </c>
       <c r="D286" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EVERY=284,</v>
+        <v xml:space="preserve">        EXCEPTION=284,</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6464,12 +6461,12 @@
       </c>
       <c r="D287" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXCEPTION=285,</v>
+        <v xml:space="preserve">        EXTEND=285,</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6480,12 +6477,12 @@
       </c>
       <c r="D288" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXTEND=286,</v>
+        <v xml:space="preserve">        EXTERNAL=286,</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6496,12 +6493,12 @@
       </c>
       <c r="D289" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXTERNAL=287,</v>
+        <v xml:space="preserve">        FACTORY=287,</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6512,28 +6509,28 @@
       </c>
       <c r="D290" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FACTORY=288,</v>
+        <v xml:space="preserve">        FALSE=288,</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="C291" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FALSE=289,</v>
+        <v xml:space="preserve">        FILLER=289,</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6544,12 +6541,12 @@
       </c>
       <c r="D292" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FILLER=290,</v>
+        <v xml:space="preserve">        FIRST=290,</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6560,12 +6557,12 @@
       </c>
       <c r="D293" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FIRST=291,</v>
+        <v xml:space="preserve">        FOOTING=291,</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6576,12 +6573,12 @@
       </c>
       <c r="D294" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FOOTING=292,</v>
+        <v xml:space="preserve">        FOR=292,</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6592,12 +6589,12 @@
       </c>
       <c r="D295" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FOR=293,</v>
+        <v xml:space="preserve">        FROM=293,</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6608,12 +6605,12 @@
       </c>
       <c r="D296" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FROM=294,</v>
+        <v xml:space="preserve">        FUNCTION=294,</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6624,12 +6621,12 @@
       </c>
       <c r="D297" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FUNCTION=295,</v>
+        <v xml:space="preserve">        FUNCTION_POINTER=295,</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6640,12 +6637,12 @@
       </c>
       <c r="D298" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FUNCTION_POINTER=296,</v>
+        <v xml:space="preserve">        GENERATE=296,</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6656,12 +6653,12 @@
       </c>
       <c r="D299" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GENERATE=297,</v>
+        <v xml:space="preserve">        GIVING=297,</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6672,12 +6669,12 @@
       </c>
       <c r="D300" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GIVING=298,</v>
+        <v xml:space="preserve">        GLOBAL=298,</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6688,12 +6685,12 @@
       </c>
       <c r="D301" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GLOBAL=299,</v>
+        <v xml:space="preserve">        GREATER=299,</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6704,12 +6701,12 @@
       </c>
       <c r="D302" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GREATER=300,</v>
+        <v xml:space="preserve">        GROUP_USAGE=300,</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6720,12 +6717,12 @@
       </c>
       <c r="D303" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GROUP_USAGE=301,</v>
+        <v xml:space="preserve">        I_O=301,</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6736,12 +6733,12 @@
       </c>
       <c r="D304" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        I_O=302,</v>
+        <v xml:space="preserve">        IN=302,</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6752,12 +6749,12 @@
       </c>
       <c r="D305" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        IN=303,</v>
+        <v xml:space="preserve">        INDEX=303,</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6768,12 +6765,12 @@
       </c>
       <c r="D306" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INDEX=304,</v>
+        <v xml:space="preserve">        INDEXED=304,</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6784,12 +6781,12 @@
       </c>
       <c r="D307" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INDEXED=305,</v>
+        <v xml:space="preserve">        INHERITS=305,</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6800,12 +6797,12 @@
       </c>
       <c r="D308" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INHERITS=306,</v>
+        <v xml:space="preserve">        INITIAL=306,</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6816,12 +6813,12 @@
       </c>
       <c r="D309" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INITIAL=307,</v>
+        <v xml:space="preserve">        INPUT=307,</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6832,12 +6829,12 @@
       </c>
       <c r="D310" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INPUT=308,</v>
+        <v xml:space="preserve">        INSTALLATION=308,</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6848,12 +6845,12 @@
       </c>
       <c r="D311" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INSTALLATION=309,</v>
+        <v xml:space="preserve">        INTO=309,</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6864,12 +6861,12 @@
       </c>
       <c r="D312" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INTO=310,</v>
+        <v xml:space="preserve">        INVALID=310,</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6880,12 +6877,12 @@
       </c>
       <c r="D313" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INVALID=311,</v>
+        <v xml:space="preserve">        IS=311,</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6896,12 +6893,12 @@
       </c>
       <c r="D314" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        IS=312,</v>
+        <v xml:space="preserve">        JUST=312,</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6912,12 +6909,12 @@
       </c>
       <c r="D315" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        JUST=313,</v>
+        <v xml:space="preserve">        JUSTIFIED=313,</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6928,12 +6925,12 @@
       </c>
       <c r="D316" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        JUSTIFIED=314,</v>
+        <v xml:space="preserve">        KANJI=314,</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6944,12 +6941,12 @@
       </c>
       <c r="D317" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        KANJI=315,</v>
+        <v xml:space="preserve">        KEY=315,</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6959,13 +6956,13 @@
         <v>305</v>
       </c>
       <c r="D318" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">        KEY=316,</v>
+        <f t="shared" ref="D318:D378" si="10">"        "&amp;C318&amp;"="&amp;B318&amp;","</f>
+        <v xml:space="preserve">        LABEL=316,</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6975,13 +6972,13 @@
         <v>306</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" ref="D319:D379" si="10">"        "&amp;C319&amp;"="&amp;B319&amp;","</f>
-        <v xml:space="preserve">        LABEL=317,</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">        LEADING=317,</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="9"/>
@@ -6992,15 +6989,15 @@
       </c>
       <c r="D320" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LEADING=318,</v>
+        <v xml:space="preserve">        LEFT=318,</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B321" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B321:B381" si="11">B320+1</f>
         <v>319</v>
       </c>
       <c r="C321" t="s">
@@ -7008,15 +7005,15 @@
       </c>
       <c r="D321" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LEFT=319,</v>
+        <v xml:space="preserve">        LESS=319,</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B322" s="1">
-        <f t="shared" ref="B322:B382" si="11">B321+1</f>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="C322" t="s">
@@ -7024,12 +7021,12 @@
       </c>
       <c r="D322" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LESS=320,</v>
+        <v xml:space="preserve">        LINAGE=320,</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7040,12 +7037,12 @@
       </c>
       <c r="D323" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINAGE=321,</v>
+        <v xml:space="preserve">        LINE=321,</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7056,12 +7053,12 @@
       </c>
       <c r="D324" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINE=322,</v>
+        <v xml:space="preserve">        LINES=322,</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7072,12 +7069,12 @@
       </c>
       <c r="D325" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINES=323,</v>
+        <v xml:space="preserve">        LOCK=323,</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7088,12 +7085,12 @@
       </c>
       <c r="D326" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LOCK=324,</v>
+        <v xml:space="preserve">        MEMORY=324,</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7104,12 +7101,12 @@
       </c>
       <c r="D327" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MEMORY=325,</v>
+        <v xml:space="preserve">        METHOD=325,</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7120,12 +7117,12 @@
       </c>
       <c r="D328" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        METHOD=326,</v>
+        <v xml:space="preserve">        METHOD_ID=326,</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7136,12 +7133,12 @@
       </c>
       <c r="D329" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        METHOD_ID=327,</v>
+        <v xml:space="preserve">        MODE=327,</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7152,12 +7149,12 @@
       </c>
       <c r="D330" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MODE=328,</v>
+        <v xml:space="preserve">        MODULES=328,</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7168,12 +7165,12 @@
       </c>
       <c r="D331" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MODULES=329,</v>
+        <v xml:space="preserve">        MORE_LABELS=329,</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7184,12 +7181,12 @@
       </c>
       <c r="D332" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MORE_LABELS=330,</v>
+        <v xml:space="preserve">        NATIONAL=330,</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7200,12 +7197,12 @@
       </c>
       <c r="D333" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL=331,</v>
+        <v xml:space="preserve">        NATIONAL_EDITED=331,</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7216,12 +7213,12 @@
       </c>
       <c r="D334" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL_EDITED=332,</v>
+        <v xml:space="preserve">        NATIVE=332,</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7232,12 +7229,12 @@
       </c>
       <c r="D335" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIVE=333,</v>
+        <v xml:space="preserve">        NEGATIVE=333,</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7248,28 +7245,28 @@
       </c>
       <c r="D336" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEGATIVE=334,</v>
+        <v xml:space="preserve">        NEW=334,</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
         <v>335</v>
       </c>
       <c r="C337" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D337" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEW=335,</v>
+        <v xml:space="preserve">        NO=335,</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7280,12 +7277,12 @@
       </c>
       <c r="D338" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NO=336,</v>
+        <v xml:space="preserve">        NONNUMERIC=336,</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7296,12 +7293,12 @@
       </c>
       <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NONNUMERIC=337,</v>
+        <v xml:space="preserve">        NOT=337,</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7312,12 +7309,12 @@
       </c>
       <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NOT=338,</v>
+        <v xml:space="preserve">        NUMERIC=338,</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7328,12 +7325,12 @@
       </c>
       <c r="D341" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC=339,</v>
+        <v xml:space="preserve">        NUMERIC_EDITED=339,</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7344,12 +7341,12 @@
       </c>
       <c r="D342" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC_EDITED=340,</v>
+        <v xml:space="preserve">        OBJECT=340,</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7360,12 +7357,12 @@
       </c>
       <c r="D343" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OBJECT=341,</v>
+        <v xml:space="preserve">        OCCURS=341,</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7376,12 +7373,12 @@
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OCCURS=342,</v>
+        <v xml:space="preserve">        OF=342,</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7392,12 +7389,12 @@
       </c>
       <c r="D345" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OF=343,</v>
+        <v xml:space="preserve">        OFF=343,</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7408,12 +7405,12 @@
       </c>
       <c r="D346" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OFF=344,</v>
+        <v xml:space="preserve">        OMITTED=344,</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7424,12 +7421,12 @@
       </c>
       <c r="D347" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OMITTED=345,</v>
+        <v xml:space="preserve">        ON=345,</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7440,12 +7437,12 @@
       </c>
       <c r="D348" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ON=346,</v>
+        <v xml:space="preserve">        OPTIONAL=346,</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7456,12 +7453,12 @@
       </c>
       <c r="D349" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OPTIONAL=347,</v>
+        <v xml:space="preserve">        OR=347,</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7472,12 +7469,12 @@
       </c>
       <c r="D350" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OR=348,</v>
+        <v xml:space="preserve">        ORDER=348,</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7488,12 +7485,12 @@
       </c>
       <c r="D351" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORDER=349,</v>
+        <v xml:space="preserve">        ORGANIZATION=349,</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7504,12 +7501,12 @@
       </c>
       <c r="D352" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORGANIZATION=350,</v>
+        <v xml:space="preserve">        OTHER=350,</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7520,12 +7517,12 @@
       </c>
       <c r="D353" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OTHER=351,</v>
+        <v xml:space="preserve">        OUTPUT=351,</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7536,12 +7533,12 @@
       </c>
       <c r="D354" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OUTPUT=352,</v>
+        <v xml:space="preserve">        OVERFLOW=352,</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7552,12 +7549,12 @@
       </c>
       <c r="D355" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERFLOW=353,</v>
+        <v xml:space="preserve">        OVERRIDE=353,</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7568,12 +7565,12 @@
       </c>
       <c r="D356" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERRIDE=354,</v>
+        <v xml:space="preserve">        PACKED_DECIMAL=354,</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7584,12 +7581,12 @@
       </c>
       <c r="D357" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PACKED_DECIMAL=355,</v>
+        <v xml:space="preserve">        PADDING=355,</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7600,12 +7597,12 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PADDING=356,</v>
+        <v xml:space="preserve">        PAGE=356,</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7616,12 +7613,12 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PAGE=357,</v>
+        <v xml:space="preserve">        PARSE=357,</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7632,12 +7629,12 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PARSE=358,</v>
+        <v xml:space="preserve">        PASSWORD=358,</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7648,12 +7645,12 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PASSWORD=359,</v>
+        <v xml:space="preserve">        PIC=359,</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7664,12 +7661,12 @@
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PIC=360,</v>
+        <v xml:space="preserve">        PICTURE=360,</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7680,12 +7677,12 @@
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PICTURE=361,</v>
+        <v xml:space="preserve">        POINTER=361,</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7696,12 +7693,12 @@
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POINTER=362,</v>
+        <v xml:space="preserve">        POSITION=362,</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7712,28 +7709,28 @@
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITION=363,</v>
+        <v xml:space="preserve">        POSITIVE=363,</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
         <v>364</v>
       </c>
       <c r="C366" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITIVE=364,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER=364,</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7744,12 +7741,12 @@
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER=365,</v>
+        <v xml:space="preserve">        PROCEDURES=365,</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7760,12 +7757,12 @@
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURES=366,</v>
+        <v xml:space="preserve">        PROCEED=366,</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7776,12 +7773,12 @@
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEED=367,</v>
+        <v xml:space="preserve">        PROCESSING=367,</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7792,12 +7789,12 @@
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCESSING=368,</v>
+        <v xml:space="preserve">        PROGRAM=368,</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7808,12 +7805,12 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM=369,</v>
+        <v xml:space="preserve">        PROGRAM_ID=369,</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7824,12 +7821,12 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM_ID=370,</v>
+        <v xml:space="preserve">        RANDOM=370,</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7840,12 +7837,12 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RANDOM=371,</v>
+        <v xml:space="preserve">        RECORD=371,</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7856,12 +7853,12 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORD=372,</v>
+        <v xml:space="preserve">        RECORDING=372,</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7872,12 +7869,12 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDING=373,</v>
+        <v xml:space="preserve">        RECORDS=373,</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7888,12 +7885,12 @@
       </c>
       <c r="D376" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDS=374,</v>
+        <v xml:space="preserve">        RECURSIVE=374,</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7904,12 +7901,12 @@
       </c>
       <c r="D377" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECURSIVE=375,</v>
+        <v xml:space="preserve">        REDEFINES=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7920,12 +7917,12 @@
       </c>
       <c r="D378" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        REDEFINES=376,</v>
+        <v xml:space="preserve">        REEL=376,</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7935,13 +7932,13 @@
         <v>368</v>
       </c>
       <c r="D379" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">        REEL=377,</v>
+        <f t="shared" ref="D379:D442" si="12">"        "&amp;C379&amp;"="&amp;B379&amp;","</f>
+        <v xml:space="preserve">        REFERENCE=377,</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="11"/>
@@ -7951,13 +7948,13 @@
         <v>369</v>
       </c>
       <c r="D380" t="str">
-        <f t="shared" ref="D380:D443" si="12">"        "&amp;C380&amp;"="&amp;B380&amp;","</f>
-        <v xml:space="preserve">        REFERENCE=378,</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">        REFERENCES=378,</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="11"/>
@@ -7968,15 +7965,15 @@
       </c>
       <c r="D381" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REFERENCES=379,</v>
+        <v xml:space="preserve">        RELATIVE=379,</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B382" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B382:B444" si="13">B381+1</f>
         <v>380</v>
       </c>
       <c r="C382" t="s">
@@ -7984,15 +7981,15 @@
       </c>
       <c r="D382" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELATIVE=380,</v>
+        <v xml:space="preserve">        RELOAD=380,</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B383" s="1">
-        <f t="shared" ref="B383:B445" si="13">B382+1</f>
+        <f t="shared" si="13"/>
         <v>381</v>
       </c>
       <c r="C383" t="s">
@@ -8000,12 +7997,12 @@
       </c>
       <c r="D383" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELOAD=381,</v>
+        <v xml:space="preserve">        REMAINDER=381,</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="13"/>
@@ -8016,12 +8013,12 @@
       </c>
       <c r="D384" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMAINDER=382,</v>
+        <v xml:space="preserve">        REMOVAL=382,</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="13"/>
@@ -8032,12 +8029,12 @@
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMOVAL=383,</v>
+        <v xml:space="preserve">        RENAMES=383,</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
@@ -8048,12 +8045,12 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RENAMES=384,</v>
+        <v xml:space="preserve">        REPLACING=384,</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8064,12 +8061,12 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REPLACING=385,</v>
+        <v xml:space="preserve">        RESERVE=385,</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8080,12 +8077,12 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RESERVE=386,</v>
+        <v xml:space="preserve">        RETURNING=386,</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8096,12 +8093,12 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RETURNING=387,</v>
+        <v xml:space="preserve">        REVERSED=387,</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8112,12 +8109,12 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REVERSED=388,</v>
+        <v xml:space="preserve">        REWIND=388,</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8128,12 +8125,12 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REWIND=389,</v>
+        <v xml:space="preserve">        RIGHT=389,</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8144,12 +8141,12 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RIGHT=390,</v>
+        <v xml:space="preserve">        ROUNDED=390,</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8160,12 +8157,12 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        ROUNDED=391,</v>
+        <v xml:space="preserve">        RUN=391,</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8176,12 +8173,12 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RUN=392,</v>
+        <v xml:space="preserve">        SECTION=392,</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8192,12 +8189,12 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECTION=393,</v>
+        <v xml:space="preserve">        SECURITY=393,</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8208,12 +8205,12 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECURITY=394,</v>
+        <v xml:space="preserve">        SEGMENT_LIMIT=394,</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8224,12 +8221,12 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT=395,</v>
+        <v xml:space="preserve">        SENTENCE=395,</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8240,12 +8237,12 @@
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SENTENCE=396,</v>
+        <v xml:space="preserve">        SEPARATE=396,</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8256,12 +8253,12 @@
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEPARATE=397,</v>
+        <v xml:space="preserve">        SEQUENCE=397,</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8272,12 +8269,12 @@
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENCE=398,</v>
+        <v xml:space="preserve">        SEQUENTIAL=398,</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8288,12 +8285,12 @@
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENTIAL=399,</v>
+        <v xml:space="preserve">        SIGN=399,</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8304,12 +8301,12 @@
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIGN=400,</v>
+        <v xml:space="preserve">        SIZE=400,</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8320,12 +8317,12 @@
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIZE=401,</v>
+        <v xml:space="preserve">        SORT_MERGE=401,</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8336,12 +8333,12 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SORT_MERGE=402,</v>
+        <v xml:space="preserve">        SQL=402,</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8352,12 +8349,12 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQL=403,</v>
+        <v xml:space="preserve">        SQLIMS=403,</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8368,12 +8365,12 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQLIMS=404,</v>
+        <v xml:space="preserve">        STANDARD=404,</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8384,12 +8381,12 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD=405,</v>
+        <v xml:space="preserve">        STANDARD_1=405,</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8400,12 +8397,12 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_1=406,</v>
+        <v xml:space="preserve">        STANDARD_2=406,</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8416,12 +8413,12 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_2=407,</v>
+        <v xml:space="preserve">        STATUS=407,</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8432,12 +8429,12 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STATUS=408,</v>
+        <v xml:space="preserve">        SUPPRESS=408,</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8448,12 +8445,12 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SUPPRESS=409,</v>
+        <v xml:space="preserve">        SYMBOL=409,</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8464,12 +8461,12 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOL=410,</v>
+        <v xml:space="preserve">        SYMBOLIC=410,</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8480,12 +8477,12 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOLIC=411,</v>
+        <v xml:space="preserve">        SYNC=411,</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8496,12 +8493,12 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNC=412,</v>
+        <v xml:space="preserve">        SYNCHRONIZED=412,</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8512,12 +8509,12 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNCHRONIZED=413,</v>
+        <v xml:space="preserve">        TALLYING=413,</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8528,12 +8525,12 @@
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TALLYING=414,</v>
+        <v xml:space="preserve">        TAPE=414,</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8544,12 +8541,12 @@
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TAPE=415,</v>
+        <v xml:space="preserve">        TEST=415,</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8560,12 +8557,12 @@
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TEST=416,</v>
+        <v xml:space="preserve">        THAN=416,</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8576,12 +8573,12 @@
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THAN=417,</v>
+        <v xml:space="preserve">        THEN=417,</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8592,12 +8589,12 @@
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THEN=418,</v>
+        <v xml:space="preserve">        THROUGH=418,</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8608,12 +8605,12 @@
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THROUGH=419,</v>
+        <v xml:space="preserve">        THRU=419,</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8624,12 +8621,12 @@
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THRU=420,</v>
+        <v xml:space="preserve">        TIME=420,</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8640,12 +8637,12 @@
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIME=421,</v>
+        <v xml:space="preserve">        TIMES=421,</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8656,12 +8653,12 @@
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIMES=422,</v>
+        <v xml:space="preserve">        TO=422,</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8672,12 +8669,12 @@
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TO=423,</v>
+        <v xml:space="preserve">        TOP=423,</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8688,12 +8685,12 @@
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TOP=424,</v>
+        <v xml:space="preserve">        TRACE=424,</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8704,12 +8701,12 @@
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRACE=425,</v>
+        <v xml:space="preserve">        TRAILING=425,</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8720,12 +8717,12 @@
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRAILING=426,</v>
+        <v xml:space="preserve">        TRUE=426,</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8736,12 +8733,12 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRUE=427,</v>
+        <v xml:space="preserve">        TYPE=427,</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8752,12 +8749,12 @@
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TYPE=428,</v>
+        <v xml:space="preserve">        UNBOUNDED=428,</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8768,12 +8765,12 @@
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNBOUNDED=429,</v>
+        <v xml:space="preserve">        UNIT=429,</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8784,12 +8781,12 @@
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNIT=430,</v>
+        <v xml:space="preserve">        UNTIL=430,</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8800,12 +8797,12 @@
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNTIL=431,</v>
+        <v xml:space="preserve">        UP=431,</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8816,12 +8813,12 @@
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UP=432,</v>
+        <v xml:space="preserve">        UPON=432,</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8832,12 +8829,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UPON=433,</v>
+        <v xml:space="preserve">        USAGE=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8848,12 +8845,12 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USAGE=434,</v>
+        <v xml:space="preserve">        USING=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8864,12 +8861,12 @@
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USING=435,</v>
+        <v xml:space="preserve">        VALIDATING=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8880,12 +8877,12 @@
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALIDATING=436,</v>
+        <v xml:space="preserve">        VALUE=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8896,12 +8893,12 @@
       </c>
       <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=437,</v>
+        <v xml:space="preserve">        VALUES=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8912,28 +8909,28 @@
       </c>
       <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=438,</v>
+        <v xml:space="preserve">        VARYING=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
         <v>439</v>
       </c>
       <c r="C441" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D441" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=439,</v>
+        <v xml:space="preserve">        WITH=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B442" s="1">
         <f t="shared" si="13"/>
@@ -8944,12 +8941,12 @@
       </c>
       <c r="D442" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=440,</v>
+        <v xml:space="preserve">        WORDS=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B443" s="1">
         <f t="shared" si="13"/>
@@ -8959,13 +8956,13 @@
         <v>433</v>
       </c>
       <c r="D443" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=441,</v>
+        <f t="shared" ref="D443:D453" si="14">"        "&amp;C443&amp;"="&amp;B443&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B444" s="1">
         <f t="shared" si="13"/>
@@ -8975,16 +8972,16 @@
         <v>434</v>
       </c>
       <c r="D444" t="str">
-        <f t="shared" ref="D444:D454" si="14">"        "&amp;C444&amp;"="&amp;B444&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=442,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_SCHEMA=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B445" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B445:B453" si="15">B444+1</f>
         <v>443</v>
       </c>
       <c r="C445" t="s">
@@ -8992,29 +8989,26 @@
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=443,</v>
+        <v xml:space="preserve">        YYYYDDD=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B446" s="1">
-        <f t="shared" ref="B446:B454" si="15">B445+1</f>
+        <f t="shared" si="15"/>
         <v>444</v>
       </c>
       <c r="C446" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=444,</v>
+        <v xml:space="preserve">        YYYYMMDD=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>438</v>
-      </c>
       <c r="B447" s="1">
         <f t="shared" si="15"/>
         <v>445</v>
@@ -9024,7 +9018,7 @@
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=445,</v>
+        <v xml:space="preserve">        TYPEDEF=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -9037,7 +9031,7 @@
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=446,</v>
+        <v xml:space="preserve">        STRONG=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
@@ -9050,7 +9044,7 @@
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=447,</v>
+        <v xml:space="preserve">        UNSAFE=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
@@ -9059,11 +9053,11 @@
         <v>448</v>
       </c>
       <c r="C450" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=448,</v>
+        <v xml:space="preserve">        PUBLIC=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
@@ -9076,7 +9070,7 @@
       </c>
       <c r="D451" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=449,</v>
+        <v xml:space="preserve">        PRIVATE=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
@@ -9085,11 +9079,11 @@
         <v>450</v>
       </c>
       <c r="C452" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D452" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=450,</v>
+        <v xml:space="preserve">        IN_OUT=450,</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
@@ -9102,33 +9096,33 @@
       </c>
       <c r="D453" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=451,</v>
+        <v xml:space="preserve">        STRICT=451,</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B454:B457" si="16">B453+1</f>
         <v>452</v>
       </c>
       <c r="C454" t="s">
         <v>471</v>
       </c>
       <c r="D454" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=452,</v>
+        <f t="shared" ref="D454:D457" si="17">"        "&amp;C454&amp;"="&amp;B454&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=452,</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
-        <f t="shared" ref="B455:B458" si="16">B454+1</f>
+        <f t="shared" si="16"/>
         <v>453</v>
       </c>
       <c r="C455" t="s">
         <v>472</v>
       </c>
       <c r="D455" t="str">
-        <f t="shared" ref="D455:D458" si="17">"        "&amp;C455&amp;"="&amp;B455&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=453,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=453,</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
@@ -9141,7 +9135,7 @@
       </c>
       <c r="D456" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=454,</v>
+        <v xml:space="preserve">        CopyImportDirective=454,</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
@@ -9154,33 +9148,20 @@
       </c>
       <c r="D457" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=455,</v>
+        <v xml:space="preserve">        ReplaceDirective=455,</v>
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B458" si="18">B457+1</f>
         <v>456</v>
       </c>
       <c r="C458" t="s">
         <v>475</v>
       </c>
       <c r="D458" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=456,</v>
-      </c>
-    </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B459" s="1">
-        <f t="shared" ref="B459" si="18">B458+1</f>
-        <v>457</v>
-      </c>
-      <c r="C459" t="s">
-        <v>476</v>
-      </c>
-      <c r="D459" t="str">
-        <f t="shared" ref="D459" si="19">"        "&amp;C459&amp;"="&amp;B459&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=457,</v>
+        <f t="shared" ref="D458" si="19">"        "&amp;C458&amp;"="&amp;B458&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=456,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="475">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -816,9 +816,6 @@
   </si>
   <si>
     <t>EGCS</t>
-  </si>
-  <si>
-    <t>ELEMENT</t>
   </si>
   <si>
     <t>END</t>
@@ -1863,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D458"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1878,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1896,14 +1893,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1912,7 +1909,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1928,7 +1925,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1944,7 +1941,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1960,7 +1957,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1976,7 +1973,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1992,7 +1989,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -2008,7 +2005,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2024,14 +2021,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2040,7 +2037,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2056,7 +2053,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2072,7 +2069,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2088,7 +2085,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2104,7 +2101,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2120,7 +2117,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2136,7 +2133,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2152,7 +2149,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2184,7 +2181,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2200,7 +2197,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2216,7 +2213,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2264,7 +2261,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2280,7 +2277,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2296,7 +2293,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2312,7 +2309,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2341,14 +2338,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2389,7 +2386,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2450,14 +2447,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2466,14 +2463,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2482,7 +2479,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2498,14 +2495,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2514,7 +2511,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2530,7 +2527,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2546,7 +2543,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2562,7 +2559,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2578,7 +2575,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2594,7 +2591,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2610,7 +2607,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2626,7 +2623,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2642,7 +2639,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2658,7 +2655,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2674,7 +2671,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2690,7 +2687,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2706,7 +2703,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2722,7 +2719,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2738,7 +2735,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2754,14 +2751,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2770,7 +2767,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2786,7 +2783,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2802,7 +2799,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2818,7 +2815,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2834,7 +2831,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2850,7 +2847,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2866,7 +2863,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2882,7 +2879,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2898,7 +2895,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2914,7 +2911,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2946,7 +2943,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2962,7 +2959,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2978,7 +2975,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -2994,7 +2991,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -3010,7 +3007,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3026,14 +3023,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3042,7 +3039,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3058,7 +3055,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3074,7 +3071,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3090,7 +3087,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3106,14 +3103,14 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
@@ -3122,7 +3119,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3138,7 +3135,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3154,7 +3151,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3170,14 +3167,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3186,7 +3183,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3202,7 +3199,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3218,7 +3215,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3234,7 +3231,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3250,7 +3247,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3266,7 +3263,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3282,7 +3279,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3298,7 +3295,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3314,7 +3311,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3330,7 +3327,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3346,7 +3343,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3362,7 +3359,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3378,7 +3375,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3394,7 +3391,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3410,7 +3407,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3426,7 +3423,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3442,7 +3439,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3474,7 +3471,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3490,7 +3487,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3506,7 +3503,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3522,7 +3519,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3538,7 +3535,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3554,7 +3551,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3570,7 +3567,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3586,14 +3583,14 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="2"/>
@@ -3602,7 +3599,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3618,7 +3615,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3634,7 +3631,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3650,7 +3647,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3666,7 +3663,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3682,7 +3679,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3698,7 +3695,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3714,7 +3711,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3730,7 +3727,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3762,7 +3759,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3778,7 +3775,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3794,7 +3791,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3810,7 +3807,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3826,7 +3823,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3842,7 +3839,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3858,7 +3855,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3874,14 +3871,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
@@ -3890,7 +3887,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3906,7 +3903,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3922,7 +3919,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3938,14 +3935,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3954,7 +3951,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3970,7 +3967,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3986,7 +3983,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -4002,7 +3999,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4018,7 +4015,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4034,7 +4031,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4050,7 +4047,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4066,7 +4063,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4082,7 +4079,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4098,7 +4095,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4114,7 +4111,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4130,7 +4127,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4146,7 +4143,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4162,7 +4159,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4178,7 +4175,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4194,7 +4191,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4210,7 +4207,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4226,7 +4223,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4242,7 +4239,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4258,7 +4255,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4274,7 +4271,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4290,14 +4287,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4306,7 +4303,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4322,7 +4319,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4338,7 +4335,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4354,7 +4351,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4370,7 +4367,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4386,7 +4383,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4402,7 +4399,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4418,7 +4415,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4434,7 +4431,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4466,7 +4463,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4482,7 +4479,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4498,7 +4495,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4514,7 +4511,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4530,7 +4527,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4546,7 +4543,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4562,7 +4559,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4578,7 +4575,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4594,7 +4591,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4610,7 +4607,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4626,7 +4623,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4642,7 +4639,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4658,7 +4655,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4674,7 +4671,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4690,7 +4687,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4706,7 +4703,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4738,7 +4735,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4754,7 +4751,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4786,7 +4783,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4818,7 +4815,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4834,7 +4831,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4850,7 +4847,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4866,7 +4863,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4882,7 +4879,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4898,7 +4895,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4914,7 +4911,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4930,7 +4927,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4946,7 +4943,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4962,7 +4959,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4978,7 +4975,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -4994,7 +4991,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B257" si="7">B195+1</f>
@@ -5010,7 +5007,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5026,7 +5023,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5042,7 +5039,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5058,7 +5055,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5074,7 +5071,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5090,7 +5087,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5106,7 +5103,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5122,7 +5119,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5138,7 +5135,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5154,7 +5151,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5170,7 +5167,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5186,7 +5183,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5202,7 +5199,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5218,7 +5215,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5234,7 +5231,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5250,7 +5247,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5266,7 +5263,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5282,7 +5279,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5298,7 +5295,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5314,7 +5311,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5330,7 +5327,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5346,7 +5343,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5362,7 +5359,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5378,7 +5375,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5410,7 +5407,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5426,7 +5423,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5458,7 +5455,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5474,7 +5471,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5490,7 +5487,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5506,7 +5503,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5522,7 +5519,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5538,7 +5535,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5554,7 +5551,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5570,7 +5567,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5586,7 +5583,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5602,7 +5599,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5634,7 +5631,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5650,7 +5647,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5666,7 +5663,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5682,7 +5679,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5698,7 +5695,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5714,7 +5711,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5730,7 +5727,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5746,7 +5743,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5762,7 +5759,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5778,7 +5775,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5794,7 +5791,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5810,7 +5807,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5826,7 +5823,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5842,7 +5839,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5874,7 +5871,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5890,7 +5887,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5906,7 +5903,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5922,7 +5919,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5938,7 +5935,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5954,7 +5951,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5964,13 +5961,13 @@
         <v>239</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" ref="D256:D317" si="8">"        "&amp;C256&amp;"="&amp;B256&amp;","</f>
+        <f t="shared" ref="D256:D316" si="8">"        "&amp;C256&amp;"="&amp;B256&amp;","</f>
         <v xml:space="preserve">        CONVERTING=254,</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5986,10 +5983,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B258" s="1">
-        <f t="shared" ref="B258:B320" si="9">B257+1</f>
+        <f t="shared" ref="B258:B319" si="9">B257+1</f>
         <v>256</v>
       </c>
       <c r="C258" t="s">
@@ -6002,7 +5999,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="9"/>
@@ -6018,7 +6015,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6034,7 +6031,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6050,7 +6047,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6066,7 +6063,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6082,7 +6079,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6098,7 +6095,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6114,7 +6111,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6130,7 +6127,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6146,7 +6143,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6162,7 +6159,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6178,7 +6175,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6194,7 +6191,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6210,7 +6207,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6226,7 +6223,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6242,7 +6239,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6258,7 +6255,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6274,7 +6271,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6290,7 +6287,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6306,7 +6303,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6322,23 +6319,23 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
         <v>277</v>
       </c>
       <c r="C279" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ELEMENT=277,</v>
+        <v xml:space="preserve">        END_OF_PAGE=277,</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6349,12 +6346,12 @@
       </c>
       <c r="D280" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        END_OF_PAGE=278,</v>
+        <v xml:space="preserve">        ENDING=278,</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6365,12 +6362,12 @@
       </c>
       <c r="D281" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ENDING=279,</v>
+        <v xml:space="preserve">        EOP=279,</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6381,12 +6378,12 @@
       </c>
       <c r="D282" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EOP=280,</v>
+        <v xml:space="preserve">        EQUAL=280,</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6397,12 +6394,12 @@
       </c>
       <c r="D283" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EQUAL=281,</v>
+        <v xml:space="preserve">        ERROR=281,</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6413,12 +6410,12 @@
       </c>
       <c r="D284" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        ERROR=282,</v>
+        <v xml:space="preserve">        EVERY=282,</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6429,12 +6426,12 @@
       </c>
       <c r="D285" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EVERY=283,</v>
+        <v xml:space="preserve">        EXCEPTION=283,</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6445,12 +6442,12 @@
       </c>
       <c r="D286" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXCEPTION=284,</v>
+        <v xml:space="preserve">        EXTEND=284,</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6461,12 +6458,12 @@
       </c>
       <c r="D287" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXTEND=285,</v>
+        <v xml:space="preserve">        EXTERNAL=285,</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6477,12 +6474,12 @@
       </c>
       <c r="D288" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        EXTERNAL=286,</v>
+        <v xml:space="preserve">        FACTORY=286,</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6493,28 +6490,28 @@
       </c>
       <c r="D289" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FACTORY=287,</v>
+        <v xml:space="preserve">        FALSE=287,</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
         <v>288</v>
       </c>
       <c r="C290" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D290" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FALSE=288,</v>
+        <v xml:space="preserve">        FILLER=288,</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6525,12 +6522,12 @@
       </c>
       <c r="D291" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FILLER=289,</v>
+        <v xml:space="preserve">        FIRST=289,</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6541,12 +6538,12 @@
       </c>
       <c r="D292" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FIRST=290,</v>
+        <v xml:space="preserve">        FOOTING=290,</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6557,12 +6554,12 @@
       </c>
       <c r="D293" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FOOTING=291,</v>
+        <v xml:space="preserve">        FOR=291,</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6573,12 +6570,12 @@
       </c>
       <c r="D294" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FOR=292,</v>
+        <v xml:space="preserve">        FROM=292,</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6589,12 +6586,12 @@
       </c>
       <c r="D295" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FROM=293,</v>
+        <v xml:space="preserve">        FUNCTION=293,</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6605,12 +6602,12 @@
       </c>
       <c r="D296" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FUNCTION=294,</v>
+        <v xml:space="preserve">        FUNCTION_POINTER=294,</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6621,12 +6618,12 @@
       </c>
       <c r="D297" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        FUNCTION_POINTER=295,</v>
+        <v xml:space="preserve">        GENERATE=295,</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6637,12 +6634,12 @@
       </c>
       <c r="D298" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GENERATE=296,</v>
+        <v xml:space="preserve">        GIVING=296,</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6653,12 +6650,12 @@
       </c>
       <c r="D299" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GIVING=297,</v>
+        <v xml:space="preserve">        GLOBAL=297,</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6669,12 +6666,12 @@
       </c>
       <c r="D300" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GLOBAL=298,</v>
+        <v xml:space="preserve">        GREATER=298,</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6685,12 +6682,12 @@
       </c>
       <c r="D301" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GREATER=299,</v>
+        <v xml:space="preserve">        GROUP_USAGE=299,</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6701,12 +6698,12 @@
       </c>
       <c r="D302" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        GROUP_USAGE=300,</v>
+        <v xml:space="preserve">        I_O=300,</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6717,12 +6714,12 @@
       </c>
       <c r="D303" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        I_O=301,</v>
+        <v xml:space="preserve">        IN=301,</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6733,12 +6730,12 @@
       </c>
       <c r="D304" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        IN=302,</v>
+        <v xml:space="preserve">        INDEX=302,</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6749,12 +6746,12 @@
       </c>
       <c r="D305" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INDEX=303,</v>
+        <v xml:space="preserve">        INDEXED=303,</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6765,12 +6762,12 @@
       </c>
       <c r="D306" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INDEXED=304,</v>
+        <v xml:space="preserve">        INHERITS=304,</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6781,12 +6778,12 @@
       </c>
       <c r="D307" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INHERITS=305,</v>
+        <v xml:space="preserve">        INITIAL=305,</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6797,12 +6794,12 @@
       </c>
       <c r="D308" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INITIAL=306,</v>
+        <v xml:space="preserve">        INPUT=306,</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6813,12 +6810,12 @@
       </c>
       <c r="D309" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INPUT=307,</v>
+        <v xml:space="preserve">        INSTALLATION=307,</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6829,12 +6826,12 @@
       </c>
       <c r="D310" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INSTALLATION=308,</v>
+        <v xml:space="preserve">        INTO=308,</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6845,12 +6842,12 @@
       </c>
       <c r="D311" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INTO=309,</v>
+        <v xml:space="preserve">        INVALID=309,</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6861,12 +6858,12 @@
       </c>
       <c r="D312" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        INVALID=310,</v>
+        <v xml:space="preserve">        IS=310,</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6877,12 +6874,12 @@
       </c>
       <c r="D313" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        IS=311,</v>
+        <v xml:space="preserve">        JUST=311,</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6893,12 +6890,12 @@
       </c>
       <c r="D314" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        JUST=312,</v>
+        <v xml:space="preserve">        JUSTIFIED=312,</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6909,12 +6906,12 @@
       </c>
       <c r="D315" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        JUSTIFIED=313,</v>
+        <v xml:space="preserve">        KANJI=313,</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6925,12 +6922,12 @@
       </c>
       <c r="D316" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">        KANJI=314,</v>
+        <v xml:space="preserve">        KEY=314,</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6940,13 +6937,13 @@
         <v>304</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">        KEY=315,</v>
+        <f t="shared" ref="D317:D377" si="10">"        "&amp;C317&amp;"="&amp;B317&amp;","</f>
+        <v xml:space="preserve">        LABEL=315,</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6956,13 +6953,13 @@
         <v>305</v>
       </c>
       <c r="D318" t="str">
-        <f t="shared" ref="D318:D378" si="10">"        "&amp;C318&amp;"="&amp;B318&amp;","</f>
-        <v xml:space="preserve">        LABEL=316,</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">        LEADING=316,</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6973,15 +6970,15 @@
       </c>
       <c r="D319" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LEADING=317,</v>
+        <v xml:space="preserve">        LEFT=317,</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B320" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B320:B380" si="11">B319+1</f>
         <v>318</v>
       </c>
       <c r="C320" t="s">
@@ -6989,15 +6986,15 @@
       </c>
       <c r="D320" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LEFT=318,</v>
+        <v xml:space="preserve">        LESS=318,</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B321" s="1">
-        <f t="shared" ref="B321:B381" si="11">B320+1</f>
+        <f t="shared" si="11"/>
         <v>319</v>
       </c>
       <c r="C321" t="s">
@@ -7005,12 +7002,12 @@
       </c>
       <c r="D321" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LESS=319,</v>
+        <v xml:space="preserve">        LINAGE=319,</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="11"/>
@@ -7021,12 +7018,12 @@
       </c>
       <c r="D322" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINAGE=320,</v>
+        <v xml:space="preserve">        LINE=320,</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7037,12 +7034,12 @@
       </c>
       <c r="D323" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINE=321,</v>
+        <v xml:space="preserve">        LINES=321,</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7053,12 +7050,12 @@
       </c>
       <c r="D324" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LINES=322,</v>
+        <v xml:space="preserve">        LOCK=322,</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7069,12 +7066,12 @@
       </c>
       <c r="D325" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        LOCK=323,</v>
+        <v xml:space="preserve">        MEMORY=323,</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7085,12 +7082,12 @@
       </c>
       <c r="D326" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MEMORY=324,</v>
+        <v xml:space="preserve">        METHOD=324,</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7101,12 +7098,12 @@
       </c>
       <c r="D327" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        METHOD=325,</v>
+        <v xml:space="preserve">        METHOD_ID=325,</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7117,12 +7114,12 @@
       </c>
       <c r="D328" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        METHOD_ID=326,</v>
+        <v xml:space="preserve">        MODE=326,</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7133,12 +7130,12 @@
       </c>
       <c r="D329" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MODE=327,</v>
+        <v xml:space="preserve">        MODULES=327,</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7149,12 +7146,12 @@
       </c>
       <c r="D330" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MODULES=328,</v>
+        <v xml:space="preserve">        MORE_LABELS=328,</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7165,12 +7162,12 @@
       </c>
       <c r="D331" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        MORE_LABELS=329,</v>
+        <v xml:space="preserve">        NATIONAL=329,</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7181,12 +7178,12 @@
       </c>
       <c r="D332" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL=330,</v>
+        <v xml:space="preserve">        NATIONAL_EDITED=330,</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7197,12 +7194,12 @@
       </c>
       <c r="D333" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIONAL_EDITED=331,</v>
+        <v xml:space="preserve">        NATIVE=331,</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7213,12 +7210,12 @@
       </c>
       <c r="D334" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NATIVE=332,</v>
+        <v xml:space="preserve">        NEGATIVE=332,</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7229,28 +7226,28 @@
       </c>
       <c r="D335" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEGATIVE=333,</v>
+        <v xml:space="preserve">        NEW=333,</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
         <v>334</v>
       </c>
       <c r="C336" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D336" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NEW=334,</v>
+        <v xml:space="preserve">        NO=334,</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7261,12 +7258,12 @@
       </c>
       <c r="D337" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NO=335,</v>
+        <v xml:space="preserve">        NONNUMERIC=335,</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7277,12 +7274,12 @@
       </c>
       <c r="D338" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NONNUMERIC=336,</v>
+        <v xml:space="preserve">        NOT=336,</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7293,12 +7290,12 @@
       </c>
       <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NOT=337,</v>
+        <v xml:space="preserve">        NUMERIC=337,</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7309,12 +7306,12 @@
       </c>
       <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC=338,</v>
+        <v xml:space="preserve">        NUMERIC_EDITED=338,</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7325,12 +7322,12 @@
       </c>
       <c r="D341" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC_EDITED=339,</v>
+        <v xml:space="preserve">        OBJECT=339,</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7341,12 +7338,12 @@
       </c>
       <c r="D342" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OBJECT=340,</v>
+        <v xml:space="preserve">        OCCURS=340,</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7357,12 +7354,12 @@
       </c>
       <c r="D343" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OCCURS=341,</v>
+        <v xml:space="preserve">        OF=341,</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7373,12 +7370,12 @@
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OF=342,</v>
+        <v xml:space="preserve">        OFF=342,</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7389,12 +7386,12 @@
       </c>
       <c r="D345" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OFF=343,</v>
+        <v xml:space="preserve">        OMITTED=343,</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7405,12 +7402,12 @@
       </c>
       <c r="D346" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OMITTED=344,</v>
+        <v xml:space="preserve">        ON=344,</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7421,12 +7418,12 @@
       </c>
       <c r="D347" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ON=345,</v>
+        <v xml:space="preserve">        OPTIONAL=345,</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7437,12 +7434,12 @@
       </c>
       <c r="D348" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OPTIONAL=346,</v>
+        <v xml:space="preserve">        OR=346,</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7453,12 +7450,12 @@
       </c>
       <c r="D349" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OR=347,</v>
+        <v xml:space="preserve">        ORDER=347,</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7469,12 +7466,12 @@
       </c>
       <c r="D350" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORDER=348,</v>
+        <v xml:space="preserve">        ORGANIZATION=348,</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7485,12 +7482,12 @@
       </c>
       <c r="D351" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORGANIZATION=349,</v>
+        <v xml:space="preserve">        OTHER=349,</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7501,12 +7498,12 @@
       </c>
       <c r="D352" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OTHER=350,</v>
+        <v xml:space="preserve">        OUTPUT=350,</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7517,12 +7514,12 @@
       </c>
       <c r="D353" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OUTPUT=351,</v>
+        <v xml:space="preserve">        OVERFLOW=351,</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7533,12 +7530,12 @@
       </c>
       <c r="D354" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERFLOW=352,</v>
+        <v xml:space="preserve">        OVERRIDE=352,</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7549,12 +7546,12 @@
       </c>
       <c r="D355" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERRIDE=353,</v>
+        <v xml:space="preserve">        PACKED_DECIMAL=353,</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7565,12 +7562,12 @@
       </c>
       <c r="D356" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PACKED_DECIMAL=354,</v>
+        <v xml:space="preserve">        PADDING=354,</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7581,12 +7578,12 @@
       </c>
       <c r="D357" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PADDING=355,</v>
+        <v xml:space="preserve">        PAGE=355,</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7597,12 +7594,12 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PAGE=356,</v>
+        <v xml:space="preserve">        PARSE=356,</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7613,12 +7610,12 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PARSE=357,</v>
+        <v xml:space="preserve">        PASSWORD=357,</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7629,12 +7626,12 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PASSWORD=358,</v>
+        <v xml:space="preserve">        PIC=358,</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7645,12 +7642,12 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PIC=359,</v>
+        <v xml:space="preserve">        PICTURE=359,</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7661,12 +7658,12 @@
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PICTURE=360,</v>
+        <v xml:space="preserve">        POINTER=360,</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7677,12 +7674,12 @@
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POINTER=361,</v>
+        <v xml:space="preserve">        POSITION=361,</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7693,28 +7690,28 @@
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITION=362,</v>
+        <v xml:space="preserve">        POSITIVE=362,</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
         <v>363</v>
       </c>
       <c r="C365" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITIVE=363,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER=363,</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7725,12 +7722,12 @@
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER=364,</v>
+        <v xml:space="preserve">        PROCEDURES=364,</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7741,12 +7738,12 @@
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURES=365,</v>
+        <v xml:space="preserve">        PROCEED=365,</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7757,12 +7754,12 @@
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEED=366,</v>
+        <v xml:space="preserve">        PROCESSING=366,</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7773,12 +7770,12 @@
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCESSING=367,</v>
+        <v xml:space="preserve">        PROGRAM=367,</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7789,12 +7786,12 @@
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM=368,</v>
+        <v xml:space="preserve">        PROGRAM_ID=368,</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7805,12 +7802,12 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM_ID=369,</v>
+        <v xml:space="preserve">        RANDOM=369,</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7821,12 +7818,12 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RANDOM=370,</v>
+        <v xml:space="preserve">        RECORD=370,</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7837,12 +7834,12 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORD=371,</v>
+        <v xml:space="preserve">        RECORDING=371,</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7853,12 +7850,12 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDING=372,</v>
+        <v xml:space="preserve">        RECORDS=372,</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7869,12 +7866,12 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDS=373,</v>
+        <v xml:space="preserve">        RECURSIVE=373,</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7885,12 +7882,12 @@
       </c>
       <c r="D376" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECURSIVE=374,</v>
+        <v xml:space="preserve">        REDEFINES=374,</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7901,12 +7898,12 @@
       </c>
       <c r="D377" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        REDEFINES=375,</v>
+        <v xml:space="preserve">        REEL=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7916,13 +7913,13 @@
         <v>367</v>
       </c>
       <c r="D378" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">        REEL=376,</v>
+        <f t="shared" ref="D378:D441" si="12">"        "&amp;C378&amp;"="&amp;B378&amp;","</f>
+        <v xml:space="preserve">        REFERENCE=376,</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7932,13 +7929,13 @@
         <v>368</v>
       </c>
       <c r="D379" t="str">
-        <f t="shared" ref="D379:D442" si="12">"        "&amp;C379&amp;"="&amp;B379&amp;","</f>
-        <v xml:space="preserve">        REFERENCE=377,</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">        REFERENCES=377,</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="11"/>
@@ -7949,15 +7946,15 @@
       </c>
       <c r="D380" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REFERENCES=378,</v>
+        <v xml:space="preserve">        RELATIVE=378,</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B381" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B381:B443" si="13">B380+1</f>
         <v>379</v>
       </c>
       <c r="C381" t="s">
@@ -7965,15 +7962,15 @@
       </c>
       <c r="D381" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELATIVE=379,</v>
+        <v xml:space="preserve">        RELOAD=379,</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B382" s="1">
-        <f t="shared" ref="B382:B444" si="13">B381+1</f>
+        <f t="shared" si="13"/>
         <v>380</v>
       </c>
       <c r="C382" t="s">
@@ -7981,12 +7978,12 @@
       </c>
       <c r="D382" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELOAD=380,</v>
+        <v xml:space="preserve">        REMAINDER=380,</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="13"/>
@@ -7997,12 +7994,12 @@
       </c>
       <c r="D383" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMAINDER=381,</v>
+        <v xml:space="preserve">        REMOVAL=381,</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="13"/>
@@ -8013,12 +8010,12 @@
       </c>
       <c r="D384" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMOVAL=382,</v>
+        <v xml:space="preserve">        RENAMES=382,</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="13"/>
@@ -8029,12 +8026,12 @@
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RENAMES=383,</v>
+        <v xml:space="preserve">        REPLACING=383,</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
@@ -8045,12 +8042,12 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REPLACING=384,</v>
+        <v xml:space="preserve">        RESERVE=384,</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8061,12 +8058,12 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RESERVE=385,</v>
+        <v xml:space="preserve">        RETURNING=385,</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8077,12 +8074,12 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RETURNING=386,</v>
+        <v xml:space="preserve">        REVERSED=386,</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8093,12 +8090,12 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REVERSED=387,</v>
+        <v xml:space="preserve">        REWIND=387,</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8109,12 +8106,12 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REWIND=388,</v>
+        <v xml:space="preserve">        RIGHT=388,</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8125,12 +8122,12 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RIGHT=389,</v>
+        <v xml:space="preserve">        ROUNDED=389,</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8141,12 +8138,12 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        ROUNDED=390,</v>
+        <v xml:space="preserve">        RUN=390,</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8157,12 +8154,12 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RUN=391,</v>
+        <v xml:space="preserve">        SECTION=391,</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8173,12 +8170,12 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECTION=392,</v>
+        <v xml:space="preserve">        SECURITY=392,</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8189,12 +8186,12 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECURITY=393,</v>
+        <v xml:space="preserve">        SEGMENT_LIMIT=393,</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8205,12 +8202,12 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT=394,</v>
+        <v xml:space="preserve">        SENTENCE=394,</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8221,12 +8218,12 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SENTENCE=395,</v>
+        <v xml:space="preserve">        SEPARATE=395,</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8237,12 +8234,12 @@
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEPARATE=396,</v>
+        <v xml:space="preserve">        SEQUENCE=396,</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8253,12 +8250,12 @@
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENCE=397,</v>
+        <v xml:space="preserve">        SEQUENTIAL=397,</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8269,12 +8266,12 @@
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENTIAL=398,</v>
+        <v xml:space="preserve">        SIGN=398,</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8285,12 +8282,12 @@
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIGN=399,</v>
+        <v xml:space="preserve">        SIZE=399,</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8301,12 +8298,12 @@
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIZE=400,</v>
+        <v xml:space="preserve">        SORT_MERGE=400,</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8317,12 +8314,12 @@
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SORT_MERGE=401,</v>
+        <v xml:space="preserve">        SQL=401,</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8333,12 +8330,12 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQL=402,</v>
+        <v xml:space="preserve">        SQLIMS=402,</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8349,12 +8346,12 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQLIMS=403,</v>
+        <v xml:space="preserve">        STANDARD=403,</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8365,12 +8362,12 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD=404,</v>
+        <v xml:space="preserve">        STANDARD_1=404,</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8381,12 +8378,12 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_1=405,</v>
+        <v xml:space="preserve">        STANDARD_2=405,</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8397,12 +8394,12 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_2=406,</v>
+        <v xml:space="preserve">        STATUS=406,</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8413,12 +8410,12 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STATUS=407,</v>
+        <v xml:space="preserve">        SUPPRESS=407,</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8429,12 +8426,12 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SUPPRESS=408,</v>
+        <v xml:space="preserve">        SYMBOL=408,</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8445,12 +8442,12 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOL=409,</v>
+        <v xml:space="preserve">        SYMBOLIC=409,</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8461,12 +8458,12 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOLIC=410,</v>
+        <v xml:space="preserve">        SYNC=410,</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8477,12 +8474,12 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNC=411,</v>
+        <v xml:space="preserve">        SYNCHRONIZED=411,</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8493,12 +8490,12 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNCHRONIZED=412,</v>
+        <v xml:space="preserve">        TALLYING=412,</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8509,12 +8506,12 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TALLYING=413,</v>
+        <v xml:space="preserve">        TAPE=413,</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8525,12 +8522,12 @@
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TAPE=414,</v>
+        <v xml:space="preserve">        TEST=414,</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8541,12 +8538,12 @@
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TEST=415,</v>
+        <v xml:space="preserve">        THAN=415,</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8557,12 +8554,12 @@
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THAN=416,</v>
+        <v xml:space="preserve">        THEN=416,</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8573,12 +8570,12 @@
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THEN=417,</v>
+        <v xml:space="preserve">        THROUGH=417,</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8589,12 +8586,12 @@
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THROUGH=418,</v>
+        <v xml:space="preserve">        THRU=418,</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8605,12 +8602,12 @@
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THRU=419,</v>
+        <v xml:space="preserve">        TIME=419,</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8621,12 +8618,12 @@
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIME=420,</v>
+        <v xml:space="preserve">        TIMES=420,</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8637,12 +8634,12 @@
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIMES=421,</v>
+        <v xml:space="preserve">        TO=421,</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8653,12 +8650,12 @@
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TO=422,</v>
+        <v xml:space="preserve">        TOP=422,</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8669,12 +8666,12 @@
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TOP=423,</v>
+        <v xml:space="preserve">        TRACE=423,</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8685,12 +8682,12 @@
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRACE=424,</v>
+        <v xml:space="preserve">        TRAILING=424,</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8701,12 +8698,12 @@
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRAILING=425,</v>
+        <v xml:space="preserve">        TRUE=425,</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8717,12 +8714,12 @@
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRUE=426,</v>
+        <v xml:space="preserve">        TYPE=426,</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8733,12 +8730,12 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TYPE=427,</v>
+        <v xml:space="preserve">        UNBOUNDED=427,</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8749,12 +8746,12 @@
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNBOUNDED=428,</v>
+        <v xml:space="preserve">        UNIT=428,</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8765,12 +8762,12 @@
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNIT=429,</v>
+        <v xml:space="preserve">        UNTIL=429,</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8781,12 +8778,12 @@
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNTIL=430,</v>
+        <v xml:space="preserve">        UP=430,</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8797,12 +8794,12 @@
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UP=431,</v>
+        <v xml:space="preserve">        UPON=431,</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8813,12 +8810,12 @@
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UPON=432,</v>
+        <v xml:space="preserve">        USAGE=432,</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8829,12 +8826,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USAGE=433,</v>
+        <v xml:space="preserve">        USING=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8845,12 +8842,12 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USING=434,</v>
+        <v xml:space="preserve">        VALIDATING=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8861,12 +8858,12 @@
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALIDATING=435,</v>
+        <v xml:space="preserve">        VALUE=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8877,12 +8874,12 @@
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=436,</v>
+        <v xml:space="preserve">        VALUES=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8893,28 +8890,28 @@
       </c>
       <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=437,</v>
+        <v xml:space="preserve">        VARYING=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
         <v>438</v>
       </c>
       <c r="C440" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=438,</v>
+        <v xml:space="preserve">        WITH=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
@@ -8925,12 +8922,12 @@
       </c>
       <c r="D441" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=439,</v>
+        <v xml:space="preserve">        WORDS=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B442" s="1">
         <f t="shared" si="13"/>
@@ -8940,13 +8937,13 @@
         <v>432</v>
       </c>
       <c r="D442" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=440,</v>
+        <f t="shared" ref="D442:D452" si="14">"        "&amp;C442&amp;"="&amp;B442&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B443" s="1">
         <f t="shared" si="13"/>
@@ -8956,16 +8953,16 @@
         <v>433</v>
       </c>
       <c r="D443" t="str">
-        <f t="shared" ref="D443:D453" si="14">"        "&amp;C443&amp;"="&amp;B443&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=441,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_SCHEMA=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B444" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B444:B452" si="15">B443+1</f>
         <v>442</v>
       </c>
       <c r="C444" t="s">
@@ -8973,29 +8970,26 @@
       </c>
       <c r="D444" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=442,</v>
+        <v xml:space="preserve">        YYYYDDD=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B445" s="1">
-        <f t="shared" ref="B445:B453" si="15">B444+1</f>
+        <f t="shared" si="15"/>
         <v>443</v>
       </c>
       <c r="C445" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=443,</v>
+        <v xml:space="preserve">        YYYYMMDD=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>437</v>
-      </c>
       <c r="B446" s="1">
         <f t="shared" si="15"/>
         <v>444</v>
@@ -9005,7 +8999,7 @@
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=444,</v>
+        <v xml:space="preserve">        TYPEDEF=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -9018,7 +9012,7 @@
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=445,</v>
+        <v xml:space="preserve">        STRONG=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -9031,7 +9025,7 @@
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=446,</v>
+        <v xml:space="preserve">        UNSAFE=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
@@ -9040,11 +9034,11 @@
         <v>447</v>
       </c>
       <c r="C449" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=447,</v>
+        <v xml:space="preserve">        PUBLIC=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
@@ -9057,7 +9051,7 @@
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=448,</v>
+        <v xml:space="preserve">        PRIVATE=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
@@ -9066,11 +9060,11 @@
         <v>449</v>
       </c>
       <c r="C451" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D451" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=449,</v>
+        <v xml:space="preserve">        IN_OUT=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
@@ -9083,33 +9077,33 @@
       </c>
       <c r="D452" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=450,</v>
+        <v xml:space="preserve">        STRICT=450,</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B453:B456" si="16">B452+1</f>
         <v>451</v>
       </c>
       <c r="C453" t="s">
         <v>470</v>
       </c>
       <c r="D453" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=451,</v>
+        <f t="shared" ref="D453:D456" si="17">"        "&amp;C453&amp;"="&amp;B453&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=451,</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
-        <f t="shared" ref="B454:B457" si="16">B453+1</f>
+        <f t="shared" si="16"/>
         <v>452</v>
       </c>
       <c r="C454" t="s">
         <v>471</v>
       </c>
       <c r="D454" t="str">
-        <f t="shared" ref="D454:D457" si="17">"        "&amp;C454&amp;"="&amp;B454&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=452,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=452,</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
@@ -9122,7 +9116,7 @@
       </c>
       <c r="D455" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=453,</v>
+        <v xml:space="preserve">        CopyImportDirective=453,</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
@@ -9135,33 +9129,20 @@
       </c>
       <c r="D456" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=454,</v>
+        <v xml:space="preserve">        ReplaceDirective=454,</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B457" si="18">B456+1</f>
         <v>455</v>
       </c>
       <c r="C457" t="s">
         <v>474</v>
       </c>
       <c r="D457" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=455,</v>
-      </c>
-    </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B458" s="1">
-        <f t="shared" ref="B458" si="18">B457+1</f>
-        <v>456</v>
-      </c>
-      <c r="C458" t="s">
-        <v>475</v>
-      </c>
-      <c r="D458" t="str">
-        <f t="shared" ref="D458" si="19">"        "&amp;C458&amp;"="&amp;B458&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=456,</v>
+        <f t="shared" ref="D457" si="19">"        "&amp;C457&amp;"="&amp;B457&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=455,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="474">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1062,9 +1062,6 @@
   </si>
   <si>
     <t>PAGE</t>
-  </si>
-  <si>
-    <t>PARSE</t>
   </si>
   <si>
     <t>PASSWORD</t>
@@ -1860,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="E358" sqref="E358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1875,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1893,14 +1890,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1909,7 +1906,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1941,7 +1938,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1957,7 +1954,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2021,14 +2018,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2037,7 +2034,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2053,7 +2050,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2069,7 +2066,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2085,7 +2082,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2101,7 +2098,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2117,7 +2114,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2149,7 +2146,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2165,7 +2162,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2213,7 +2210,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2229,7 +2226,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2277,7 +2274,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2293,7 +2290,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2338,14 +2335,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2354,7 +2351,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2370,7 +2367,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2386,7 +2383,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2402,7 +2399,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2418,7 +2415,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2447,14 +2444,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2463,14 +2460,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2479,7 +2476,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2495,14 +2492,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2511,7 +2508,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2527,7 +2524,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2543,7 +2540,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2559,7 +2556,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2575,7 +2572,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2591,7 +2588,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2607,7 +2604,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2639,7 +2636,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2671,7 +2668,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2687,7 +2684,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2703,7 +2700,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2719,7 +2716,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2751,14 +2748,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2767,7 +2764,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2783,7 +2780,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2799,7 +2796,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2815,7 +2812,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2831,7 +2828,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2863,7 +2860,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2879,7 +2876,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2895,7 +2892,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2911,7 +2908,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2927,7 +2924,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2943,7 +2940,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2975,7 +2972,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -2991,7 +2988,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -3007,7 +3004,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3023,14 +3020,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3039,7 +3036,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3055,7 +3052,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3071,7 +3068,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3087,7 +3084,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3103,7 +3100,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -3119,7 +3116,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3135,7 +3132,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3151,7 +3148,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3167,14 +3164,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3183,7 +3180,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3199,7 +3196,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3215,7 +3212,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3231,7 +3228,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3247,7 +3244,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3263,7 +3260,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3279,7 +3276,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3295,7 +3292,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3311,7 +3308,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3343,7 +3340,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3359,7 +3356,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3407,7 +3404,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3423,7 +3420,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3439,7 +3436,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3455,7 +3452,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3487,7 +3484,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3519,7 +3516,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3535,7 +3532,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3551,7 +3548,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3567,7 +3564,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3583,7 +3580,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -3599,7 +3596,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3615,7 +3612,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3631,7 +3628,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3647,7 +3644,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3663,7 +3660,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3679,7 +3676,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3711,7 +3708,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3727,7 +3724,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3743,7 +3740,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3759,7 +3756,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3775,7 +3772,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3791,7 +3788,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3807,7 +3804,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3823,7 +3820,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3839,7 +3836,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3855,7 +3852,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
@@ -3887,7 +3884,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3919,7 +3916,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3935,14 +3932,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3951,7 +3948,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3967,7 +3964,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3983,7 +3980,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -3999,7 +3996,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4031,7 +4028,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4047,7 +4044,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4079,7 +4076,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4143,7 +4140,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4159,7 +4156,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4191,7 +4188,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4207,7 +4204,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4223,7 +4220,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4239,7 +4236,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4255,7 +4252,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4287,14 +4284,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4303,7 +4300,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4319,7 +4316,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4335,7 +4332,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4351,7 +4348,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4383,7 +4380,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4399,7 +4396,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4415,7 +4412,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4431,7 +4428,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4447,7 +4444,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4463,7 +4460,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4479,7 +4476,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4543,7 +4540,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4559,7 +4556,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4575,7 +4572,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4591,7 +4588,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4607,7 +4604,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4623,7 +4620,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4639,7 +4636,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4671,7 +4668,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4687,7 +4684,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4703,7 +4700,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4719,7 +4716,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4735,7 +4732,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4751,7 +4748,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4767,7 +4764,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4783,7 +4780,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
@@ -4799,7 +4796,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4831,7 +4828,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4847,7 +4844,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4863,7 +4860,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4879,7 +4876,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4911,7 +4908,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4927,7 +4924,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4943,7 +4940,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4975,7 +4972,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -4991,7 +4988,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B257" si="7">B195+1</f>
@@ -5007,7 +5004,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5039,7 +5036,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5055,7 +5052,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5071,7 +5068,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5087,7 +5084,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5103,7 +5100,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5119,7 +5116,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5135,7 +5132,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5151,7 +5148,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5167,7 +5164,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5183,7 +5180,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5199,7 +5196,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5215,7 +5212,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5231,7 +5228,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5247,7 +5244,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5263,7 +5260,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5279,7 +5276,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5295,7 +5292,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5311,7 +5308,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5343,7 +5340,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5359,7 +5356,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5407,7 +5404,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5423,7 +5420,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5439,7 +5436,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5455,7 +5452,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5471,7 +5468,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5487,7 +5484,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5503,7 +5500,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5519,7 +5516,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5535,7 +5532,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5551,7 +5548,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5567,7 +5564,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5583,7 +5580,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5599,7 +5596,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5615,7 +5612,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5631,7 +5628,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5647,7 +5644,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5663,7 +5660,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5679,7 +5676,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5695,7 +5692,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5711,7 +5708,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5727,7 +5724,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5743,7 +5740,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5759,7 +5756,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5775,7 +5772,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5791,7 +5788,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5807,7 +5804,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5823,7 +5820,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5839,7 +5836,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5855,7 +5852,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5871,7 +5868,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5887,7 +5884,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5903,7 +5900,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5919,7 +5916,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5935,7 +5932,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5951,7 +5948,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5967,7 +5964,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5983,7 +5980,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" ref="B258:B319" si="9">B257+1</f>
@@ -5999,7 +5996,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="9"/>
@@ -6015,7 +6012,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6031,7 +6028,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6047,7 +6044,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6063,7 +6060,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6079,7 +6076,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6095,7 +6092,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6111,7 +6108,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6143,7 +6140,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6159,7 +6156,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6175,7 +6172,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6191,7 +6188,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6207,7 +6204,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6223,7 +6220,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6239,7 +6236,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6255,7 +6252,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6271,7 +6268,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6287,7 +6284,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6303,7 +6300,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6319,7 +6316,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6335,7 +6332,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6351,7 +6348,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6367,7 +6364,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6383,7 +6380,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6399,7 +6396,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6415,7 +6412,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6431,7 +6428,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6447,7 +6444,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6463,7 +6460,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6479,7 +6476,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6495,7 +6492,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6511,7 +6508,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6527,7 +6524,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6543,7 +6540,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6559,7 +6556,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6575,7 +6572,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6591,7 +6588,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6607,7 +6604,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6623,7 +6620,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6639,7 +6636,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6655,7 +6652,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6671,7 +6668,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6687,7 +6684,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6703,7 +6700,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6719,7 +6716,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6735,7 +6732,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6751,7 +6748,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6767,7 +6764,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6783,7 +6780,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6799,7 +6796,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6815,7 +6812,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6831,7 +6828,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6847,7 +6844,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6863,7 +6860,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6879,7 +6876,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6895,7 +6892,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6911,7 +6908,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6927,7 +6924,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6937,13 +6934,13 @@
         <v>304</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" ref="D317:D377" si="10">"        "&amp;C317&amp;"="&amp;B317&amp;","</f>
+        <f t="shared" ref="D317:D376" si="10">"        "&amp;C317&amp;"="&amp;B317&amp;","</f>
         <v xml:space="preserve">        LABEL=315,</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6959,7 +6956,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6975,10 +6972,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B320" s="1">
-        <f t="shared" ref="B320:B380" si="11">B319+1</f>
+        <f t="shared" ref="B320:B379" si="11">B319+1</f>
         <v>318</v>
       </c>
       <c r="C320" t="s">
@@ -6991,7 +6988,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="11"/>
@@ -7007,7 +7004,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="11"/>
@@ -7023,7 +7020,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7039,7 +7036,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7055,7 +7052,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7071,7 +7068,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7103,7 +7100,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7119,7 +7116,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7135,7 +7132,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7151,7 +7148,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7167,7 +7164,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7183,7 +7180,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7199,7 +7196,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7215,7 +7212,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7231,7 +7228,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7247,7 +7244,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7263,7 +7260,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7279,7 +7276,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7295,7 +7292,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7311,7 +7308,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7327,7 +7324,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7343,7 +7340,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7359,7 +7356,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7375,7 +7372,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7391,7 +7388,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7407,7 +7404,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7423,7 +7420,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7439,7 +7436,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7455,7 +7452,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7471,7 +7468,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7487,7 +7484,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7503,7 +7500,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7519,7 +7516,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7535,7 +7532,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7551,7 +7548,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7567,7 +7564,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7583,7 +7580,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7594,12 +7591,12 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PARSE=356,</v>
+        <v xml:space="preserve">        PASSWORD=356,</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7610,12 +7607,12 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PASSWORD=357,</v>
+        <v xml:space="preserve">        PIC=357,</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7626,12 +7623,12 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PIC=358,</v>
+        <v xml:space="preserve">        PICTURE=358,</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7642,12 +7639,12 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PICTURE=359,</v>
+        <v xml:space="preserve">        POINTER=359,</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7658,12 +7655,12 @@
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POINTER=360,</v>
+        <v xml:space="preserve">        POSITION=360,</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7674,28 +7671,28 @@
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITION=361,</v>
+        <v xml:space="preserve">        POSITIVE=361,</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
         <v>362</v>
       </c>
       <c r="C364" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITIVE=362,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER=362,</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7706,12 +7703,12 @@
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER=363,</v>
+        <v xml:space="preserve">        PROCEDURES=363,</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7722,12 +7719,12 @@
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURES=364,</v>
+        <v xml:space="preserve">        PROCEED=364,</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7738,12 +7735,12 @@
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEED=365,</v>
+        <v xml:space="preserve">        PROCESSING=365,</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7754,12 +7751,12 @@
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCESSING=366,</v>
+        <v xml:space="preserve">        PROGRAM=366,</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7770,12 +7767,12 @@
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM=367,</v>
+        <v xml:space="preserve">        PROGRAM_ID=367,</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7786,12 +7783,12 @@
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM_ID=368,</v>
+        <v xml:space="preserve">        RANDOM=368,</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7802,12 +7799,12 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RANDOM=369,</v>
+        <v xml:space="preserve">        RECORD=369,</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7818,12 +7815,12 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORD=370,</v>
+        <v xml:space="preserve">        RECORDING=370,</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7834,12 +7831,12 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDING=371,</v>
+        <v xml:space="preserve">        RECORDS=371,</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7850,12 +7847,12 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDS=372,</v>
+        <v xml:space="preserve">        RECURSIVE=372,</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7866,12 +7863,12 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECURSIVE=373,</v>
+        <v xml:space="preserve">        REDEFINES=373,</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7882,12 +7879,12 @@
       </c>
       <c r="D376" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        REDEFINES=374,</v>
+        <v xml:space="preserve">        REEL=374,</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7897,13 +7894,13 @@
         <v>366</v>
       </c>
       <c r="D377" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">        REEL=375,</v>
+        <f t="shared" ref="D377:D440" si="12">"        "&amp;C377&amp;"="&amp;B377&amp;","</f>
+        <v xml:space="preserve">        REFERENCE=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7913,13 +7910,13 @@
         <v>367</v>
       </c>
       <c r="D378" t="str">
-        <f t="shared" ref="D378:D441" si="12">"        "&amp;C378&amp;"="&amp;B378&amp;","</f>
-        <v xml:space="preserve">        REFERENCE=376,</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">        REFERENCES=376,</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7930,15 +7927,15 @@
       </c>
       <c r="D379" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REFERENCES=377,</v>
+        <v xml:space="preserve">        RELATIVE=377,</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B380" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B380:B442" si="13">B379+1</f>
         <v>378</v>
       </c>
       <c r="C380" t="s">
@@ -7946,15 +7943,15 @@
       </c>
       <c r="D380" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELATIVE=378,</v>
+        <v xml:space="preserve">        RELOAD=378,</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B381" s="1">
-        <f t="shared" ref="B381:B443" si="13">B380+1</f>
+        <f t="shared" si="13"/>
         <v>379</v>
       </c>
       <c r="C381" t="s">
@@ -7962,12 +7959,12 @@
       </c>
       <c r="D381" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELOAD=379,</v>
+        <v xml:space="preserve">        REMAINDER=379,</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="13"/>
@@ -7978,12 +7975,12 @@
       </c>
       <c r="D382" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMAINDER=380,</v>
+        <v xml:space="preserve">        REMOVAL=380,</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="13"/>
@@ -7994,12 +7991,12 @@
       </c>
       <c r="D383" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMOVAL=381,</v>
+        <v xml:space="preserve">        RENAMES=381,</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="13"/>
@@ -8010,12 +8007,12 @@
       </c>
       <c r="D384" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RENAMES=382,</v>
+        <v xml:space="preserve">        REPLACING=382,</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="13"/>
@@ -8026,12 +8023,12 @@
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REPLACING=383,</v>
+        <v xml:space="preserve">        RESERVE=383,</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
@@ -8042,12 +8039,12 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RESERVE=384,</v>
+        <v xml:space="preserve">        RETURNING=384,</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8058,12 +8055,12 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RETURNING=385,</v>
+        <v xml:space="preserve">        REVERSED=385,</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8074,12 +8071,12 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REVERSED=386,</v>
+        <v xml:space="preserve">        REWIND=386,</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8090,12 +8087,12 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REWIND=387,</v>
+        <v xml:space="preserve">        RIGHT=387,</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8106,12 +8103,12 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RIGHT=388,</v>
+        <v xml:space="preserve">        ROUNDED=388,</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8122,12 +8119,12 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        ROUNDED=389,</v>
+        <v xml:space="preserve">        RUN=389,</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8138,12 +8135,12 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RUN=390,</v>
+        <v xml:space="preserve">        SECTION=390,</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8154,12 +8151,12 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECTION=391,</v>
+        <v xml:space="preserve">        SECURITY=391,</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8170,12 +8167,12 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECURITY=392,</v>
+        <v xml:space="preserve">        SEGMENT_LIMIT=392,</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8186,12 +8183,12 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT=393,</v>
+        <v xml:space="preserve">        SENTENCE=393,</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8202,12 +8199,12 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SENTENCE=394,</v>
+        <v xml:space="preserve">        SEPARATE=394,</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8218,12 +8215,12 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEPARATE=395,</v>
+        <v xml:space="preserve">        SEQUENCE=395,</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8234,12 +8231,12 @@
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENCE=396,</v>
+        <v xml:space="preserve">        SEQUENTIAL=396,</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8250,12 +8247,12 @@
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENTIAL=397,</v>
+        <v xml:space="preserve">        SIGN=397,</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8266,12 +8263,12 @@
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIGN=398,</v>
+        <v xml:space="preserve">        SIZE=398,</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8282,12 +8279,12 @@
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIZE=399,</v>
+        <v xml:space="preserve">        SORT_MERGE=399,</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8298,12 +8295,12 @@
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SORT_MERGE=400,</v>
+        <v xml:space="preserve">        SQL=400,</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8314,12 +8311,12 @@
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQL=401,</v>
+        <v xml:space="preserve">        SQLIMS=401,</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8330,12 +8327,12 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQLIMS=402,</v>
+        <v xml:space="preserve">        STANDARD=402,</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8346,12 +8343,12 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD=403,</v>
+        <v xml:space="preserve">        STANDARD_1=403,</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8362,12 +8359,12 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_1=404,</v>
+        <v xml:space="preserve">        STANDARD_2=404,</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8378,12 +8375,12 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_2=405,</v>
+        <v xml:space="preserve">        STATUS=405,</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8394,12 +8391,12 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STATUS=406,</v>
+        <v xml:space="preserve">        SUPPRESS=406,</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8410,12 +8407,12 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SUPPRESS=407,</v>
+        <v xml:space="preserve">        SYMBOL=407,</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8426,12 +8423,12 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOL=408,</v>
+        <v xml:space="preserve">        SYMBOLIC=408,</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8442,12 +8439,12 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOLIC=409,</v>
+        <v xml:space="preserve">        SYNC=409,</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8458,12 +8455,12 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNC=410,</v>
+        <v xml:space="preserve">        SYNCHRONIZED=410,</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8474,12 +8471,12 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNCHRONIZED=411,</v>
+        <v xml:space="preserve">        TALLYING=411,</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8490,12 +8487,12 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TALLYING=412,</v>
+        <v xml:space="preserve">        TAPE=412,</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8506,12 +8503,12 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TAPE=413,</v>
+        <v xml:space="preserve">        TEST=413,</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8522,12 +8519,12 @@
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TEST=414,</v>
+        <v xml:space="preserve">        THAN=414,</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8538,12 +8535,12 @@
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THAN=415,</v>
+        <v xml:space="preserve">        THEN=415,</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8554,12 +8551,12 @@
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THEN=416,</v>
+        <v xml:space="preserve">        THROUGH=416,</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8570,12 +8567,12 @@
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THROUGH=417,</v>
+        <v xml:space="preserve">        THRU=417,</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8586,12 +8583,12 @@
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THRU=418,</v>
+        <v xml:space="preserve">        TIME=418,</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8602,12 +8599,12 @@
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIME=419,</v>
+        <v xml:space="preserve">        TIMES=419,</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8618,12 +8615,12 @@
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIMES=420,</v>
+        <v xml:space="preserve">        TO=420,</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8634,12 +8631,12 @@
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TO=421,</v>
+        <v xml:space="preserve">        TOP=421,</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8650,12 +8647,12 @@
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TOP=422,</v>
+        <v xml:space="preserve">        TRACE=422,</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8666,12 +8663,12 @@
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRACE=423,</v>
+        <v xml:space="preserve">        TRAILING=423,</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8682,12 +8679,12 @@
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRAILING=424,</v>
+        <v xml:space="preserve">        TRUE=424,</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8698,12 +8695,12 @@
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRUE=425,</v>
+        <v xml:space="preserve">        TYPE=425,</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8714,12 +8711,12 @@
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TYPE=426,</v>
+        <v xml:space="preserve">        UNBOUNDED=426,</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8730,12 +8727,12 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNBOUNDED=427,</v>
+        <v xml:space="preserve">        UNIT=427,</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8746,12 +8743,12 @@
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNIT=428,</v>
+        <v xml:space="preserve">        UNTIL=428,</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8762,12 +8759,12 @@
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNTIL=429,</v>
+        <v xml:space="preserve">        UP=429,</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8778,12 +8775,12 @@
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UP=430,</v>
+        <v xml:space="preserve">        UPON=430,</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8794,12 +8791,12 @@
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UPON=431,</v>
+        <v xml:space="preserve">        USAGE=431,</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8810,12 +8807,12 @@
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USAGE=432,</v>
+        <v xml:space="preserve">        USING=432,</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8826,12 +8823,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USING=433,</v>
+        <v xml:space="preserve">        VALIDATING=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8842,12 +8839,12 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALIDATING=434,</v>
+        <v xml:space="preserve">        VALUE=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8858,12 +8855,12 @@
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=435,</v>
+        <v xml:space="preserve">        VALUES=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8874,28 +8871,28 @@
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=436,</v>
+        <v xml:space="preserve">        VARYING=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
         <v>437</v>
       </c>
       <c r="C439" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=437,</v>
+        <v xml:space="preserve">        WITH=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8906,12 +8903,12 @@
       </c>
       <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=438,</v>
+        <v xml:space="preserve">        WORDS=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
@@ -8921,13 +8918,13 @@
         <v>431</v>
       </c>
       <c r="D441" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=439,</v>
+        <f t="shared" ref="D441:D451" si="14">"        "&amp;C441&amp;"="&amp;B441&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B442" s="1">
         <f t="shared" si="13"/>
@@ -8937,16 +8934,16 @@
         <v>432</v>
       </c>
       <c r="D442" t="str">
-        <f t="shared" ref="D442:D452" si="14">"        "&amp;C442&amp;"="&amp;B442&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=440,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_SCHEMA=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B443" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B443:B451" si="15">B442+1</f>
         <v>441</v>
       </c>
       <c r="C443" t="s">
@@ -8954,29 +8951,26 @@
       </c>
       <c r="D443" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=441,</v>
+        <v xml:space="preserve">        YYYYDDD=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B444" s="1">
-        <f t="shared" ref="B444:B452" si="15">B443+1</f>
+        <f t="shared" si="15"/>
         <v>442</v>
       </c>
       <c r="C444" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="D444" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=442,</v>
+        <v xml:space="preserve">        YYYYMMDD=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>436</v>
-      </c>
       <c r="B445" s="1">
         <f t="shared" si="15"/>
         <v>443</v>
@@ -8986,7 +8980,7 @@
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=443,</v>
+        <v xml:space="preserve">        TYPEDEF=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8999,7 +8993,7 @@
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=444,</v>
+        <v xml:space="preserve">        STRONG=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -9012,7 +9006,7 @@
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=445,</v>
+        <v xml:space="preserve">        UNSAFE=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -9021,11 +9015,11 @@
         <v>446</v>
       </c>
       <c r="C448" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=446,</v>
+        <v xml:space="preserve">        PUBLIC=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
@@ -9038,7 +9032,7 @@
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=447,</v>
+        <v xml:space="preserve">        PRIVATE=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
@@ -9047,11 +9041,11 @@
         <v>448</v>
       </c>
       <c r="C450" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=448,</v>
+        <v xml:space="preserve">        IN_OUT=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
@@ -9064,33 +9058,33 @@
       </c>
       <c r="D451" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=449,</v>
+        <v xml:space="preserve">        STRICT=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B452:B455" si="16">B451+1</f>
         <v>450</v>
       </c>
       <c r="C452" t="s">
         <v>469</v>
       </c>
       <c r="D452" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=450,</v>
+        <f t="shared" ref="D452:D455" si="17">"        "&amp;C452&amp;"="&amp;B452&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=450,</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
-        <f t="shared" ref="B453:B456" si="16">B452+1</f>
+        <f t="shared" si="16"/>
         <v>451</v>
       </c>
       <c r="C453" t="s">
         <v>470</v>
       </c>
       <c r="D453" t="str">
-        <f t="shared" ref="D453:D456" si="17">"        "&amp;C453&amp;"="&amp;B453&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=451,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=451,</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
@@ -9103,7 +9097,7 @@
       </c>
       <c r="D454" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=452,</v>
+        <v xml:space="preserve">        CopyImportDirective=452,</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
@@ -9116,33 +9110,20 @@
       </c>
       <c r="D455" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=453,</v>
+        <v xml:space="preserve">        ReplaceDirective=453,</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B456" si="18">B455+1</f>
         <v>454</v>
       </c>
       <c r="C456" t="s">
         <v>473</v>
       </c>
       <c r="D456" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=454,</v>
-      </c>
-    </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B457" s="1">
-        <f t="shared" ref="B457" si="18">B456+1</f>
-        <v>455</v>
-      </c>
-      <c r="C457" t="s">
-        <v>474</v>
-      </c>
-      <c r="D457" t="str">
-        <f t="shared" ref="D457" si="19">"        "&amp;C457&amp;"="&amp;B457&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=455,</v>
+        <f t="shared" ref="D456" si="19">"        "&amp;C456&amp;"="&amp;B456&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=454,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="473">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1296,9 +1296,6 @@
   </si>
   <si>
     <t>USING</t>
-  </si>
-  <si>
-    <t>VALIDATING</t>
   </si>
   <si>
     <t>VALUE</t>
@@ -1857,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D456"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="E358" sqref="E358"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1872,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1890,14 +1887,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1906,7 +1903,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1922,7 +1919,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1938,7 +1935,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1954,7 +1951,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1986,7 +1983,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2018,14 +2015,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2066,7 +2063,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2082,7 +2079,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2114,7 +2111,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2130,7 +2127,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2162,7 +2159,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2178,7 +2175,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2242,7 +2239,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2258,7 +2255,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2290,7 +2287,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2306,7 +2303,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2335,14 +2332,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2367,7 +2364,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2383,7 +2380,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2444,14 +2441,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2460,14 +2457,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2476,7 +2473,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2492,14 +2489,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2508,7 +2505,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2524,7 +2521,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2540,7 +2537,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2556,7 +2553,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2572,7 +2569,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2588,7 +2585,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2604,7 +2601,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2620,7 +2617,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2636,7 +2633,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2652,7 +2649,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2668,7 +2665,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2684,7 +2681,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2700,7 +2697,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2716,7 +2713,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2732,7 +2729,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2748,14 +2745,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2764,7 +2761,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2796,7 +2793,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2812,7 +2809,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2828,7 +2825,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2844,7 +2841,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2860,7 +2857,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2876,7 +2873,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2892,7 +2889,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2908,7 +2905,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2924,7 +2921,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2940,7 +2937,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2956,7 +2953,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2972,7 +2969,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -2988,7 +2985,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -3004,7 +3001,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3020,14 +3017,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3036,7 +3033,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3084,7 +3081,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3100,7 +3097,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -3116,7 +3113,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3132,7 +3129,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3148,7 +3145,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3164,14 +3161,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3180,7 +3177,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3196,7 +3193,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3228,7 +3225,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3244,7 +3241,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3260,7 +3257,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3276,7 +3273,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3292,7 +3289,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3324,7 +3321,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3340,7 +3337,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3356,7 +3353,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3372,7 +3369,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3388,7 +3385,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3404,7 +3401,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3420,7 +3417,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3436,7 +3433,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3452,7 +3449,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3468,7 +3465,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3484,7 +3481,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3500,7 +3497,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3516,7 +3513,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3532,7 +3529,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3548,7 +3545,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3564,7 +3561,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3580,7 +3577,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -3596,7 +3593,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3612,7 +3609,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3628,7 +3625,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3660,7 +3657,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3676,7 +3673,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3692,7 +3689,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3708,7 +3705,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3724,7 +3721,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3740,7 +3737,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3756,7 +3753,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3772,7 +3769,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3788,7 +3785,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3804,7 +3801,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3820,7 +3817,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3836,7 +3833,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3852,7 +3849,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3868,7 +3865,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
@@ -3884,7 +3881,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3900,7 +3897,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3932,7 +3929,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3964,7 +3961,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3980,7 +3977,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -3996,7 +3993,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4012,7 +4009,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4028,7 +4025,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4044,7 +4041,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4060,7 +4057,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4076,7 +4073,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4108,7 +4105,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4124,7 +4121,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4140,7 +4137,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4156,7 +4153,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4172,7 +4169,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4188,7 +4185,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4204,7 +4201,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4220,7 +4217,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4236,7 +4233,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4252,7 +4249,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4268,7 +4265,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4284,14 +4281,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4300,7 +4297,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4316,7 +4313,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4332,7 +4329,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4348,7 +4345,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4364,7 +4361,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4380,7 +4377,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4396,7 +4393,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4412,7 +4409,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4428,7 +4425,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4444,7 +4441,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4460,7 +4457,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4476,7 +4473,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4492,7 +4489,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4508,7 +4505,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4524,7 +4521,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4540,7 +4537,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4556,7 +4553,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4572,7 +4569,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4588,7 +4585,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4604,7 +4601,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4636,7 +4633,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4652,7 +4649,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4668,7 +4665,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4684,7 +4681,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4700,7 +4697,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4716,7 +4713,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4732,7 +4729,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4748,7 +4745,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4764,7 +4761,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4780,7 +4777,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
@@ -4796,7 +4793,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4812,7 +4809,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4828,7 +4825,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4844,7 +4841,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4860,7 +4857,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4876,7 +4873,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4892,7 +4889,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4908,7 +4905,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4924,7 +4921,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4940,7 +4937,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4956,7 +4953,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4972,7 +4969,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -4988,7 +4985,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B257" si="7">B195+1</f>
@@ -5004,7 +5001,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5020,7 +5017,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5036,7 +5033,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5052,7 +5049,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5068,7 +5065,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5084,7 +5081,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5100,7 +5097,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5116,7 +5113,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5132,7 +5129,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5148,7 +5145,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5164,7 +5161,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5180,7 +5177,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5196,7 +5193,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5212,7 +5209,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5228,7 +5225,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5244,7 +5241,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5260,7 +5257,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5276,7 +5273,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5292,7 +5289,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5308,7 +5305,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5324,7 +5321,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5340,7 +5337,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5356,7 +5353,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5372,7 +5369,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5388,7 +5385,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5404,7 +5401,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5420,7 +5417,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5436,7 +5433,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5452,7 +5449,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5468,7 +5465,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5484,7 +5481,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5500,7 +5497,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5516,7 +5513,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5532,7 +5529,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5548,7 +5545,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5564,7 +5561,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5580,7 +5577,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5596,7 +5593,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5612,7 +5609,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5628,7 +5625,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5644,7 +5641,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5660,7 +5657,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5676,7 +5673,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5692,7 +5689,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5708,7 +5705,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5724,7 +5721,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5740,7 +5737,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5756,7 +5753,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5772,7 +5769,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5788,7 +5785,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5804,7 +5801,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5820,7 +5817,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5836,7 +5833,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5852,7 +5849,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5868,7 +5865,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5884,7 +5881,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5900,7 +5897,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5916,7 +5913,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5932,7 +5929,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5948,7 +5945,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5964,7 +5961,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5980,7 +5977,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" ref="B258:B319" si="9">B257+1</f>
@@ -5996,7 +5993,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="9"/>
@@ -6012,7 +6009,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6028,7 +6025,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6044,7 +6041,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6060,7 +6057,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6076,7 +6073,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6092,7 +6089,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6108,7 +6105,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6124,7 +6121,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6140,7 +6137,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6156,7 +6153,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6172,7 +6169,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6188,7 +6185,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6204,7 +6201,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6220,7 +6217,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6236,7 +6233,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6252,7 +6249,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6268,7 +6265,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6284,7 +6281,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6300,7 +6297,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6316,7 +6313,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6332,7 +6329,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6348,7 +6345,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6364,7 +6361,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6380,7 +6377,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6396,7 +6393,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6412,7 +6409,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6428,7 +6425,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6444,7 +6441,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6460,7 +6457,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6476,7 +6473,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6492,7 +6489,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6508,7 +6505,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6524,7 +6521,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6540,7 +6537,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6556,7 +6553,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6572,7 +6569,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6588,7 +6585,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6604,7 +6601,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6620,7 +6617,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6636,7 +6633,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6652,7 +6649,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6668,7 +6665,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6684,7 +6681,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6700,7 +6697,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6716,7 +6713,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6732,7 +6729,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6748,7 +6745,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6764,7 +6761,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6780,7 +6777,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6796,7 +6793,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6812,7 +6809,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6828,7 +6825,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6844,7 +6841,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6860,7 +6857,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6876,7 +6873,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6892,7 +6889,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6908,7 +6905,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6924,7 +6921,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6940,7 +6937,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6956,7 +6953,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6972,7 +6969,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" ref="B320:B379" si="11">B319+1</f>
@@ -6988,7 +6985,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="11"/>
@@ -7004,7 +7001,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="11"/>
@@ -7020,7 +7017,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7036,7 +7033,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7052,7 +7049,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7068,7 +7065,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7084,7 +7081,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7100,7 +7097,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7116,7 +7113,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7132,7 +7129,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7148,7 +7145,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7164,7 +7161,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7180,7 +7177,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7196,7 +7193,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7212,7 +7209,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7228,7 +7225,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7244,7 +7241,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7260,7 +7257,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7276,7 +7273,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7292,7 +7289,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7308,7 +7305,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7324,7 +7321,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7340,7 +7337,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7356,7 +7353,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7372,7 +7369,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7388,7 +7385,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7404,7 +7401,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7420,7 +7417,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7436,7 +7433,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7452,7 +7449,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7468,7 +7465,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7484,7 +7481,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7500,7 +7497,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7516,7 +7513,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7532,7 +7529,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7548,7 +7545,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7564,7 +7561,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7580,7 +7577,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7596,7 +7593,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7612,7 +7609,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7628,7 +7625,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7644,7 +7641,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7660,7 +7657,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7676,7 +7673,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7692,7 +7689,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7708,7 +7705,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7724,7 +7721,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7740,7 +7737,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7756,7 +7753,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7772,7 +7769,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7788,7 +7785,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7804,7 +7801,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7820,7 +7817,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7836,7 +7833,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7852,7 +7849,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7868,7 +7865,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7884,7 +7881,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7894,13 +7891,13 @@
         <v>366</v>
       </c>
       <c r="D377" t="str">
-        <f t="shared" ref="D377:D440" si="12">"        "&amp;C377&amp;"="&amp;B377&amp;","</f>
+        <f t="shared" ref="D377:D439" si="12">"        "&amp;C377&amp;"="&amp;B377&amp;","</f>
         <v xml:space="preserve">        REFERENCE=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7916,7 +7913,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" si="11"/>
@@ -7932,10 +7929,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B380" s="1">
-        <f t="shared" ref="B380:B442" si="13">B379+1</f>
+        <f t="shared" ref="B380:B441" si="13">B379+1</f>
         <v>378</v>
       </c>
       <c r="C380" t="s">
@@ -7948,7 +7945,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="13"/>
@@ -7964,7 +7961,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="13"/>
@@ -7980,7 +7977,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="13"/>
@@ -7996,7 +7993,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="13"/>
@@ -8012,7 +8009,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="13"/>
@@ -8028,7 +8025,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
@@ -8044,7 +8041,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8060,7 +8057,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8076,7 +8073,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8092,7 +8089,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8108,7 +8105,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8124,7 +8121,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8140,7 +8137,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8156,7 +8153,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8172,7 +8169,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8188,7 +8185,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8204,7 +8201,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8220,7 +8217,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8236,7 +8233,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8252,7 +8249,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8268,7 +8265,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8284,7 +8281,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8300,7 +8297,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8316,7 +8313,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8332,7 +8329,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8348,7 +8345,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8364,7 +8361,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8380,7 +8377,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8396,7 +8393,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8412,7 +8409,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8428,7 +8425,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8444,7 +8441,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8460,7 +8457,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8476,7 +8473,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8492,7 +8489,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8508,7 +8505,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8524,7 +8521,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8540,7 +8537,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8556,7 +8553,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8572,7 +8569,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8588,7 +8585,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8604,7 +8601,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8620,7 +8617,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8636,7 +8633,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8652,7 +8649,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8668,7 +8665,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8684,7 +8681,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8700,7 +8697,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8716,7 +8713,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8732,7 +8729,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8748,7 +8745,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8764,7 +8761,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8780,7 +8777,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8796,7 +8793,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8812,7 +8809,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8823,12 +8820,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALIDATING=433,</v>
+        <v xml:space="preserve">        VALUE=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8839,12 +8836,12 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=434,</v>
+        <v xml:space="preserve">        VALUES=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8855,28 +8852,28 @@
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=435,</v>
+        <v xml:space="preserve">        VARYING=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
         <v>436</v>
       </c>
       <c r="C438" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=436,</v>
+        <v xml:space="preserve">        WITH=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8887,12 +8884,12 @@
       </c>
       <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=437,</v>
+        <v xml:space="preserve">        WORDS=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8902,13 +8899,13 @@
         <v>430</v>
       </c>
       <c r="D440" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=438,</v>
+        <f t="shared" ref="D440:D450" si="14">"        "&amp;C440&amp;"="&amp;B440&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B441" s="1">
         <f t="shared" si="13"/>
@@ -8918,16 +8915,16 @@
         <v>431</v>
       </c>
       <c r="D441" t="str">
-        <f t="shared" ref="D441:D451" si="14">"        "&amp;C441&amp;"="&amp;B441&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=439,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_SCHEMA=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B442" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B442:B450" si="15">B441+1</f>
         <v>440</v>
       </c>
       <c r="C442" t="s">
@@ -8935,29 +8932,26 @@
       </c>
       <c r="D442" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=440,</v>
+        <v xml:space="preserve">        YYYYDDD=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B443" s="1">
-        <f t="shared" ref="B443:B451" si="15">B442+1</f>
+        <f t="shared" si="15"/>
         <v>441</v>
       </c>
       <c r="C443" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="D443" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=441,</v>
+        <v xml:space="preserve">        YYYYMMDD=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>435</v>
-      </c>
       <c r="B444" s="1">
         <f t="shared" si="15"/>
         <v>442</v>
@@ -8967,7 +8961,7 @@
       </c>
       <c r="D444" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=442,</v>
+        <v xml:space="preserve">        TYPEDEF=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8980,7 +8974,7 @@
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=443,</v>
+        <v xml:space="preserve">        STRONG=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8993,7 +8987,7 @@
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=444,</v>
+        <v xml:space="preserve">        UNSAFE=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -9002,11 +8996,11 @@
         <v>445</v>
       </c>
       <c r="C447" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=445,</v>
+        <v xml:space="preserve">        PUBLIC=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -9019,7 +9013,7 @@
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=446,</v>
+        <v xml:space="preserve">        PRIVATE=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
@@ -9028,11 +9022,11 @@
         <v>447</v>
       </c>
       <c r="C449" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=447,</v>
+        <v xml:space="preserve">        IN_OUT=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
@@ -9045,33 +9039,33 @@
       </c>
       <c r="D450" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=448,</v>
+        <v xml:space="preserve">        STRICT=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B451:B454" si="16">B450+1</f>
         <v>449</v>
       </c>
       <c r="C451" t="s">
         <v>468</v>
       </c>
       <c r="D451" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=449,</v>
+        <f t="shared" ref="D451:D454" si="17">"        "&amp;C451&amp;"="&amp;B451&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
-        <f t="shared" ref="B452:B455" si="16">B451+1</f>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
       <c r="C452" t="s">
         <v>469</v>
       </c>
       <c r="D452" t="str">
-        <f t="shared" ref="D452:D455" si="17">"        "&amp;C452&amp;"="&amp;B452&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=450,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=450,</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
@@ -9084,7 +9078,7 @@
       </c>
       <c r="D453" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=451,</v>
+        <v xml:space="preserve">        CopyImportDirective=451,</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
@@ -9097,33 +9091,20 @@
       </c>
       <c r="D454" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=452,</v>
+        <v xml:space="preserve">        ReplaceDirective=452,</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B455" si="18">B454+1</f>
         <v>453</v>
       </c>
       <c r="C455" t="s">
         <v>472</v>
       </c>
       <c r="D455" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=453,</v>
-      </c>
-    </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B456" s="1">
-        <f t="shared" ref="B456" si="18">B455+1</f>
-        <v>454</v>
-      </c>
-      <c r="C456" t="s">
-        <v>473</v>
-      </c>
-      <c r="D456" t="str">
-        <f t="shared" ref="D456" si="19">"        "&amp;C456&amp;"="&amp;B456&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=454,</v>
+        <f t="shared" ref="D455" si="19">"        "&amp;C455&amp;"="&amp;B455&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=453,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="472">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -999,9 +999,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>NONNUMERIC</t>
   </si>
   <si>
     <t>NOT</t>
@@ -1854,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="H330" sqref="H330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1869,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1887,14 +1884,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1903,7 +1900,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1919,7 +1916,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1935,7 +1932,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1951,7 +1948,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1967,7 +1964,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1983,7 +1980,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -1999,7 +1996,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2015,14 +2012,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2031,7 +2028,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2047,7 +2044,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2079,7 +2076,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2111,7 +2108,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2143,7 +2140,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2159,7 +2156,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2191,7 +2188,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2207,7 +2204,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2223,7 +2220,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2239,7 +2236,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2271,7 +2268,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2287,7 +2284,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2303,7 +2300,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2332,14 +2329,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2348,7 +2345,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2364,7 +2361,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2396,7 +2393,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2412,7 +2409,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2441,14 +2438,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2457,14 +2454,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2473,7 +2470,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2489,14 +2486,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2505,7 +2502,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2521,7 +2518,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2537,7 +2534,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2553,7 +2550,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2601,7 +2598,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2617,7 +2614,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2633,7 +2630,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2649,7 +2646,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2681,7 +2678,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2697,7 +2694,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2713,7 +2710,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2745,14 +2742,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2761,7 +2758,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2777,7 +2774,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2793,7 +2790,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2809,7 +2806,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2825,7 +2822,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2841,7 +2838,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2873,7 +2870,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2889,7 +2886,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2937,7 +2934,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2953,7 +2950,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2969,7 +2966,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -3001,7 +2998,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3017,14 +3014,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3033,7 +3030,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3049,7 +3046,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3065,7 +3062,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3081,7 +3078,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3097,7 +3094,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3129,7 +3126,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3145,7 +3142,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3161,14 +3158,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3193,7 +3190,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3209,7 +3206,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3225,7 +3222,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3241,7 +3238,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3257,7 +3254,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3273,7 +3270,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3289,7 +3286,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3305,7 +3302,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3321,7 +3318,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3337,7 +3334,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3353,7 +3350,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3369,7 +3366,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3385,7 +3382,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3401,7 +3398,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3417,7 +3414,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3433,7 +3430,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3465,7 +3462,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3481,7 +3478,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3497,7 +3494,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3513,7 +3510,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3529,7 +3526,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3545,7 +3542,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3561,7 +3558,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3577,7 +3574,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -3593,7 +3590,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3609,7 +3606,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3625,7 +3622,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3641,7 +3638,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3657,7 +3654,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3673,7 +3670,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3689,7 +3686,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3705,7 +3702,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3721,7 +3718,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3737,7 +3734,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3753,7 +3750,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3769,7 +3766,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3785,7 +3782,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3801,7 +3798,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3817,7 +3814,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3833,7 +3830,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3865,7 +3862,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
@@ -3881,7 +3878,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3897,7 +3894,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3913,7 +3910,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3929,14 +3926,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3945,7 +3942,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3961,7 +3958,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3977,7 +3974,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -3993,7 +3990,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4009,7 +4006,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4025,7 +4022,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4041,7 +4038,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4057,7 +4054,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4073,7 +4070,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4089,7 +4086,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4105,7 +4102,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4121,7 +4118,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4137,7 +4134,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4153,7 +4150,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4169,7 +4166,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4185,7 +4182,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4201,7 +4198,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4217,7 +4214,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4233,7 +4230,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4249,7 +4246,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4281,14 +4278,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4297,7 +4294,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4313,7 +4310,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4329,7 +4326,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4361,7 +4358,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4377,7 +4374,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4393,7 +4390,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4409,7 +4406,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4441,7 +4438,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4457,7 +4454,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4473,7 +4470,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4489,7 +4486,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4505,7 +4502,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4521,7 +4518,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4537,7 +4534,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4553,7 +4550,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4569,7 +4566,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4585,7 +4582,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4601,7 +4598,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4633,7 +4630,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4649,7 +4646,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4665,7 +4662,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4681,7 +4678,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4697,7 +4694,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4713,7 +4710,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4729,7 +4726,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4745,7 +4742,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4761,7 +4758,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4777,7 +4774,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
@@ -4793,7 +4790,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4809,7 +4806,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4825,7 +4822,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4841,7 +4838,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4873,7 +4870,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4889,7 +4886,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4905,7 +4902,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4921,7 +4918,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4937,7 +4934,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4953,7 +4950,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4969,7 +4966,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -4985,7 +4982,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B257" si="7">B195+1</f>
@@ -5001,7 +4998,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5017,7 +5014,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5033,7 +5030,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5065,7 +5062,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5081,7 +5078,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5097,7 +5094,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5113,7 +5110,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5129,7 +5126,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5145,7 +5142,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5161,7 +5158,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5177,7 +5174,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5193,7 +5190,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5209,7 +5206,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5225,7 +5222,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5241,7 +5238,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5257,7 +5254,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5273,7 +5270,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5289,7 +5286,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5305,7 +5302,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5321,7 +5318,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5337,7 +5334,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5353,7 +5350,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5369,7 +5366,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5385,7 +5382,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5401,7 +5398,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5417,7 +5414,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5433,7 +5430,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5449,7 +5446,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5465,7 +5462,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5497,7 +5494,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5513,7 +5510,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5529,7 +5526,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5545,7 +5542,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5561,7 +5558,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5577,7 +5574,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5593,7 +5590,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5609,7 +5606,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5625,7 +5622,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5641,7 +5638,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5657,7 +5654,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5673,7 +5670,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5689,7 +5686,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5705,7 +5702,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5721,7 +5718,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5737,7 +5734,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5753,7 +5750,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5769,7 +5766,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5785,7 +5782,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5801,7 +5798,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5817,7 +5814,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5833,7 +5830,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5849,7 +5846,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5865,7 +5862,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5881,7 +5878,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5897,7 +5894,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5913,7 +5910,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5929,7 +5926,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5945,7 +5942,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5961,7 +5958,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5977,7 +5974,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" ref="B258:B319" si="9">B257+1</f>
@@ -5993,7 +5990,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="9"/>
@@ -6009,7 +6006,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6025,7 +6022,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6041,7 +6038,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6057,7 +6054,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6073,7 +6070,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6089,7 +6086,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6105,7 +6102,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6121,7 +6118,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6137,7 +6134,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6153,7 +6150,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6169,7 +6166,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6185,7 +6182,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6201,7 +6198,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6217,7 +6214,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6233,7 +6230,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6249,7 +6246,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6265,7 +6262,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6281,7 +6278,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6297,7 +6294,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6313,7 +6310,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6329,7 +6326,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6345,7 +6342,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6361,7 +6358,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6377,7 +6374,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6393,7 +6390,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6409,7 +6406,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6425,7 +6422,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6441,7 +6438,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6457,7 +6454,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6473,7 +6470,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6489,7 +6486,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6505,7 +6502,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6521,7 +6518,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6537,7 +6534,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6553,7 +6550,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6569,7 +6566,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6585,7 +6582,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6601,7 +6598,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6617,7 +6614,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6633,7 +6630,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6649,7 +6646,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6665,7 +6662,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6681,7 +6678,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6697,7 +6694,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6713,7 +6710,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6729,7 +6726,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6745,7 +6742,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6761,7 +6758,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6777,7 +6774,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6793,7 +6790,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6809,7 +6806,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6825,7 +6822,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6841,7 +6838,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6857,7 +6854,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6873,7 +6870,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6889,7 +6886,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6905,7 +6902,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6921,7 +6918,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6931,13 +6928,13 @@
         <v>304</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" ref="D317:D376" si="10">"        "&amp;C317&amp;"="&amp;B317&amp;","</f>
+        <f t="shared" ref="D317:D375" si="10">"        "&amp;C317&amp;"="&amp;B317&amp;","</f>
         <v xml:space="preserve">        LABEL=315,</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6953,7 +6950,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6969,10 +6966,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B320" s="1">
-        <f t="shared" ref="B320:B379" si="11">B319+1</f>
+        <f t="shared" ref="B320:B378" si="11">B319+1</f>
         <v>318</v>
       </c>
       <c r="C320" t="s">
@@ -6985,7 +6982,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="11"/>
@@ -7001,7 +6998,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="11"/>
@@ -7017,7 +7014,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7033,7 +7030,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7049,7 +7046,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7065,7 +7062,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7081,7 +7078,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7097,7 +7094,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7113,7 +7110,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7129,7 +7126,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7145,7 +7142,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7161,7 +7158,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7177,7 +7174,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7193,7 +7190,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7209,7 +7206,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7225,7 +7222,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7241,7 +7238,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7252,12 +7249,12 @@
       </c>
       <c r="D337" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NONNUMERIC=335,</v>
+        <v xml:space="preserve">        NOT=335,</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7268,12 +7265,12 @@
       </c>
       <c r="D338" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NOT=336,</v>
+        <v xml:space="preserve">        NUMERIC=336,</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7284,12 +7281,12 @@
       </c>
       <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC=337,</v>
+        <v xml:space="preserve">        NUMERIC_EDITED=337,</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7300,12 +7297,12 @@
       </c>
       <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        NUMERIC_EDITED=338,</v>
+        <v xml:space="preserve">        OBJECT=338,</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7316,12 +7313,12 @@
       </c>
       <c r="D341" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OBJECT=339,</v>
+        <v xml:space="preserve">        OCCURS=339,</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7332,12 +7329,12 @@
       </c>
       <c r="D342" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OCCURS=340,</v>
+        <v xml:space="preserve">        OF=340,</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7348,12 +7345,12 @@
       </c>
       <c r="D343" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OF=341,</v>
+        <v xml:space="preserve">        OFF=341,</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7364,12 +7361,12 @@
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OFF=342,</v>
+        <v xml:space="preserve">        OMITTED=342,</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7380,12 +7377,12 @@
       </c>
       <c r="D345" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OMITTED=343,</v>
+        <v xml:space="preserve">        ON=343,</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7396,12 +7393,12 @@
       </c>
       <c r="D346" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ON=344,</v>
+        <v xml:space="preserve">        OPTIONAL=344,</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7412,12 +7409,12 @@
       </c>
       <c r="D347" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OPTIONAL=345,</v>
+        <v xml:space="preserve">        OR=345,</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7428,12 +7425,12 @@
       </c>
       <c r="D348" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OR=346,</v>
+        <v xml:space="preserve">        ORDER=346,</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7444,12 +7441,12 @@
       </c>
       <c r="D349" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORDER=347,</v>
+        <v xml:space="preserve">        ORGANIZATION=347,</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7460,12 +7457,12 @@
       </c>
       <c r="D350" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        ORGANIZATION=348,</v>
+        <v xml:space="preserve">        OTHER=348,</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7476,12 +7473,12 @@
       </c>
       <c r="D351" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OTHER=349,</v>
+        <v xml:space="preserve">        OUTPUT=349,</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7492,12 +7489,12 @@
       </c>
       <c r="D352" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OUTPUT=350,</v>
+        <v xml:space="preserve">        OVERFLOW=350,</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7508,12 +7505,12 @@
       </c>
       <c r="D353" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERFLOW=351,</v>
+        <v xml:space="preserve">        OVERRIDE=351,</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7524,12 +7521,12 @@
       </c>
       <c r="D354" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        OVERRIDE=352,</v>
+        <v xml:space="preserve">        PACKED_DECIMAL=352,</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7540,12 +7537,12 @@
       </c>
       <c r="D355" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PACKED_DECIMAL=353,</v>
+        <v xml:space="preserve">        PADDING=353,</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7556,12 +7553,12 @@
       </c>
       <c r="D356" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PADDING=354,</v>
+        <v xml:space="preserve">        PAGE=354,</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7572,12 +7569,12 @@
       </c>
       <c r="D357" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PAGE=355,</v>
+        <v xml:space="preserve">        PASSWORD=355,</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7588,12 +7585,12 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PASSWORD=356,</v>
+        <v xml:space="preserve">        PIC=356,</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7604,12 +7601,12 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PIC=357,</v>
+        <v xml:space="preserve">        PICTURE=357,</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7620,12 +7617,12 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PICTURE=358,</v>
+        <v xml:space="preserve">        POINTER=358,</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7636,12 +7633,12 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POINTER=359,</v>
+        <v xml:space="preserve">        POSITION=359,</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7652,28 +7649,28 @@
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITION=360,</v>
+        <v xml:space="preserve">        POSITIVE=360,</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
         <v>361</v>
       </c>
       <c r="C363" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        POSITIVE=361,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER=361,</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7684,12 +7681,12 @@
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER=362,</v>
+        <v xml:space="preserve">        PROCEDURES=362,</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7700,12 +7697,12 @@
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEDURES=363,</v>
+        <v xml:space="preserve">        PROCEED=363,</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7716,12 +7713,12 @@
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCEED=364,</v>
+        <v xml:space="preserve">        PROCESSING=364,</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7732,12 +7729,12 @@
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROCESSING=365,</v>
+        <v xml:space="preserve">        PROGRAM=365,</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7748,12 +7745,12 @@
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM=366,</v>
+        <v xml:space="preserve">        PROGRAM_ID=366,</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7764,12 +7761,12 @@
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        PROGRAM_ID=367,</v>
+        <v xml:space="preserve">        RANDOM=367,</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7780,12 +7777,12 @@
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RANDOM=368,</v>
+        <v xml:space="preserve">        RECORD=368,</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7796,12 +7793,12 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORD=369,</v>
+        <v xml:space="preserve">        RECORDING=369,</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7812,12 +7809,12 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDING=370,</v>
+        <v xml:space="preserve">        RECORDS=370,</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7828,12 +7825,12 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECORDS=371,</v>
+        <v xml:space="preserve">        RECURSIVE=371,</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7844,12 +7841,12 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        RECURSIVE=372,</v>
+        <v xml:space="preserve">        REDEFINES=372,</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7860,12 +7857,12 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">        REDEFINES=373,</v>
+        <v xml:space="preserve">        REEL=373,</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7875,13 +7872,13 @@
         <v>365</v>
       </c>
       <c r="D376" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">        REEL=374,</v>
+        <f t="shared" ref="D376:D438" si="12">"        "&amp;C376&amp;"="&amp;B376&amp;","</f>
+        <v xml:space="preserve">        REFERENCE=374,</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7891,13 +7888,13 @@
         <v>366</v>
       </c>
       <c r="D377" t="str">
-        <f t="shared" ref="D377:D439" si="12">"        "&amp;C377&amp;"="&amp;B377&amp;","</f>
-        <v xml:space="preserve">        REFERENCE=375,</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">        REFERENCES=375,</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7908,15 +7905,15 @@
       </c>
       <c r="D378" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REFERENCES=376,</v>
+        <v xml:space="preserve">        RELATIVE=376,</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B379" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B379:B440" si="13">B378+1</f>
         <v>377</v>
       </c>
       <c r="C379" t="s">
@@ -7924,15 +7921,15 @@
       </c>
       <c r="D379" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELATIVE=377,</v>
+        <v xml:space="preserve">        RELOAD=377,</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B380" s="1">
-        <f t="shared" ref="B380:B441" si="13">B379+1</f>
+        <f t="shared" si="13"/>
         <v>378</v>
       </c>
       <c r="C380" t="s">
@@ -7940,12 +7937,12 @@
       </c>
       <c r="D380" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RELOAD=378,</v>
+        <v xml:space="preserve">        REMAINDER=378,</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="13"/>
@@ -7956,12 +7953,12 @@
       </c>
       <c r="D381" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMAINDER=379,</v>
+        <v xml:space="preserve">        REMOVAL=379,</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="13"/>
@@ -7972,12 +7969,12 @@
       </c>
       <c r="D382" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REMOVAL=380,</v>
+        <v xml:space="preserve">        RENAMES=380,</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="13"/>
@@ -7988,12 +7985,12 @@
       </c>
       <c r="D383" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RENAMES=381,</v>
+        <v xml:space="preserve">        REPLACING=381,</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="13"/>
@@ -8004,12 +8001,12 @@
       </c>
       <c r="D384" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REPLACING=382,</v>
+        <v xml:space="preserve">        RESERVE=382,</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="13"/>
@@ -8020,12 +8017,12 @@
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RESERVE=383,</v>
+        <v xml:space="preserve">        RETURNING=383,</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
@@ -8036,12 +8033,12 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RETURNING=384,</v>
+        <v xml:space="preserve">        REVERSED=384,</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8052,12 +8049,12 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REVERSED=385,</v>
+        <v xml:space="preserve">        REWIND=385,</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8068,12 +8065,12 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        REWIND=386,</v>
+        <v xml:space="preserve">        RIGHT=386,</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8084,12 +8081,12 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RIGHT=387,</v>
+        <v xml:space="preserve">        ROUNDED=387,</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8100,12 +8097,12 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        ROUNDED=388,</v>
+        <v xml:space="preserve">        RUN=388,</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8116,12 +8113,12 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        RUN=389,</v>
+        <v xml:space="preserve">        SECTION=389,</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8132,12 +8129,12 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECTION=390,</v>
+        <v xml:space="preserve">        SECURITY=390,</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8148,12 +8145,12 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SECURITY=391,</v>
+        <v xml:space="preserve">        SEGMENT_LIMIT=391,</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8164,12 +8161,12 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT=392,</v>
+        <v xml:space="preserve">        SENTENCE=392,</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8180,12 +8177,12 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SENTENCE=393,</v>
+        <v xml:space="preserve">        SEPARATE=393,</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8196,12 +8193,12 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEPARATE=394,</v>
+        <v xml:space="preserve">        SEQUENCE=394,</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8212,12 +8209,12 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENCE=395,</v>
+        <v xml:space="preserve">        SEQUENTIAL=395,</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8228,12 +8225,12 @@
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SEQUENTIAL=396,</v>
+        <v xml:space="preserve">        SIGN=396,</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8244,12 +8241,12 @@
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIGN=397,</v>
+        <v xml:space="preserve">        SIZE=397,</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8260,12 +8257,12 @@
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SIZE=398,</v>
+        <v xml:space="preserve">        SORT_MERGE=398,</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8276,12 +8273,12 @@
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SORT_MERGE=399,</v>
+        <v xml:space="preserve">        SQL=399,</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8292,12 +8289,12 @@
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQL=400,</v>
+        <v xml:space="preserve">        SQLIMS=400,</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8308,12 +8305,12 @@
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SQLIMS=401,</v>
+        <v xml:space="preserve">        STANDARD=401,</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8324,12 +8321,12 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD=402,</v>
+        <v xml:space="preserve">        STANDARD_1=402,</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8340,12 +8337,12 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_1=403,</v>
+        <v xml:space="preserve">        STANDARD_2=403,</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8356,12 +8353,12 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STANDARD_2=404,</v>
+        <v xml:space="preserve">        STATUS=404,</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8372,12 +8369,12 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        STATUS=405,</v>
+        <v xml:space="preserve">        SUPPRESS=405,</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8388,12 +8385,12 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SUPPRESS=406,</v>
+        <v xml:space="preserve">        SYMBOL=406,</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8404,12 +8401,12 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOL=407,</v>
+        <v xml:space="preserve">        SYMBOLIC=407,</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8420,12 +8417,12 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYMBOLIC=408,</v>
+        <v xml:space="preserve">        SYNC=408,</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8436,12 +8433,12 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNC=409,</v>
+        <v xml:space="preserve">        SYNCHRONIZED=409,</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8452,12 +8449,12 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        SYNCHRONIZED=410,</v>
+        <v xml:space="preserve">        TALLYING=410,</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8468,12 +8465,12 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TALLYING=411,</v>
+        <v xml:space="preserve">        TAPE=411,</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8484,12 +8481,12 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TAPE=412,</v>
+        <v xml:space="preserve">        TEST=412,</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8500,12 +8497,12 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TEST=413,</v>
+        <v xml:space="preserve">        THAN=413,</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8516,12 +8513,12 @@
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THAN=414,</v>
+        <v xml:space="preserve">        THEN=414,</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8532,12 +8529,12 @@
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THEN=415,</v>
+        <v xml:space="preserve">        THROUGH=415,</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8548,12 +8545,12 @@
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THROUGH=416,</v>
+        <v xml:space="preserve">        THRU=416,</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8564,12 +8561,12 @@
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        THRU=417,</v>
+        <v xml:space="preserve">        TIME=417,</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8580,12 +8577,12 @@
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIME=418,</v>
+        <v xml:space="preserve">        TIMES=418,</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8596,12 +8593,12 @@
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TIMES=419,</v>
+        <v xml:space="preserve">        TO=419,</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8612,12 +8609,12 @@
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TO=420,</v>
+        <v xml:space="preserve">        TOP=420,</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8628,12 +8625,12 @@
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TOP=421,</v>
+        <v xml:space="preserve">        TRACE=421,</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8644,12 +8641,12 @@
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRACE=422,</v>
+        <v xml:space="preserve">        TRAILING=422,</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8660,12 +8657,12 @@
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRAILING=423,</v>
+        <v xml:space="preserve">        TRUE=423,</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8676,12 +8673,12 @@
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TRUE=424,</v>
+        <v xml:space="preserve">        TYPE=424,</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8692,12 +8689,12 @@
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        TYPE=425,</v>
+        <v xml:space="preserve">        UNBOUNDED=425,</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8708,12 +8705,12 @@
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNBOUNDED=426,</v>
+        <v xml:space="preserve">        UNIT=426,</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8724,12 +8721,12 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNIT=427,</v>
+        <v xml:space="preserve">        UNTIL=427,</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8740,12 +8737,12 @@
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UNTIL=428,</v>
+        <v xml:space="preserve">        UP=428,</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8756,12 +8753,12 @@
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UP=429,</v>
+        <v xml:space="preserve">        UPON=429,</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8772,12 +8769,12 @@
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        UPON=430,</v>
+        <v xml:space="preserve">        USAGE=430,</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8788,12 +8785,12 @@
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USAGE=431,</v>
+        <v xml:space="preserve">        USING=431,</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8804,12 +8801,12 @@
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        USING=432,</v>
+        <v xml:space="preserve">        VALUE=432,</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8820,12 +8817,12 @@
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUE=433,</v>
+        <v xml:space="preserve">        VALUES=433,</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8836,28 +8833,28 @@
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VALUES=434,</v>
+        <v xml:space="preserve">        VARYING=434,</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
         <v>435</v>
       </c>
       <c r="C437" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        VARYING=435,</v>
+        <v xml:space="preserve">        WITH=435,</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8868,12 +8865,12 @@
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        WITH=436,</v>
+        <v xml:space="preserve">        WORDS=436,</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8883,13 +8880,13 @@
         <v>429</v>
       </c>
       <c r="D439" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">        WORDS=437,</v>
+        <f t="shared" ref="D439:D449" si="14">"        "&amp;C439&amp;"="&amp;B439&amp;","</f>
+        <v xml:space="preserve">        WRITE_ONLY=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8899,16 +8896,16 @@
         <v>430</v>
       </c>
       <c r="D440" t="str">
-        <f t="shared" ref="D440:D450" si="14">"        "&amp;C440&amp;"="&amp;B440&amp;","</f>
-        <v xml:space="preserve">        WRITE_ONLY=438,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        XML_SCHEMA=438,</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B441" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B441:B449" si="15">B440+1</f>
         <v>439</v>
       </c>
       <c r="C441" t="s">
@@ -8916,29 +8913,26 @@
       </c>
       <c r="D441" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        XML_SCHEMA=439,</v>
+        <v xml:space="preserve">        YYYYDDD=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B442" s="1">
-        <f t="shared" ref="B442:B450" si="15">B441+1</f>
+        <f t="shared" si="15"/>
         <v>440</v>
       </c>
       <c r="C442" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="D442" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=440,</v>
+        <v xml:space="preserve">        YYYYMMDD=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>434</v>
-      </c>
       <c r="B443" s="1">
         <f t="shared" si="15"/>
         <v>441</v>
@@ -8948,7 +8942,7 @@
       </c>
       <c r="D443" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=441,</v>
+        <v xml:space="preserve">        TYPEDEF=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,7 +8955,7 @@
       </c>
       <c r="D444" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=442,</v>
+        <v xml:space="preserve">        STRONG=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8974,7 +8968,7 @@
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=443,</v>
+        <v xml:space="preserve">        UNSAFE=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8983,11 +8977,11 @@
         <v>444</v>
       </c>
       <c r="C446" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=444,</v>
+        <v xml:space="preserve">        PUBLIC=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -9000,7 +8994,7 @@
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=445,</v>
+        <v xml:space="preserve">        PRIVATE=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -9009,11 +9003,11 @@
         <v>446</v>
       </c>
       <c r="C448" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=446,</v>
+        <v xml:space="preserve">        IN_OUT=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
@@ -9026,33 +9020,33 @@
       </c>
       <c r="D449" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=447,</v>
+        <v xml:space="preserve">        STRICT=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B450:B453" si="16">B449+1</f>
         <v>448</v>
       </c>
       <c r="C450" t="s">
         <v>467</v>
       </c>
       <c r="D450" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=448,</v>
+        <f t="shared" ref="D450:D453" si="17">"        "&amp;C450&amp;"="&amp;B450&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
-        <f t="shared" ref="B451:B454" si="16">B450+1</f>
+        <f t="shared" si="16"/>
         <v>449</v>
       </c>
       <c r="C451" t="s">
         <v>468</v>
       </c>
       <c r="D451" t="str">
-        <f t="shared" ref="D451:D454" si="17">"        "&amp;C451&amp;"="&amp;B451&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=449,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
@@ -9065,7 +9059,7 @@
       </c>
       <c r="D452" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=450,</v>
+        <v xml:space="preserve">        CopyImportDirective=450,</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
@@ -9078,33 +9072,20 @@
       </c>
       <c r="D453" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=451,</v>
+        <v xml:space="preserve">        ReplaceDirective=451,</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B454" si="18">B453+1</f>
         <v>452</v>
       </c>
       <c r="C454" t="s">
         <v>471</v>
       </c>
       <c r="D454" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=452,</v>
-      </c>
-    </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B455" s="1">
-        <f t="shared" ref="B455" si="18">B454+1</f>
-        <v>453</v>
-      </c>
-      <c r="C455" t="s">
-        <v>472</v>
-      </c>
-      <c r="D455" t="str">
-        <f t="shared" ref="D455" si="19">"        "&amp;C455&amp;"="&amp;B455&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=453,</v>
+        <f t="shared" ref="D454" si="19">"        "&amp;C454&amp;"="&amp;B454&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=452,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="471">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1374,9 +1374,6 @@
   </si>
   <si>
     <t>// Keywords - Syntax tokens</t>
-  </si>
-  <si>
-    <t>YYYYMMDD</t>
   </si>
   <si>
     <t>TYPEDEF</t>
@@ -1851,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D454"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="H330" sqref="H330"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -2019,7 +2016,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2336,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2445,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2461,7 +2458,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2493,7 +2490,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2749,7 +2746,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -3021,7 +3018,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3165,7 +3162,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -8880,7 +8877,7 @@
         <v>429</v>
       </c>
       <c r="D439" t="str">
-        <f t="shared" ref="D439:D449" si="14">"        "&amp;C439&amp;"="&amp;B439&amp;","</f>
+        <f t="shared" ref="D439:D448" si="14">"        "&amp;C439&amp;"="&amp;B439&amp;","</f>
         <v xml:space="preserve">        WRITE_ONLY=437,</v>
       </c>
     </row>
@@ -8905,7 +8902,7 @@
         <v>433</v>
       </c>
       <c r="B441" s="1">
-        <f t="shared" ref="B441:B449" si="15">B440+1</f>
+        <f t="shared" ref="B441:B448" si="15">B440+1</f>
         <v>439</v>
       </c>
       <c r="C441" t="s">
@@ -8917,9 +8914,6 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>433</v>
-      </c>
       <c r="B442" s="1">
         <f t="shared" si="15"/>
         <v>440</v>
@@ -8929,7 +8923,7 @@
       </c>
       <c r="D442" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYMMDD=440,</v>
+        <v xml:space="preserve">        TYPEDEF=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8942,7 +8936,7 @@
       </c>
       <c r="D443" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=441,</v>
+        <v xml:space="preserve">        STRONG=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8955,7 +8949,7 @@
       </c>
       <c r="D444" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=442,</v>
+        <v xml:space="preserve">        UNSAFE=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8964,11 +8958,11 @@
         <v>443</v>
       </c>
       <c r="C445" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=443,</v>
+        <v xml:space="preserve">        PUBLIC=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8981,7 +8975,7 @@
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=444,</v>
+        <v xml:space="preserve">        PRIVATE=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8990,11 +8984,11 @@
         <v>445</v>
       </c>
       <c r="C447" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=445,</v>
+        <v xml:space="preserve">        IN_OUT=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -9007,33 +9001,33 @@
       </c>
       <c r="D448" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=446,</v>
+        <v xml:space="preserve">        STRICT=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B449:B452" si="16">B448+1</f>
         <v>447</v>
       </c>
       <c r="C449" t="s">
         <v>466</v>
       </c>
       <c r="D449" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=447,</v>
+        <f t="shared" ref="D449:D452" si="17">"        "&amp;C449&amp;"="&amp;B449&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
-        <f t="shared" ref="B450:B453" si="16">B449+1</f>
+        <f t="shared" si="16"/>
         <v>448</v>
       </c>
       <c r="C450" t="s">
         <v>467</v>
       </c>
       <c r="D450" t="str">
-        <f t="shared" ref="D450:D453" si="17">"        "&amp;C450&amp;"="&amp;B450&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=448,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
@@ -9046,7 +9040,7 @@
       </c>
       <c r="D451" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=449,</v>
+        <v xml:space="preserve">        CopyImportDirective=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
@@ -9059,33 +9053,20 @@
       </c>
       <c r="D452" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=450,</v>
+        <v xml:space="preserve">        ReplaceDirective=450,</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B453" si="18">B452+1</f>
         <v>451</v>
       </c>
       <c r="C453" t="s">
         <v>470</v>
       </c>
       <c r="D453" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=451,</v>
-      </c>
-    </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B454" s="1">
-        <f t="shared" ref="B454" si="18">B453+1</f>
-        <v>452</v>
-      </c>
-      <c r="C454" t="s">
-        <v>471</v>
-      </c>
-      <c r="D454" t="str">
-        <f t="shared" ref="D454" si="19">"        "&amp;C454&amp;"="&amp;B454&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=452,</v>
+        <f t="shared" ref="D453" si="19">"        "&amp;C453&amp;"="&amp;B453&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=451,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="470">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1317,9 +1317,6 @@
   </si>
   <si>
     <t>XML_SCHEMA</t>
-  </si>
-  <si>
-    <t>YYYYDDD</t>
   </si>
   <si>
     <t>// Separators - Whitespace</t>
@@ -1848,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:D452"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455"/>
+      <selection activeCell="D423" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1863,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1881,14 +1878,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1913,7 +1910,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1929,7 +1926,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1945,7 +1942,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1961,7 +1958,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1977,7 +1974,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2009,14 +2006,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2025,7 +2022,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2041,7 +2038,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2057,7 +2054,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2073,7 +2070,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2089,7 +2086,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2121,7 +2118,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2137,7 +2134,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2153,7 +2150,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2169,7 +2166,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2201,7 +2198,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2233,7 +2230,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2249,7 +2246,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2265,7 +2262,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2281,7 +2278,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2297,7 +2294,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2326,14 +2323,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2358,7 +2355,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2390,7 +2387,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2406,7 +2403,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2435,14 +2432,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2451,14 +2448,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2483,14 +2480,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2499,7 +2496,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2515,7 +2512,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2531,7 +2528,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2547,7 +2544,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2563,7 +2560,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2579,7 +2576,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2595,7 +2592,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2611,7 +2608,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -2627,7 +2624,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2643,7 +2640,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -2659,7 +2656,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2691,7 +2688,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2707,7 +2704,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2723,7 +2720,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2739,14 +2736,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2755,7 +2752,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -2771,7 +2768,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2819,7 +2816,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2835,7 +2832,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2851,7 +2848,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2867,7 +2864,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2883,7 +2880,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2899,7 +2896,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2915,7 +2912,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2931,7 +2928,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
@@ -2947,7 +2944,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
@@ -2963,7 +2960,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
@@ -2979,7 +2976,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
@@ -2995,7 +2992,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -3011,14 +3008,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3027,7 +3024,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -3043,7 +3040,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -3059,7 +3056,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -3075,7 +3072,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -3091,7 +3088,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -3107,7 +3104,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -3123,7 +3120,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -3139,7 +3136,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3155,14 +3152,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3171,7 +3168,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -3187,7 +3184,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -3203,7 +3200,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -3219,7 +3216,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -3235,7 +3232,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
@@ -3267,7 +3264,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -3283,7 +3280,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -3299,7 +3296,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -3315,7 +3312,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -3331,7 +3328,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -3347,7 +3344,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -3363,7 +3360,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -3379,7 +3376,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -3395,7 +3392,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -3411,7 +3408,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -3427,7 +3424,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -3443,7 +3440,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -3459,7 +3456,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -3475,7 +3472,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -3491,7 +3488,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -3507,7 +3504,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -3523,7 +3520,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -3539,7 +3536,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -3555,7 +3552,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -3571,7 +3568,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -3587,7 +3584,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -3603,7 +3600,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -3619,7 +3616,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -3635,7 +3632,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -3651,7 +3648,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -3667,7 +3664,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -3683,7 +3680,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -3715,7 +3712,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -3731,7 +3728,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -3747,7 +3744,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -3763,7 +3760,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -3795,7 +3792,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -3811,7 +3808,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -3827,7 +3824,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -3843,7 +3840,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -3859,7 +3856,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
@@ -3875,7 +3872,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -3891,7 +3888,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -3907,7 +3904,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -3923,7 +3920,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
@@ -3939,7 +3936,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -3955,7 +3952,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
@@ -3971,7 +3968,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
@@ -3987,7 +3984,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
@@ -4003,7 +4000,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
@@ -4019,7 +4016,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
@@ -4035,7 +4032,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
@@ -4051,7 +4048,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
@@ -4067,7 +4064,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
@@ -4083,7 +4080,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
@@ -4099,7 +4096,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
@@ -4115,7 +4112,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
@@ -4131,7 +4128,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
@@ -4147,7 +4144,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
@@ -4163,7 +4160,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
@@ -4179,7 +4176,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
@@ -4195,7 +4192,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
@@ -4227,7 +4224,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
@@ -4259,7 +4256,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
@@ -4275,7 +4272,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
@@ -4291,7 +4288,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
@@ -4307,7 +4304,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
@@ -4339,7 +4336,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
@@ -4355,7 +4352,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
@@ -4371,7 +4368,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
@@ -4387,7 +4384,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
@@ -4403,7 +4400,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
@@ -4419,7 +4416,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
@@ -4451,7 +4448,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
@@ -4467,7 +4464,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
@@ -4483,7 +4480,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
@@ -4499,7 +4496,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
@@ -4515,7 +4512,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
@@ -4531,7 +4528,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
@@ -4547,7 +4544,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
@@ -4563,7 +4560,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
@@ -4579,7 +4576,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
@@ -4595,7 +4592,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
@@ -4611,7 +4608,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
@@ -4627,7 +4624,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
@@ -4643,7 +4640,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
@@ -4659,7 +4656,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
@@ -4675,7 +4672,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
@@ -4691,7 +4688,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
@@ -4707,7 +4704,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
@@ -4723,7 +4720,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
@@ -4739,7 +4736,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
@@ -4755,7 +4752,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
@@ -4771,7 +4768,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
@@ -4787,7 +4784,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
@@ -4803,7 +4800,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
@@ -4819,7 +4816,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
@@ -4835,7 +4832,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
@@ -4867,7 +4864,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
@@ -4883,7 +4880,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
@@ -4899,7 +4896,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
@@ -4931,7 +4928,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
@@ -4947,7 +4944,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
@@ -4963,7 +4960,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
@@ -4979,7 +4976,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B257" si="7">B195+1</f>
@@ -4995,7 +4992,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
@@ -5011,7 +5008,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
@@ -5027,7 +5024,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
@@ -5043,7 +5040,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
@@ -5059,7 +5056,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
@@ -5075,7 +5072,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
@@ -5107,7 +5104,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
@@ -5123,7 +5120,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
@@ -5139,7 +5136,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
@@ -5155,7 +5152,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
@@ -5171,7 +5168,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
@@ -5187,7 +5184,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
@@ -5203,7 +5200,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
@@ -5219,7 +5216,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
@@ -5235,7 +5232,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
@@ -5251,7 +5248,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
@@ -5267,7 +5264,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
@@ -5283,7 +5280,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
@@ -5299,7 +5296,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
@@ -5315,7 +5312,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
@@ -5331,7 +5328,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
@@ -5347,7 +5344,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
@@ -5363,7 +5360,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
@@ -5379,7 +5376,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
@@ -5395,7 +5392,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
@@ -5411,7 +5408,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
@@ -5443,7 +5440,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
@@ -5475,7 +5472,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
@@ -5491,7 +5488,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
@@ -5507,7 +5504,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
@@ -5523,7 +5520,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
@@ -5539,7 +5536,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
@@ -5555,7 +5552,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
@@ -5571,7 +5568,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
@@ -5587,7 +5584,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
@@ -5603,7 +5600,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
@@ -5619,7 +5616,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
@@ -5635,7 +5632,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
@@ -5651,7 +5648,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
@@ -5667,7 +5664,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
@@ -5683,7 +5680,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
@@ -5699,7 +5696,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
@@ -5715,7 +5712,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
@@ -5731,7 +5728,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
@@ -5747,7 +5744,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
@@ -5763,7 +5760,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
@@ -5779,7 +5776,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
@@ -5795,7 +5792,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
@@ -5811,7 +5808,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
@@ -5827,7 +5824,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
@@ -5843,7 +5840,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
@@ -5859,7 +5856,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
@@ -5875,7 +5872,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
@@ -5891,7 +5888,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
@@ -5907,7 +5904,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
@@ -5923,7 +5920,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
@@ -5939,7 +5936,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
@@ -5955,7 +5952,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
@@ -5971,7 +5968,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" ref="B258:B319" si="9">B257+1</f>
@@ -5987,7 +5984,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="9"/>
@@ -6003,7 +6000,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
@@ -6019,7 +6016,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
@@ -6035,7 +6032,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
@@ -6051,7 +6048,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
@@ -6067,7 +6064,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
@@ -6083,7 +6080,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
@@ -6099,7 +6096,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
@@ -6115,7 +6112,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
@@ -6147,7 +6144,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
@@ -6163,7 +6160,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
@@ -6179,7 +6176,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
@@ -6195,7 +6192,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
@@ -6211,7 +6208,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
@@ -6227,7 +6224,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
@@ -6243,7 +6240,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
@@ -6259,7 +6256,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
@@ -6275,7 +6272,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
@@ -6291,7 +6288,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
@@ -6307,7 +6304,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
@@ -6323,7 +6320,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
@@ -6339,7 +6336,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
@@ -6355,7 +6352,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
@@ -6371,7 +6368,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
@@ -6387,7 +6384,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
@@ -6403,7 +6400,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
@@ -6419,7 +6416,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
@@ -6435,7 +6432,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
@@ -6451,7 +6448,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
@@ -6467,7 +6464,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
@@ -6483,7 +6480,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
@@ -6499,7 +6496,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
@@ -6515,7 +6512,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
@@ -6531,7 +6528,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
@@ -6547,7 +6544,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
@@ -6563,7 +6560,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
@@ -6579,7 +6576,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
@@ -6595,7 +6592,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
@@ -6611,7 +6608,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
@@ -6627,7 +6624,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
@@ -6643,7 +6640,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
@@ -6659,7 +6656,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
@@ -6675,7 +6672,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
@@ -6691,7 +6688,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
@@ -6707,7 +6704,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
@@ -6723,7 +6720,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
@@ -6739,7 +6736,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
@@ -6755,7 +6752,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
@@ -6771,7 +6768,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
@@ -6787,7 +6784,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
@@ -6803,7 +6800,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
@@ -6819,7 +6816,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
@@ -6835,7 +6832,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
@@ -6851,7 +6848,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
@@ -6867,7 +6864,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
@@ -6883,7 +6880,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
@@ -6899,7 +6896,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
@@ -6915,7 +6912,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
@@ -6931,7 +6928,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
@@ -6947,7 +6944,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
@@ -6963,7 +6960,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" ref="B320:B378" si="11">B319+1</f>
@@ -6979,7 +6976,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="11"/>
@@ -6995,7 +6992,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="11"/>
@@ -7011,7 +7008,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
@@ -7043,7 +7040,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
@@ -7059,7 +7056,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
@@ -7075,7 +7072,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
@@ -7091,7 +7088,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
@@ -7107,7 +7104,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
@@ -7123,7 +7120,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
@@ -7139,7 +7136,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
@@ -7155,7 +7152,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
@@ -7171,7 +7168,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
@@ -7187,7 +7184,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
@@ -7203,7 +7200,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
@@ -7219,7 +7216,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
@@ -7235,7 +7232,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
@@ -7251,7 +7248,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
@@ -7267,7 +7264,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
@@ -7283,7 +7280,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
@@ -7299,7 +7296,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
@@ -7315,7 +7312,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
@@ -7331,7 +7328,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
@@ -7347,7 +7344,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
@@ -7363,7 +7360,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
@@ -7379,7 +7376,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
@@ -7395,7 +7392,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
@@ -7411,7 +7408,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
@@ -7427,7 +7424,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
@@ -7443,7 +7440,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
@@ -7459,7 +7456,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
@@ -7475,7 +7472,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
@@ -7491,7 +7488,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
@@ -7507,7 +7504,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
@@ -7523,7 +7520,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
@@ -7539,7 +7536,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
@@ -7555,7 +7552,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
@@ -7571,7 +7568,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
@@ -7587,7 +7584,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
@@ -7603,7 +7600,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
@@ -7619,7 +7616,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
@@ -7635,7 +7632,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
@@ -7651,7 +7648,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
@@ -7667,7 +7664,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
@@ -7683,7 +7680,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
@@ -7699,7 +7696,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
@@ -7715,7 +7712,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
@@ -7731,7 +7728,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
@@ -7747,7 +7744,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
@@ -7763,7 +7760,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
@@ -7779,7 +7776,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
@@ -7795,7 +7792,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
@@ -7811,7 +7808,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
@@ -7827,7 +7824,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
@@ -7843,7 +7840,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
@@ -7859,7 +7856,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
@@ -7875,7 +7872,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
@@ -7891,7 +7888,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
@@ -7907,10 +7904,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B379" s="1">
-        <f t="shared" ref="B379:B440" si="13">B378+1</f>
+        <f t="shared" ref="B379:B441" si="13">B378+1</f>
         <v>377</v>
       </c>
       <c r="C379" t="s">
@@ -7923,7 +7920,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="13"/>
@@ -7939,7 +7936,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="13"/>
@@ -7955,7 +7952,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="13"/>
@@ -7971,7 +7968,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="13"/>
@@ -7987,7 +7984,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="13"/>
@@ -8003,7 +8000,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="13"/>
@@ -8019,7 +8016,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
@@ -8035,7 +8032,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
@@ -8051,7 +8048,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
@@ -8067,7 +8064,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
@@ -8083,7 +8080,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
@@ -8099,7 +8096,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
@@ -8115,7 +8112,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
@@ -8131,7 +8128,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
@@ -8147,7 +8144,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
@@ -8163,7 +8160,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
@@ -8179,7 +8176,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
@@ -8195,7 +8192,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
@@ -8211,7 +8208,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
@@ -8227,7 +8224,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
@@ -8243,7 +8240,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
@@ -8259,7 +8256,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
@@ -8275,7 +8272,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
@@ -8291,7 +8288,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
@@ -8307,7 +8304,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
@@ -8323,7 +8320,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
@@ -8339,7 +8336,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
@@ -8355,7 +8352,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
@@ -8371,7 +8368,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
@@ -8387,7 +8384,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
@@ -8403,7 +8400,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
@@ -8419,7 +8416,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
@@ -8435,7 +8432,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
@@ -8451,7 +8448,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
@@ -8467,7 +8464,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
@@ -8483,7 +8480,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
@@ -8499,7 +8496,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
@@ -8515,7 +8512,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
@@ -8531,7 +8528,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
@@ -8547,7 +8544,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
@@ -8563,7 +8560,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
@@ -8579,7 +8576,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
@@ -8595,7 +8592,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
@@ -8611,7 +8608,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
@@ -8627,7 +8624,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
@@ -8643,7 +8640,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
@@ -8659,7 +8656,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
@@ -8675,7 +8672,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
@@ -8691,7 +8688,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
@@ -8707,7 +8704,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
@@ -8723,7 +8720,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
@@ -8739,7 +8736,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
@@ -8755,7 +8752,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
@@ -8771,7 +8768,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
@@ -8787,7 +8784,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
@@ -8803,7 +8800,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
@@ -8819,7 +8816,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
@@ -8835,7 +8832,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
@@ -8851,7 +8848,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
@@ -8867,7 +8864,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
@@ -8877,13 +8874,13 @@
         <v>429</v>
       </c>
       <c r="D439" t="str">
-        <f t="shared" ref="D439:D448" si="14">"        "&amp;C439&amp;"="&amp;B439&amp;","</f>
+        <f t="shared" ref="D439:D447" si="14">"        "&amp;C439&amp;"="&amp;B439&amp;","</f>
         <v xml:space="preserve">        WRITE_ONLY=437,</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
@@ -8898,24 +8895,21 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>433</v>
-      </c>
       <c r="B441" s="1">
-        <f t="shared" ref="B441:B448" si="15">B440+1</f>
+        <f t="shared" si="13"/>
         <v>439</v>
       </c>
       <c r="C441" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="D441" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        YYYYDDD=439,</v>
+        <v xml:space="preserve">        TYPEDEF=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B442" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B442:B447" si="15">B441+1</f>
         <v>440</v>
       </c>
       <c r="C442" t="s">
@@ -8923,7 +8917,7 @@
       </c>
       <c r="D442" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=440,</v>
+        <v xml:space="preserve">        STRONG=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8936,7 +8930,7 @@
       </c>
       <c r="D443" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=441,</v>
+        <v xml:space="preserve">        UNSAFE=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8945,11 +8939,11 @@
         <v>442</v>
       </c>
       <c r="C444" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D444" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=442,</v>
+        <v xml:space="preserve">        PUBLIC=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8962,7 +8956,7 @@
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=443,</v>
+        <v xml:space="preserve">        PRIVATE=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8971,11 +8965,11 @@
         <v>444</v>
       </c>
       <c r="C446" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=444,</v>
+        <v xml:space="preserve">        IN_OUT=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8988,33 +8982,33 @@
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=445,</v>
+        <v xml:space="preserve">        STRICT=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B448" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B448:B451" si="16">B447+1</f>
         <v>446</v>
       </c>
       <c r="C448" t="s">
         <v>465</v>
       </c>
       <c r="D448" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=446,</v>
+        <f t="shared" ref="D448:D451" si="17">"        "&amp;C448&amp;"="&amp;B448&amp;","</f>
+        <v xml:space="preserve">        QuestionMark=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
-        <f t="shared" ref="B449:B452" si="16">B448+1</f>
+        <f t="shared" si="16"/>
         <v>447</v>
       </c>
       <c r="C449" t="s">
         <v>466</v>
       </c>
       <c r="D449" t="str">
-        <f t="shared" ref="D449:D452" si="17">"        "&amp;C449&amp;"="&amp;B449&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=447,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        CompilerDirective=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
@@ -9027,7 +9021,7 @@
       </c>
       <c r="D450" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=448,</v>
+        <v xml:space="preserve">        CopyImportDirective=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
@@ -9040,33 +9034,20 @@
       </c>
       <c r="D451" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=449,</v>
+        <v xml:space="preserve">        ReplaceDirective=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B452" si="18">B451+1</f>
         <v>450</v>
       </c>
       <c r="C452" t="s">
         <v>469</v>
       </c>
       <c r="D452" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=450,</v>
-      </c>
-    </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B453" s="1">
-        <f t="shared" ref="B453" si="18">B452+1</f>
-        <v>451</v>
-      </c>
-      <c r="C453" t="s">
-        <v>470</v>
-      </c>
-      <c r="D453" t="str">
-        <f t="shared" ref="D453" si="19">"        "&amp;C453&amp;"="&amp;B453&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=451,</v>
+        <f t="shared" ref="D452" si="19">"        "&amp;C452&amp;"="&amp;B452&amp;","</f>
+        <v xml:space="preserve">        ContinuationTokenGroup=450,</v>
       </c>
     </row>
   </sheetData>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -155,9 +155,6 @@
     <t>ENTER</t>
   </si>
   <si>
-    <t>EXEC_SQL_INCLUDE</t>
-  </si>
-  <si>
     <t>INSERT</t>
   </si>
   <si>
@@ -1434,6 +1431,9 @@
   </si>
   <si>
     <t>ContinuationTokenGroup</t>
+  </si>
+  <si>
+    <t>EXEC_SQL</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="D423" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1863,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -1878,14 +1878,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" s="1">
         <f>B1+1</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D2" t="str">
         <f>"        "&amp;C2&amp;"="&amp;B2&amp;","</f>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="1">B3+1</f>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -2006,14 +2006,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -2323,14 +2323,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2432,14 +2432,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2448,14 +2448,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2480,14 +2480,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="1"/>
+        <f>B47+1</f>
         <v>46</v>
       </c>
       <c r="C48" t="s">
@@ -2624,7 +2624,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -2640,30 +2640,30 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>469</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        EXEC_SQL_INCLUDE=48,</v>
+        <v xml:space="preserve">        EXEC_SQL=48,</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="1"/>
+        <f>B50+1</f>
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -2672,14 +2672,14 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -2688,14 +2688,14 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -2704,14 +2704,14 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -2720,14 +2720,14 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -2736,14 +2736,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2752,14 +2752,14 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -2768,14 +2768,14 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -2784,14 +2784,14 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -2800,14 +2800,14 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -2816,14 +2816,14 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -2832,14 +2832,14 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2848,14 +2848,14 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -2864,14 +2864,14 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -2880,14 +2880,14 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -2896,14 +2896,14 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D129" si="2">"        "&amp;C66&amp;"="&amp;B66&amp;","</f>
@@ -2912,14 +2912,14 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="2"/>
@@ -2928,14 +2928,14 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B131" si="3">B67+1</f>
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="2"/>
@@ -2944,14 +2944,14 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="2"/>
@@ -2960,14 +2960,14 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
@@ -2976,14 +2976,14 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
@@ -2992,14 +2992,14 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
@@ -3008,14 +3008,14 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -3024,14 +3024,14 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
@@ -3040,14 +3040,14 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
@@ -3056,14 +3056,14 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
@@ -3072,14 +3072,14 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
@@ -3088,14 +3088,14 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
@@ -3104,14 +3104,14 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
@@ -3120,14 +3120,14 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
@@ -3136,14 +3136,14 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
@@ -3152,14 +3152,14 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -3168,14 +3168,14 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
@@ -3184,14 +3184,14 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
@@ -3200,14 +3200,14 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
@@ -3216,14 +3216,14 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
@@ -3232,14 +3232,14 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
@@ -3248,14 +3248,14 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
@@ -3264,14 +3264,14 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
@@ -3280,14 +3280,14 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
@@ -3296,14 +3296,14 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
@@ -3312,14 +3312,14 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
@@ -3328,14 +3328,14 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
@@ -3344,14 +3344,14 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
@@ -3360,14 +3360,14 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
@@ -3376,14 +3376,14 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
@@ -3392,14 +3392,14 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
@@ -3408,14 +3408,14 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="2"/>
@@ -3424,14 +3424,14 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="2"/>
@@ -3440,14 +3440,14 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="2"/>
@@ -3456,14 +3456,14 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="2"/>
@@ -3472,14 +3472,14 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="2"/>
@@ -3488,14 +3488,14 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="2"/>
@@ -3504,14 +3504,14 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="2"/>
@@ -3520,14 +3520,14 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="2"/>
@@ -3536,14 +3536,14 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="2"/>
@@ -3552,14 +3552,14 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="2"/>
@@ -3568,14 +3568,14 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="2"/>
@@ -3584,14 +3584,14 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="2"/>
@@ -3600,14 +3600,14 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="2"/>
@@ -3616,14 +3616,14 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="2"/>
@@ -3632,14 +3632,14 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="2"/>
@@ -3648,14 +3648,14 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="2"/>
@@ -3664,14 +3664,14 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="2"/>
@@ -3680,14 +3680,14 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="2"/>
@@ -3696,14 +3696,14 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="2"/>
@@ -3712,14 +3712,14 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="2"/>
@@ -3728,14 +3728,14 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="2"/>
@@ -3744,14 +3744,14 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="2"/>
@@ -3760,14 +3760,14 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="2"/>
@@ -3776,14 +3776,14 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
@@ -3792,14 +3792,14 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="2"/>
@@ -3808,14 +3808,14 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="2"/>
@@ -3824,14 +3824,14 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="2"/>
@@ -3840,14 +3840,14 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="2"/>
@@ -3856,14 +3856,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
@@ -3872,14 +3872,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="2"/>
@@ -3888,14 +3888,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="2"/>
@@ -3904,14 +3904,14 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="2"/>
@@ -3920,14 +3920,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="4">"        "&amp;C130&amp;"="&amp;B130&amp;","</f>
@@ -3936,14 +3936,14 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="4"/>
@@ -3952,14 +3952,14 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B195" si="5">B131+1</f>
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="4"/>
@@ -3968,14 +3968,14 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="4"/>
@@ -3984,14 +3984,14 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="4"/>
@@ -4000,14 +4000,14 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="4"/>
@@ -4016,14 +4016,14 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="4"/>
@@ -4032,14 +4032,14 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="4"/>
@@ -4048,14 +4048,14 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="4"/>
@@ -4064,14 +4064,14 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="4"/>
@@ -4080,14 +4080,14 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="4"/>
@@ -4096,14 +4096,14 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="4"/>
@@ -4112,14 +4112,14 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="4"/>
@@ -4128,14 +4128,14 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="4"/>
@@ -4144,14 +4144,14 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="4"/>
@@ -4160,14 +4160,14 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="4"/>
@@ -4176,14 +4176,14 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="4"/>
@@ -4192,14 +4192,14 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="4"/>
@@ -4208,14 +4208,14 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="4"/>
@@ -4224,14 +4224,14 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="4"/>
@@ -4240,14 +4240,14 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="4"/>
@@ -4256,14 +4256,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="4"/>
@@ -4272,14 +4272,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
@@ -4288,14 +4288,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="4"/>
@@ -4304,14 +4304,14 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="4"/>
@@ -4320,14 +4320,14 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="4"/>
@@ -4336,14 +4336,14 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="4"/>
@@ -4352,14 +4352,14 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="4"/>
@@ -4368,14 +4368,14 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="4"/>
@@ -4384,14 +4384,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="4"/>
@@ -4400,14 +4400,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="4"/>
@@ -4416,14 +4416,14 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="4"/>
@@ -4432,14 +4432,14 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="4"/>
@@ -4448,14 +4448,14 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="4"/>
@@ -4464,14 +4464,14 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="C164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="4"/>
@@ -4480,14 +4480,14 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="C165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="4"/>
@@ -4496,14 +4496,14 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="C166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="4"/>
@@ -4512,14 +4512,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="4"/>
@@ -4528,14 +4528,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="C168" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="4"/>
@@ -4544,14 +4544,14 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="4"/>
@@ -4560,14 +4560,14 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="C170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="4"/>
@@ -4576,14 +4576,14 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="4"/>
@@ -4592,14 +4592,14 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="4"/>
@@ -4608,14 +4608,14 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="4"/>
@@ -4624,14 +4624,14 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="C174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="4"/>
@@ -4640,14 +4640,14 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="C175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="4"/>
@@ -4656,14 +4656,14 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="C176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="4"/>
@@ -4672,14 +4672,14 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="4"/>
@@ -4688,14 +4688,14 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
       <c r="C178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="4"/>
@@ -4704,14 +4704,14 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="C179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="4"/>
@@ -4720,14 +4720,14 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="4"/>
@@ -4736,14 +4736,14 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="4"/>
@@ -4752,14 +4752,14 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="C182" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="4"/>
@@ -4768,14 +4768,14 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B183" s="1">
         <f>B182+1</f>
         <v>181</v>
       </c>
       <c r="C183" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="4"/>
@@ -4784,14 +4784,14 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="4"/>
@@ -4800,14 +4800,14 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="4"/>
@@ -4816,14 +4816,14 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="4"/>
@@ -4832,14 +4832,14 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="C187" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="4"/>
@@ -4848,14 +4848,14 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="C188" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="4"/>
@@ -4864,14 +4864,14 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="5"/>
         <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="4"/>
@@ -4880,14 +4880,14 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="5"/>
         <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="4"/>
@@ -4896,14 +4896,14 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="4"/>
@@ -4912,14 +4912,14 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="C192" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="4"/>
@@ -4928,14 +4928,14 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="C193" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="4"/>
@@ -4944,14 +4944,14 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" ref="D194:D255" si="6">"        "&amp;C194&amp;"="&amp;B194&amp;","</f>
@@ -4960,14 +4960,14 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="C195" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="6"/>
@@ -4976,14 +4976,14 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" ref="B196:B257" si="7">B195+1</f>
         <v>194</v>
       </c>
       <c r="C196" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="6"/>
@@ -4992,14 +4992,14 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="C197" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="6"/>
@@ -5008,14 +5008,14 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="7"/>
         <v>196</v>
       </c>
       <c r="C198" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="6"/>
@@ -5024,14 +5024,14 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="7"/>
         <v>197</v>
       </c>
       <c r="C199" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="6"/>
@@ -5040,14 +5040,14 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="7"/>
         <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="6"/>
@@ -5056,14 +5056,14 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="7"/>
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="6"/>
@@ -5072,14 +5072,14 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="6"/>
@@ -5088,14 +5088,14 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="7"/>
         <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="6"/>
@@ -5104,14 +5104,14 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="7"/>
         <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="6"/>
@@ -5120,14 +5120,14 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="7"/>
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="6"/>
@@ -5136,14 +5136,14 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="7"/>
         <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="6"/>
@@ -5152,14 +5152,14 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="7"/>
         <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="6"/>
@@ -5168,14 +5168,14 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="7"/>
         <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="6"/>
@@ -5184,14 +5184,14 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="7"/>
         <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="6"/>
@@ -5200,14 +5200,14 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="7"/>
         <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="6"/>
@@ -5216,14 +5216,14 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="7"/>
         <v>209</v>
       </c>
       <c r="C211" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="6"/>
@@ -5232,14 +5232,14 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="6"/>
@@ -5248,14 +5248,14 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="7"/>
         <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="6"/>
@@ -5264,14 +5264,14 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="7"/>
         <v>212</v>
       </c>
       <c r="C214" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="6"/>
@@ -5280,14 +5280,14 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="7"/>
         <v>213</v>
       </c>
       <c r="C215" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="6"/>
@@ -5296,14 +5296,14 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="7"/>
         <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="6"/>
@@ -5312,14 +5312,14 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="7"/>
         <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="6"/>
@@ -5328,14 +5328,14 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="7"/>
         <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="6"/>
@@ -5344,14 +5344,14 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="7"/>
         <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="6"/>
@@ -5360,14 +5360,14 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="7"/>
         <v>218</v>
       </c>
       <c r="C220" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="6"/>
@@ -5376,14 +5376,14 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="7"/>
         <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="6"/>
@@ -5392,14 +5392,14 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="6"/>
@@ -5408,14 +5408,14 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="7"/>
         <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="6"/>
@@ -5424,14 +5424,14 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="7"/>
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="6"/>
@@ -5440,14 +5440,14 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="7"/>
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="6"/>
@@ -5456,14 +5456,14 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="7"/>
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="6"/>
@@ -5472,14 +5472,14 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="6"/>
@@ -5488,14 +5488,14 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="7"/>
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="6"/>
@@ -5504,14 +5504,14 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="7"/>
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="6"/>
@@ -5520,14 +5520,14 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="7"/>
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="6"/>
@@ -5536,14 +5536,14 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="7"/>
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="6"/>
@@ -5552,14 +5552,14 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="7"/>
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="6"/>
@@ -5568,14 +5568,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="7"/>
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="6"/>
@@ -5584,14 +5584,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="7"/>
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="6"/>
@@ -5600,14 +5600,14 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="7"/>
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="6"/>
@@ -5616,14 +5616,14 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="7"/>
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="6"/>
@@ -5632,14 +5632,14 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="6"/>
@@ -5648,14 +5648,14 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="7"/>
         <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="6"/>
@@ -5664,14 +5664,14 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="7"/>
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="6"/>
@@ -5680,14 +5680,14 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="7"/>
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="6"/>
@@ -5696,14 +5696,14 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="7"/>
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="6"/>
@@ -5712,14 +5712,14 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="6"/>
@@ -5728,14 +5728,14 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="6"/>
@@ -5744,14 +5744,14 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="6"/>
@@ -5760,14 +5760,14 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="7"/>
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="6"/>
@@ -5776,14 +5776,14 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="7"/>
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="6"/>
@@ -5792,14 +5792,14 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="7"/>
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="6"/>
@@ -5808,14 +5808,14 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="7"/>
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="6"/>
@@ -5824,14 +5824,14 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="6"/>
@@ -5840,14 +5840,14 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="7"/>
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="6"/>
@@ -5856,14 +5856,14 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="7"/>
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="6"/>
@@ -5872,14 +5872,14 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D252" t="str">
         <f t="shared" si="6"/>
@@ -5888,14 +5888,14 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="7"/>
         <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="6"/>
@@ -5904,14 +5904,14 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="7"/>
         <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D254" t="str">
         <f t="shared" si="6"/>
@@ -5920,14 +5920,14 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="7"/>
         <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="6"/>
@@ -5936,14 +5936,14 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="7"/>
         <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" ref="D256:D316" si="8">"        "&amp;C256&amp;"="&amp;B256&amp;","</f>
@@ -5952,14 +5952,14 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="7"/>
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="8"/>
@@ -5968,14 +5968,14 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" ref="B258:B319" si="9">B257+1</f>
         <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="8"/>
@@ -5984,14 +5984,14 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="9"/>
         <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="8"/>
@@ -6000,14 +6000,14 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="9"/>
         <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="8"/>
@@ -6016,14 +6016,14 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="9"/>
         <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="8"/>
@@ -6032,14 +6032,14 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="8"/>
@@ -6048,14 +6048,14 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="9"/>
         <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="8"/>
@@ -6064,14 +6064,14 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="9"/>
         <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="8"/>
@@ -6080,14 +6080,14 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="9"/>
         <v>263</v>
       </c>
       <c r="C265" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="8"/>
@@ -6096,14 +6096,14 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D266" t="str">
         <f t="shared" si="8"/>
@@ -6112,14 +6112,14 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="9"/>
         <v>265</v>
       </c>
       <c r="C267" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="8"/>
@@ -6128,14 +6128,14 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="9"/>
         <v>266</v>
       </c>
       <c r="C268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D268" t="str">
         <f t="shared" si="8"/>
@@ -6144,14 +6144,14 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="9"/>
         <v>267</v>
       </c>
       <c r="C269" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="8"/>
@@ -6160,14 +6160,14 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="C270" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="8"/>
@@ -6176,14 +6176,14 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="9"/>
         <v>269</v>
       </c>
       <c r="C271" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D271" t="str">
         <f t="shared" si="8"/>
@@ -6192,14 +6192,14 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="C272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D272" t="str">
         <f t="shared" si="8"/>
@@ -6208,14 +6208,14 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="9"/>
         <v>271</v>
       </c>
       <c r="C273" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D273" t="str">
         <f t="shared" si="8"/>
@@ -6224,14 +6224,14 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="9"/>
         <v>272</v>
       </c>
       <c r="C274" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D274" t="str">
         <f t="shared" si="8"/>
@@ -6240,14 +6240,14 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="9"/>
         <v>273</v>
       </c>
       <c r="C275" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="8"/>
@@ -6256,14 +6256,14 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="9"/>
         <v>274</v>
       </c>
       <c r="C276" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D276" t="str">
         <f t="shared" si="8"/>
@@ -6272,14 +6272,14 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="9"/>
         <v>275</v>
       </c>
       <c r="C277" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="8"/>
@@ -6288,14 +6288,14 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="C278" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D278" t="str">
         <f t="shared" si="8"/>
@@ -6304,14 +6304,14 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="9"/>
         <v>277</v>
       </c>
       <c r="C279" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="8"/>
@@ -6320,14 +6320,14 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="C280" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="8"/>
@@ -6336,14 +6336,14 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="9"/>
         <v>279</v>
       </c>
       <c r="C281" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="8"/>
@@ -6352,14 +6352,14 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="C282" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D282" t="str">
         <f t="shared" si="8"/>
@@ -6368,14 +6368,14 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="9"/>
         <v>281</v>
       </c>
       <c r="C283" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="8"/>
@@ -6384,14 +6384,14 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="9"/>
         <v>282</v>
       </c>
       <c r="C284" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D284" t="str">
         <f t="shared" si="8"/>
@@ -6400,14 +6400,14 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="9"/>
         <v>283</v>
       </c>
       <c r="C285" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="8"/>
@@ -6416,14 +6416,14 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="9"/>
         <v>284</v>
       </c>
       <c r="C286" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D286" t="str">
         <f t="shared" si="8"/>
@@ -6432,14 +6432,14 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="9"/>
         <v>285</v>
       </c>
       <c r="C287" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="8"/>
@@ -6448,14 +6448,14 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="9"/>
         <v>286</v>
       </c>
       <c r="C288" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D288" t="str">
         <f t="shared" si="8"/>
@@ -6464,14 +6464,14 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="9"/>
         <v>287</v>
       </c>
       <c r="C289" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="8"/>
@@ -6480,14 +6480,14 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="9"/>
         <v>288</v>
       </c>
       <c r="C290" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D290" t="str">
         <f t="shared" si="8"/>
@@ -6496,14 +6496,14 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="C291" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="8"/>
@@ -6512,14 +6512,14 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="9"/>
         <v>290</v>
       </c>
       <c r="C292" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="8"/>
@@ -6528,14 +6528,14 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="C293" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D293" t="str">
         <f t="shared" si="8"/>
@@ -6544,14 +6544,14 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="C294" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D294" t="str">
         <f t="shared" si="8"/>
@@ -6560,14 +6560,14 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="C295" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="8"/>
@@ -6576,14 +6576,14 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="C296" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D296" t="str">
         <f t="shared" si="8"/>
@@ -6592,14 +6592,14 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="C297" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="8"/>
@@ -6608,14 +6608,14 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="C298" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D298" t="str">
         <f t="shared" si="8"/>
@@ -6624,14 +6624,14 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="9"/>
         <v>297</v>
       </c>
       <c r="C299" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D299" t="str">
         <f t="shared" si="8"/>
@@ -6640,14 +6640,14 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="9"/>
         <v>298</v>
       </c>
       <c r="C300" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D300" t="str">
         <f t="shared" si="8"/>
@@ -6656,14 +6656,14 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="9"/>
         <v>299</v>
       </c>
       <c r="C301" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" si="8"/>
@@ -6672,14 +6672,14 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="C302" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D302" t="str">
         <f t="shared" si="8"/>
@@ -6688,14 +6688,14 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="9"/>
         <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D303" t="str">
         <f t="shared" si="8"/>
@@ -6704,14 +6704,14 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="9"/>
         <v>302</v>
       </c>
       <c r="C304" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D304" t="str">
         <f t="shared" si="8"/>
@@ -6720,14 +6720,14 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="9"/>
         <v>303</v>
       </c>
       <c r="C305" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D305" t="str">
         <f t="shared" si="8"/>
@@ -6736,14 +6736,14 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="9"/>
         <v>304</v>
       </c>
       <c r="C306" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D306" t="str">
         <f t="shared" si="8"/>
@@ -6752,14 +6752,14 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="9"/>
         <v>305</v>
       </c>
       <c r="C307" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D307" t="str">
         <f t="shared" si="8"/>
@@ -6768,14 +6768,14 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="9"/>
         <v>306</v>
       </c>
       <c r="C308" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D308" t="str">
         <f t="shared" si="8"/>
@@ -6784,14 +6784,14 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="9"/>
         <v>307</v>
       </c>
       <c r="C309" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D309" t="str">
         <f t="shared" si="8"/>
@@ -6800,14 +6800,14 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="9"/>
         <v>308</v>
       </c>
       <c r="C310" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D310" t="str">
         <f t="shared" si="8"/>
@@ -6816,14 +6816,14 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="9"/>
         <v>309</v>
       </c>
       <c r="C311" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D311" t="str">
         <f t="shared" si="8"/>
@@ -6832,14 +6832,14 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="9"/>
         <v>310</v>
       </c>
       <c r="C312" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D312" t="str">
         <f t="shared" si="8"/>
@@ -6848,14 +6848,14 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="9"/>
         <v>311</v>
       </c>
       <c r="C313" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D313" t="str">
         <f t="shared" si="8"/>
@@ -6864,14 +6864,14 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="9"/>
         <v>312</v>
       </c>
       <c r="C314" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D314" t="str">
         <f t="shared" si="8"/>
@@ -6880,14 +6880,14 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="9"/>
         <v>313</v>
       </c>
       <c r="C315" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D315" t="str">
         <f t="shared" si="8"/>
@@ -6896,14 +6896,14 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="9"/>
         <v>314</v>
       </c>
       <c r="C316" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D316" t="str">
         <f t="shared" si="8"/>
@@ -6912,14 +6912,14 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="9"/>
         <v>315</v>
       </c>
       <c r="C317" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D317" t="str">
         <f t="shared" ref="D317:D375" si="10">"        "&amp;C317&amp;"="&amp;B317&amp;","</f>
@@ -6928,14 +6928,14 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="9"/>
         <v>316</v>
       </c>
       <c r="C318" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D318" t="str">
         <f t="shared" si="10"/>
@@ -6944,14 +6944,14 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="9"/>
         <v>317</v>
       </c>
       <c r="C319" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D319" t="str">
         <f t="shared" si="10"/>
@@ -6960,14 +6960,14 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" ref="B320:B378" si="11">B319+1</f>
         <v>318</v>
       </c>
       <c r="C320" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D320" t="str">
         <f t="shared" si="10"/>
@@ -6976,14 +6976,14 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="11"/>
         <v>319</v>
       </c>
       <c r="C321" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D321" t="str">
         <f t="shared" si="10"/>
@@ -6992,14 +6992,14 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="C322" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D322" t="str">
         <f t="shared" si="10"/>
@@ -7008,14 +7008,14 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
         <v>321</v>
       </c>
       <c r="C323" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D323" t="str">
         <f t="shared" si="10"/>
@@ -7024,14 +7024,14 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
         <v>322</v>
       </c>
       <c r="C324" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D324" t="str">
         <f t="shared" si="10"/>
@@ -7040,14 +7040,14 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="11"/>
         <v>323</v>
       </c>
       <c r="C325" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="10"/>
@@ -7056,14 +7056,14 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="11"/>
         <v>324</v>
       </c>
       <c r="C326" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D326" t="str">
         <f t="shared" si="10"/>
@@ -7072,14 +7072,14 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="11"/>
         <v>325</v>
       </c>
       <c r="C327" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D327" t="str">
         <f t="shared" si="10"/>
@@ -7088,14 +7088,14 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="11"/>
         <v>326</v>
       </c>
       <c r="C328" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D328" t="str">
         <f t="shared" si="10"/>
@@ -7104,14 +7104,14 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="11"/>
         <v>327</v>
       </c>
       <c r="C329" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D329" t="str">
         <f t="shared" si="10"/>
@@ -7120,14 +7120,14 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="11"/>
         <v>328</v>
       </c>
       <c r="C330" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D330" t="str">
         <f t="shared" si="10"/>
@@ -7136,14 +7136,14 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="11"/>
         <v>329</v>
       </c>
       <c r="C331" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D331" t="str">
         <f t="shared" si="10"/>
@@ -7152,14 +7152,14 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="11"/>
         <v>330</v>
       </c>
       <c r="C332" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D332" t="str">
         <f t="shared" si="10"/>
@@ -7168,14 +7168,14 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="11"/>
         <v>331</v>
       </c>
       <c r="C333" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D333" t="str">
         <f t="shared" si="10"/>
@@ -7184,14 +7184,14 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="11"/>
         <v>332</v>
       </c>
       <c r="C334" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D334" t="str">
         <f t="shared" si="10"/>
@@ -7200,14 +7200,14 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="11"/>
         <v>333</v>
       </c>
       <c r="C335" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D335" t="str">
         <f t="shared" si="10"/>
@@ -7216,14 +7216,14 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="11"/>
         <v>334</v>
       </c>
       <c r="C336" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D336" t="str">
         <f t="shared" si="10"/>
@@ -7232,14 +7232,14 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="11"/>
         <v>335</v>
       </c>
       <c r="C337" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D337" t="str">
         <f t="shared" si="10"/>
@@ -7248,14 +7248,14 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="C338" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D338" t="str">
         <f t="shared" si="10"/>
@@ -7264,14 +7264,14 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="11"/>
         <v>337</v>
       </c>
       <c r="C339" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D339" t="str">
         <f t="shared" si="10"/>
@@ -7280,14 +7280,14 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="11"/>
         <v>338</v>
       </c>
       <c r="C340" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D340" t="str">
         <f t="shared" si="10"/>
@@ -7296,14 +7296,14 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="11"/>
         <v>339</v>
       </c>
       <c r="C341" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D341" t="str">
         <f t="shared" si="10"/>
@@ -7312,14 +7312,14 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="C342" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D342" t="str">
         <f t="shared" si="10"/>
@@ -7328,14 +7328,14 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="11"/>
         <v>341</v>
       </c>
       <c r="C343" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D343" t="str">
         <f t="shared" si="10"/>
@@ -7344,14 +7344,14 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="11"/>
         <v>342</v>
       </c>
       <c r="C344" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
@@ -7360,14 +7360,14 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="11"/>
         <v>343</v>
       </c>
       <c r="C345" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D345" t="str">
         <f t="shared" si="10"/>
@@ -7376,14 +7376,14 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="11"/>
         <v>344</v>
       </c>
       <c r="C346" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D346" t="str">
         <f t="shared" si="10"/>
@@ -7392,14 +7392,14 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="11"/>
         <v>345</v>
       </c>
       <c r="C347" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D347" t="str">
         <f t="shared" si="10"/>
@@ -7408,14 +7408,14 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="11"/>
         <v>346</v>
       </c>
       <c r="C348" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D348" t="str">
         <f t="shared" si="10"/>
@@ -7424,14 +7424,14 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="11"/>
         <v>347</v>
       </c>
       <c r="C349" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D349" t="str">
         <f t="shared" si="10"/>
@@ -7440,14 +7440,14 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="11"/>
         <v>348</v>
       </c>
       <c r="C350" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D350" t="str">
         <f t="shared" si="10"/>
@@ -7456,14 +7456,14 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="11"/>
         <v>349</v>
       </c>
       <c r="C351" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D351" t="str">
         <f t="shared" si="10"/>
@@ -7472,14 +7472,14 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="11"/>
         <v>350</v>
       </c>
       <c r="C352" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D352" t="str">
         <f t="shared" si="10"/>
@@ -7488,14 +7488,14 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="11"/>
         <v>351</v>
       </c>
       <c r="C353" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D353" t="str">
         <f t="shared" si="10"/>
@@ -7504,14 +7504,14 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="11"/>
         <v>352</v>
       </c>
       <c r="C354" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D354" t="str">
         <f t="shared" si="10"/>
@@ -7520,14 +7520,14 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="11"/>
         <v>353</v>
       </c>
       <c r="C355" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D355" t="str">
         <f t="shared" si="10"/>
@@ -7536,14 +7536,14 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="11"/>
         <v>354</v>
       </c>
       <c r="C356" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D356" t="str">
         <f t="shared" si="10"/>
@@ -7552,14 +7552,14 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="11"/>
         <v>355</v>
       </c>
       <c r="C357" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D357" t="str">
         <f t="shared" si="10"/>
@@ -7568,14 +7568,14 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="11"/>
         <v>356</v>
       </c>
       <c r="C358" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D358" t="str">
         <f t="shared" si="10"/>
@@ -7584,14 +7584,14 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="11"/>
         <v>357</v>
       </c>
       <c r="C359" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
@@ -7600,14 +7600,14 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="11"/>
         <v>358</v>
       </c>
       <c r="C360" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D360" t="str">
         <f t="shared" si="10"/>
@@ -7616,14 +7616,14 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="11"/>
         <v>359</v>
       </c>
       <c r="C361" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D361" t="str">
         <f t="shared" si="10"/>
@@ -7632,14 +7632,14 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="11"/>
         <v>360</v>
       </c>
       <c r="C362" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D362" t="str">
         <f t="shared" si="10"/>
@@ -7648,14 +7648,14 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="11"/>
         <v>361</v>
       </c>
       <c r="C363" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D363" t="str">
         <f t="shared" si="10"/>
@@ -7664,14 +7664,14 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="11"/>
         <v>362</v>
       </c>
       <c r="C364" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D364" t="str">
         <f t="shared" si="10"/>
@@ -7680,14 +7680,14 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="11"/>
         <v>363</v>
       </c>
       <c r="C365" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D365" t="str">
         <f t="shared" si="10"/>
@@ -7696,14 +7696,14 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="11"/>
         <v>364</v>
       </c>
       <c r="C366" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D366" t="str">
         <f t="shared" si="10"/>
@@ -7712,14 +7712,14 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="11"/>
         <v>365</v>
       </c>
       <c r="C367" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
@@ -7728,14 +7728,14 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="11"/>
         <v>366</v>
       </c>
       <c r="C368" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D368" t="str">
         <f t="shared" si="10"/>
@@ -7744,14 +7744,14 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B369" s="1">
         <f t="shared" si="11"/>
         <v>367</v>
       </c>
       <c r="C369" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D369" t="str">
         <f t="shared" si="10"/>
@@ -7760,14 +7760,14 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B370" s="1">
         <f t="shared" si="11"/>
         <v>368</v>
       </c>
       <c r="C370" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D370" t="str">
         <f t="shared" si="10"/>
@@ -7776,14 +7776,14 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B371" s="1">
         <f t="shared" si="11"/>
         <v>369</v>
       </c>
       <c r="C371" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D371" t="str">
         <f t="shared" si="10"/>
@@ -7792,14 +7792,14 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B372" s="1">
         <f t="shared" si="11"/>
         <v>370</v>
       </c>
       <c r="C372" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D372" t="str">
         <f t="shared" si="10"/>
@@ -7808,14 +7808,14 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B373" s="1">
         <f t="shared" si="11"/>
         <v>371</v>
       </c>
       <c r="C373" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D373" t="str">
         <f t="shared" si="10"/>
@@ -7824,14 +7824,14 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B374" s="1">
         <f t="shared" si="11"/>
         <v>372</v>
       </c>
       <c r="C374" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D374" t="str">
         <f t="shared" si="10"/>
@@ -7840,14 +7840,14 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B375" s="1">
         <f t="shared" si="11"/>
         <v>373</v>
       </c>
       <c r="C375" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D375" t="str">
         <f t="shared" si="10"/>
@@ -7856,14 +7856,14 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B376" s="1">
         <f t="shared" si="11"/>
         <v>374</v>
       </c>
       <c r="C376" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D376" t="str">
         <f t="shared" ref="D376:D438" si="12">"        "&amp;C376&amp;"="&amp;B376&amp;","</f>
@@ -7872,14 +7872,14 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B377" s="1">
         <f t="shared" si="11"/>
         <v>375</v>
       </c>
       <c r="C377" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D377" t="str">
         <f t="shared" si="12"/>
@@ -7888,14 +7888,14 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B378" s="1">
         <f t="shared" si="11"/>
         <v>376</v>
       </c>
       <c r="C378" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D378" t="str">
         <f t="shared" si="12"/>
@@ -7904,14 +7904,14 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B379" s="1">
         <f t="shared" ref="B379:B441" si="13">B378+1</f>
         <v>377</v>
       </c>
       <c r="C379" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D379" t="str">
         <f t="shared" si="12"/>
@@ -7920,14 +7920,14 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B380" s="1">
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
       <c r="C380" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D380" t="str">
         <f t="shared" si="12"/>
@@ -7936,14 +7936,14 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B381" s="1">
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
       <c r="C381" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D381" t="str">
         <f t="shared" si="12"/>
@@ -7952,14 +7952,14 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B382" s="1">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
       <c r="C382" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D382" t="str">
         <f t="shared" si="12"/>
@@ -7968,14 +7968,14 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B383" s="1">
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
       <c r="C383" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D383" t="str">
         <f t="shared" si="12"/>
@@ -7984,14 +7984,14 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B384" s="1">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
       <c r="C384" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D384" t="str">
         <f t="shared" si="12"/>
@@ -8000,14 +8000,14 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B385" s="1">
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
       <c r="C385" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D385" t="str">
         <f t="shared" si="12"/>
@@ -8016,14 +8016,14 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B386" s="1">
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
       <c r="C386" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D386" t="str">
         <f t="shared" si="12"/>
@@ -8032,14 +8032,14 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B387" s="1">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
       <c r="C387" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D387" t="str">
         <f t="shared" si="12"/>
@@ -8048,14 +8048,14 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B388" s="1">
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
       <c r="C388" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D388" t="str">
         <f t="shared" si="12"/>
@@ -8064,14 +8064,14 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B389" s="1">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
       <c r="C389" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D389" t="str">
         <f t="shared" si="12"/>
@@ -8080,14 +8080,14 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B390" s="1">
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
       <c r="C390" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D390" t="str">
         <f t="shared" si="12"/>
@@ -8096,14 +8096,14 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B391" s="1">
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="C391" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D391" t="str">
         <f t="shared" si="12"/>
@@ -8112,14 +8112,14 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B392" s="1">
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
       <c r="C392" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D392" t="str">
         <f t="shared" si="12"/>
@@ -8128,14 +8128,14 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B393" s="1">
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
       <c r="C393" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
@@ -8144,14 +8144,14 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B394" s="1">
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
       <c r="C394" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D394" t="str">
         <f t="shared" si="12"/>
@@ -8160,14 +8160,14 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B395" s="1">
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
       <c r="C395" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D395" t="str">
         <f t="shared" si="12"/>
@@ -8176,14 +8176,14 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B396" s="1">
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
       <c r="C396" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D396" t="str">
         <f t="shared" si="12"/>
@@ -8192,14 +8192,14 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B397" s="1">
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
       <c r="C397" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D397" t="str">
         <f t="shared" si="12"/>
@@ -8208,14 +8208,14 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B398" s="1">
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
       <c r="C398" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D398" t="str">
         <f t="shared" si="12"/>
@@ -8224,14 +8224,14 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B399" s="1">
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
       <c r="C399" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
@@ -8240,14 +8240,14 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B400" s="1">
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
       <c r="C400" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
@@ -8256,14 +8256,14 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B401" s="1">
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
       <c r="C401" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
@@ -8272,14 +8272,14 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B402" s="1">
         <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="C402" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D402" t="str">
         <f t="shared" si="12"/>
@@ -8288,14 +8288,14 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B403" s="1">
         <f t="shared" si="13"/>
         <v>401</v>
       </c>
       <c r="C403" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D403" t="str">
         <f t="shared" si="12"/>
@@ -8304,14 +8304,14 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B404" s="1">
         <f t="shared" si="13"/>
         <v>402</v>
       </c>
       <c r="C404" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D404" t="str">
         <f t="shared" si="12"/>
@@ -8320,14 +8320,14 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B405" s="1">
         <f t="shared" si="13"/>
         <v>403</v>
       </c>
       <c r="C405" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D405" t="str">
         <f t="shared" si="12"/>
@@ -8336,14 +8336,14 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B406" s="1">
         <f t="shared" si="13"/>
         <v>404</v>
       </c>
       <c r="C406" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D406" t="str">
         <f t="shared" si="12"/>
@@ -8352,14 +8352,14 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B407" s="1">
         <f t="shared" si="13"/>
         <v>405</v>
       </c>
       <c r="C407" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D407" t="str">
         <f t="shared" si="12"/>
@@ -8368,14 +8368,14 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B408" s="1">
         <f t="shared" si="13"/>
         <v>406</v>
       </c>
       <c r="C408" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D408" t="str">
         <f t="shared" si="12"/>
@@ -8384,14 +8384,14 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B409" s="1">
         <f t="shared" si="13"/>
         <v>407</v>
       </c>
       <c r="C409" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D409" t="str">
         <f t="shared" si="12"/>
@@ -8400,14 +8400,14 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B410" s="1">
         <f t="shared" si="13"/>
         <v>408</v>
       </c>
       <c r="C410" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D410" t="str">
         <f t="shared" si="12"/>
@@ -8416,14 +8416,14 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B411" s="1">
         <f t="shared" si="13"/>
         <v>409</v>
       </c>
       <c r="C411" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D411" t="str">
         <f t="shared" si="12"/>
@@ -8432,14 +8432,14 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B412" s="1">
         <f t="shared" si="13"/>
         <v>410</v>
       </c>
       <c r="C412" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D412" t="str">
         <f t="shared" si="12"/>
@@ -8448,14 +8448,14 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B413" s="1">
         <f t="shared" si="13"/>
         <v>411</v>
       </c>
       <c r="C413" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D413" t="str">
         <f t="shared" si="12"/>
@@ -8464,14 +8464,14 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B414" s="1">
         <f t="shared" si="13"/>
         <v>412</v>
       </c>
       <c r="C414" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D414" t="str">
         <f t="shared" si="12"/>
@@ -8480,14 +8480,14 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B415" s="1">
         <f t="shared" si="13"/>
         <v>413</v>
       </c>
       <c r="C415" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D415" t="str">
         <f t="shared" si="12"/>
@@ -8496,14 +8496,14 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B416" s="1">
         <f t="shared" si="13"/>
         <v>414</v>
       </c>
       <c r="C416" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D416" t="str">
         <f t="shared" si="12"/>
@@ -8512,14 +8512,14 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B417" s="1">
         <f t="shared" si="13"/>
         <v>415</v>
       </c>
       <c r="C417" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D417" t="str">
         <f t="shared" si="12"/>
@@ -8528,14 +8528,14 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B418" s="1">
         <f t="shared" si="13"/>
         <v>416</v>
       </c>
       <c r="C418" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D418" t="str">
         <f t="shared" si="12"/>
@@ -8544,14 +8544,14 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B419" s="1">
         <f t="shared" si="13"/>
         <v>417</v>
       </c>
       <c r="C419" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D419" t="str">
         <f t="shared" si="12"/>
@@ -8560,14 +8560,14 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B420" s="1">
         <f t="shared" si="13"/>
         <v>418</v>
       </c>
       <c r="C420" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D420" t="str">
         <f t="shared" si="12"/>
@@ -8576,14 +8576,14 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B421" s="1">
         <f t="shared" si="13"/>
         <v>419</v>
       </c>
       <c r="C421" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D421" t="str">
         <f t="shared" si="12"/>
@@ -8592,14 +8592,14 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B422" s="1">
         <f t="shared" si="13"/>
         <v>420</v>
       </c>
       <c r="C422" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D422" t="str">
         <f t="shared" si="12"/>
@@ -8608,14 +8608,14 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B423" s="1">
         <f t="shared" si="13"/>
         <v>421</v>
       </c>
       <c r="C423" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D423" t="str">
         <f t="shared" si="12"/>
@@ -8624,14 +8624,14 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B424" s="1">
         <f t="shared" si="13"/>
         <v>422</v>
       </c>
       <c r="C424" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D424" t="str">
         <f t="shared" si="12"/>
@@ -8640,14 +8640,14 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B425" s="1">
         <f t="shared" si="13"/>
         <v>423</v>
       </c>
       <c r="C425" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D425" t="str">
         <f t="shared" si="12"/>
@@ -8656,14 +8656,14 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B426" s="1">
         <f t="shared" si="13"/>
         <v>424</v>
       </c>
       <c r="C426" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D426" t="str">
         <f t="shared" si="12"/>
@@ -8672,14 +8672,14 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B427" s="1">
         <f t="shared" si="13"/>
         <v>425</v>
       </c>
       <c r="C427" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
@@ -8688,14 +8688,14 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B428" s="1">
         <f t="shared" si="13"/>
         <v>426</v>
       </c>
       <c r="C428" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D428" t="str">
         <f t="shared" si="12"/>
@@ -8704,14 +8704,14 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B429" s="1">
         <f t="shared" si="13"/>
         <v>427</v>
       </c>
       <c r="C429" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D429" t="str">
         <f t="shared" si="12"/>
@@ -8720,14 +8720,14 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B430" s="1">
         <f t="shared" si="13"/>
         <v>428</v>
       </c>
       <c r="C430" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D430" t="str">
         <f t="shared" si="12"/>
@@ -8736,14 +8736,14 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B431" s="1">
         <f t="shared" si="13"/>
         <v>429</v>
       </c>
       <c r="C431" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D431" t="str">
         <f t="shared" si="12"/>
@@ -8752,14 +8752,14 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B432" s="1">
         <f t="shared" si="13"/>
         <v>430</v>
       </c>
       <c r="C432" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D432" t="str">
         <f t="shared" si="12"/>
@@ -8768,14 +8768,14 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="1">
         <f t="shared" si="13"/>
         <v>431</v>
       </c>
       <c r="C433" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D433" t="str">
         <f t="shared" si="12"/>
@@ -8784,14 +8784,14 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B434" s="1">
         <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="C434" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D434" t="str">
         <f t="shared" si="12"/>
@@ -8800,14 +8800,14 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B435" s="1">
         <f t="shared" si="13"/>
         <v>433</v>
       </c>
       <c r="C435" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D435" t="str">
         <f t="shared" si="12"/>
@@ -8816,14 +8816,14 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B436" s="1">
         <f t="shared" si="13"/>
         <v>434</v>
       </c>
       <c r="C436" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D436" t="str">
         <f t="shared" si="12"/>
@@ -8832,14 +8832,14 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B437" s="1">
         <f t="shared" si="13"/>
         <v>435</v>
       </c>
       <c r="C437" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D437" t="str">
         <f t="shared" si="12"/>
@@ -8848,14 +8848,14 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B438" s="1">
         <f t="shared" si="13"/>
         <v>436</v>
       </c>
       <c r="C438" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D438" t="str">
         <f t="shared" si="12"/>
@@ -8864,14 +8864,14 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B439" s="1">
         <f t="shared" si="13"/>
         <v>437</v>
       </c>
       <c r="C439" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D439" t="str">
         <f t="shared" ref="D439:D447" si="14">"        "&amp;C439&amp;"="&amp;B439&amp;","</f>
@@ -8880,14 +8880,14 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B440" s="1">
         <f t="shared" si="13"/>
         <v>438</v>
       </c>
       <c r="C440" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D440" t="str">
         <f t="shared" si="14"/>
@@ -8900,7 +8900,7 @@
         <v>439</v>
       </c>
       <c r="C441" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D441" t="str">
         <f t="shared" si="14"/>
@@ -8913,7 +8913,7 @@
         <v>440</v>
       </c>
       <c r="C442" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D442" t="str">
         <f t="shared" si="14"/>
@@ -8926,7 +8926,7 @@
         <v>441</v>
       </c>
       <c r="C443" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D443" t="str">
         <f t="shared" si="14"/>
@@ -8939,7 +8939,7 @@
         <v>442</v>
       </c>
       <c r="C444" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D444" t="str">
         <f t="shared" si="14"/>
@@ -8952,7 +8952,7 @@
         <v>443</v>
       </c>
       <c r="C445" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
@@ -8965,7 +8965,7 @@
         <v>444</v>
       </c>
       <c r="C446" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
@@ -8978,7 +8978,7 @@
         <v>445</v>
       </c>
       <c r="C447" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
@@ -8991,7 +8991,7 @@
         <v>446</v>
       </c>
       <c r="C448" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D448" t="str">
         <f t="shared" ref="D448:D451" si="17">"        "&amp;C448&amp;"="&amp;B448&amp;","</f>
@@ -9004,7 +9004,7 @@
         <v>447</v>
       </c>
       <c r="C449" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D449" t="str">
         <f t="shared" si="17"/>
@@ -9017,7 +9017,7 @@
         <v>448</v>
       </c>
       <c r="C450" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D450" t="str">
         <f t="shared" si="17"/>
@@ -9030,7 +9030,7 @@
         <v>449</v>
       </c>
       <c r="C451" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D451" t="str">
         <f t="shared" si="17"/>
@@ -9043,7 +9043,7 @@
         <v>450</v>
       </c>
       <c r="C452" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D452" t="str">
         <f t="shared" ref="D452" si="19">"        "&amp;C452&amp;"="&amp;B452&amp;","</f>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="532">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1434,6 +1437,192 @@
   </si>
   <si>
     <t>EXEC_SQL</t>
+  </si>
+  <si>
+    <t>ALLOCATE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CLOCK_UNITS</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>COMMUNICATION</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>CONTROLS</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
+  </si>
+  <si>
+    <t>DETAIL</t>
+  </si>
+  <si>
+    <t>DISABLE</t>
+  </si>
+  <si>
+    <t>EGI</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>END_RECEIVE</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>HEADING</t>
+  </si>
+  <si>
+    <t>INDICATE</t>
+  </si>
+  <si>
+    <t>INITIATE</t>
+  </si>
+  <si>
+    <t>LAST</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
+  </si>
+  <si>
+    <t>LIMITS</t>
+  </si>
+  <si>
+    <t>LINE_COUNTER</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>PAGE_COUNTER</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>PRINTING</t>
+  </si>
+  <si>
+    <t>PURGE</t>
+  </si>
+  <si>
+    <t>QUEUE</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>RECEIVE</t>
+  </si>
+  <si>
+    <t>REPORT</t>
+  </si>
+  <si>
+    <t>REPORTING</t>
+  </si>
+  <si>
+    <t>REPORTS</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>SEGMENT</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>SUB_QUEUE_1</t>
+  </si>
+  <si>
+    <t>SUB_QUEUE_2</t>
+  </si>
+  <si>
+    <t>SUB_QUEUE_3</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
+  </si>
+  <si>
+    <t>TERMINATE</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>END_JSON</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>VOLATILE</t>
+  </si>
+  <si>
+    <t>//Cobol V6</t>
+  </si>
+  <si>
+    <t>//Cobol 2002</t>
+  </si>
+  <si>
+    <t>//TypeCobol</t>
   </si>
 </sst>
 </file>
@@ -1580,6 +1769,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Feuil1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1845,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D452"/>
+  <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,6 +2059,8 @@
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="54.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="13" max="13" width="46.85546875" customWidth="1"/>
     <col min="14" max="14" width="36.7109375" customWidth="1"/>
   </cols>
@@ -7907,7 +8111,7 @@
         <v>431</v>
       </c>
       <c r="B379" s="1">
-        <f t="shared" ref="B379:B441" si="13">B378+1</f>
+        <f t="shared" ref="B379:B442" si="13">B378+1</f>
         <v>377</v>
       </c>
       <c r="C379" t="s">
@@ -8874,7 +9078,7 @@
         <v>428</v>
       </c>
       <c r="D439" t="str">
-        <f t="shared" ref="D439:D447" si="14">"        "&amp;C439&amp;"="&amp;B439&amp;","</f>
+        <f t="shared" ref="D439:D502" si="14">"        "&amp;C439&amp;"="&amp;B439&amp;","</f>
         <v xml:space="preserve">        WRITE_ONLY=437,</v>
       </c>
     </row>
@@ -8900,37 +9104,37 @@
         <v>439</v>
       </c>
       <c r="C441" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="D441" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        TYPEDEF=439,</v>
+        <v xml:space="preserve">        ALLOCATE=439,</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B442" s="1">
-        <f t="shared" ref="B442:B447" si="15">B441+1</f>
+        <f t="shared" si="13"/>
         <v>440</v>
       </c>
       <c r="C442" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="D442" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRONG=440,</v>
+        <v xml:space="preserve">        CD=440,</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B443:B506" si="15">B442+1</f>
         <v>441</v>
       </c>
       <c r="C443" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="D443" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        UNSAFE=441,</v>
+        <v xml:space="preserve">        CF=441,</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8939,11 +9143,11 @@
         <v>442</v>
       </c>
       <c r="C444" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D444" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PUBLIC=442,</v>
+        <v xml:space="preserve">        CH=442,</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8952,11 +9156,11 @@
         <v>443</v>
       </c>
       <c r="C445" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="D445" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        PRIVATE=443,</v>
+        <v xml:space="preserve">        CLOCK_UNITS=443,</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8965,11 +9169,11 @@
         <v>444</v>
       </c>
       <c r="C446" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D446" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        IN_OUT=444,</v>
+        <v xml:space="preserve">        COLUMN=444,</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8978,85 +9182,867 @@
         <v>445</v>
       </c>
       <c r="C447" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D447" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        STRICT=445,</v>
+        <v xml:space="preserve">        COMMUNICATION=445,</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B448" s="1">
-        <f t="shared" ref="B448:B451" si="16">B447+1</f>
+        <f t="shared" si="15"/>
         <v>446</v>
       </c>
       <c r="C448" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D448" t="str">
-        <f t="shared" ref="D448:D451" si="17">"        "&amp;C448&amp;"="&amp;B448&amp;","</f>
-        <v xml:space="preserve">        QuestionMark=446,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        CONTROL=446,</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>447</v>
       </c>
       <c r="C449" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="D449" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        CompilerDirective=447,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        CONTROLS=447,</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>448</v>
       </c>
       <c r="C450" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D450" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        CopyImportDirective=448,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DE=448,</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>449</v>
       </c>
       <c r="C451" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D451" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">        ReplaceDirective=449,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DEFAULT=449,</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
-        <f t="shared" ref="B452" si="18">B451+1</f>
+        <f t="shared" si="15"/>
         <v>450</v>
       </c>
       <c r="C452" t="s">
+        <v>481</v>
+      </c>
+      <c r="D452" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DESTINATION=450,</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B453" s="1">
+        <f t="shared" si="15"/>
+        <v>451</v>
+      </c>
+      <c r="C453" t="s">
+        <v>482</v>
+      </c>
+      <c r="D453" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DETAIL=451,</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B454" s="1">
+        <f t="shared" si="15"/>
+        <v>452</v>
+      </c>
+      <c r="C454" t="s">
+        <v>483</v>
+      </c>
+      <c r="D454" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DISABLE=452,</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B455" s="1">
+        <f t="shared" si="15"/>
+        <v>453</v>
+      </c>
+      <c r="C455" t="s">
+        <v>484</v>
+      </c>
+      <c r="D455" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        EGI=453,</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B456" s="1">
+        <f t="shared" si="15"/>
+        <v>454</v>
+      </c>
+      <c r="C456" t="s">
+        <v>485</v>
+      </c>
+      <c r="D456" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        EMI=454,</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B457" s="1">
+        <f t="shared" si="15"/>
+        <v>455</v>
+      </c>
+      <c r="C457" t="s">
+        <v>486</v>
+      </c>
+      <c r="D457" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        ENABLE=455,</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B458" s="1">
+        <f t="shared" si="15"/>
+        <v>456</v>
+      </c>
+      <c r="C458" t="s">
+        <v>487</v>
+      </c>
+      <c r="D458" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        END_RECEIVE=456,</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B459" s="1">
+        <f t="shared" si="15"/>
+        <v>457</v>
+      </c>
+      <c r="C459" t="s">
+        <v>488</v>
+      </c>
+      <c r="D459" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        ESI=457,</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B460" s="1">
+        <f t="shared" si="15"/>
+        <v>458</v>
+      </c>
+      <c r="C460" t="s">
+        <v>489</v>
+      </c>
+      <c r="D460" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        FINAL=458,</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B461" s="1">
+        <f t="shared" si="15"/>
+        <v>459</v>
+      </c>
+      <c r="C461" t="s">
+        <v>490</v>
+      </c>
+      <c r="D461" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        FREE=459,</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B462" s="1">
+        <f t="shared" si="15"/>
+        <v>460</v>
+      </c>
+      <c r="C462" t="s">
+        <v>491</v>
+      </c>
+      <c r="D462" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        GROUP=460,</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B463" s="1">
+        <f t="shared" si="15"/>
+        <v>461</v>
+      </c>
+      <c r="C463" t="s">
+        <v>492</v>
+      </c>
+      <c r="D463" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        HEADING=461,</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B464" s="1">
+        <f t="shared" si="15"/>
+        <v>462</v>
+      </c>
+      <c r="C464" t="s">
+        <v>493</v>
+      </c>
+      <c r="D464" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INDICATE=462,</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B465" s="1">
+        <f t="shared" si="15"/>
+        <v>463</v>
+      </c>
+      <c r="C465" t="s">
+        <v>494</v>
+      </c>
+      <c r="D465" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INITIATE=463,</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B466" s="1">
+        <f t="shared" si="15"/>
+        <v>464</v>
+      </c>
+      <c r="C466" t="s">
+        <v>495</v>
+      </c>
+      <c r="D466" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LAST=464,</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B467" s="1">
+        <f t="shared" si="15"/>
+        <v>465</v>
+      </c>
+      <c r="C467" t="s">
+        <v>496</v>
+      </c>
+      <c r="D467" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LIMIT=465,</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B468" s="1">
+        <f t="shared" si="15"/>
+        <v>466</v>
+      </c>
+      <c r="C468" t="s">
+        <v>497</v>
+      </c>
+      <c r="D468" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LIMITS=466,</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B469" s="1">
+        <f t="shared" si="15"/>
+        <v>467</v>
+      </c>
+      <c r="C469" t="s">
+        <v>498</v>
+      </c>
+      <c r="D469" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LINE_COUNTER=467,</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B470" s="1">
+        <f t="shared" si="15"/>
         <v>468</v>
       </c>
-      <c r="D452" t="str">
-        <f t="shared" ref="D452" si="19">"        "&amp;C452&amp;"="&amp;B452&amp;","</f>
-        <v xml:space="preserve">        ContinuationTokenGroup=450,</v>
+      <c r="C470" t="s">
+        <v>499</v>
+      </c>
+      <c r="D470" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        MESSAGE=468,</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B471" s="1">
+        <f t="shared" si="15"/>
+        <v>469</v>
+      </c>
+      <c r="C471" t="s">
+        <v>500</v>
+      </c>
+      <c r="D471" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        NUMBER=469,</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B472" s="1">
+        <f t="shared" si="15"/>
+        <v>470</v>
+      </c>
+      <c r="C472" t="s">
+        <v>501</v>
+      </c>
+      <c r="D472" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        PAGE_COUNTER=470,</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B473" s="1">
+        <f t="shared" si="15"/>
+        <v>471</v>
+      </c>
+      <c r="C473" t="s">
+        <v>502</v>
+      </c>
+      <c r="D473" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        PF=471,</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B474" s="1">
+        <f t="shared" si="15"/>
+        <v>472</v>
+      </c>
+      <c r="C474" t="s">
+        <v>503</v>
+      </c>
+      <c r="D474" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        PH=472,</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B475" s="1">
+        <f t="shared" si="15"/>
+        <v>473</v>
+      </c>
+      <c r="C475" t="s">
+        <v>504</v>
+      </c>
+      <c r="D475" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        PLUS=473,</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B476" s="1">
+        <f t="shared" si="15"/>
+        <v>474</v>
+      </c>
+      <c r="C476" t="s">
+        <v>505</v>
+      </c>
+      <c r="D476" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        PRINTING=474,</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B477" s="1">
+        <f t="shared" si="15"/>
+        <v>475</v>
+      </c>
+      <c r="C477" t="s">
+        <v>506</v>
+      </c>
+      <c r="D477" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        PURGE=475,</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B478" s="1">
+        <f t="shared" si="15"/>
+        <v>476</v>
+      </c>
+      <c r="C478" t="s">
+        <v>507</v>
+      </c>
+      <c r="D478" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        QUEUE=476,</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B479" s="1">
+        <f t="shared" si="15"/>
+        <v>477</v>
+      </c>
+      <c r="C479" t="s">
+        <v>508</v>
+      </c>
+      <c r="D479" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        RD=477,</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B480" s="1">
+        <f t="shared" si="15"/>
+        <v>478</v>
+      </c>
+      <c r="C480" t="s">
+        <v>509</v>
+      </c>
+      <c r="D480" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        RECEIVE=478,</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B481" s="1">
+        <f t="shared" si="15"/>
+        <v>479</v>
+      </c>
+      <c r="C481" t="s">
+        <v>510</v>
+      </c>
+      <c r="D481" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        REPORT=479,</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B482" s="1">
+        <f t="shared" si="15"/>
+        <v>480</v>
+      </c>
+      <c r="C482" t="s">
+        <v>511</v>
+      </c>
+      <c r="D482" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        REPORTING=480,</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B483" s="1">
+        <f t="shared" si="15"/>
+        <v>481</v>
+      </c>
+      <c r="C483" t="s">
+        <v>512</v>
+      </c>
+      <c r="D483" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        REPORTS=481,</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B484" s="1">
+        <f t="shared" si="15"/>
+        <v>482</v>
+      </c>
+      <c r="C484" t="s">
+        <v>513</v>
+      </c>
+      <c r="D484" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        RF=482,</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B485" s="1">
+        <f t="shared" si="15"/>
+        <v>483</v>
+      </c>
+      <c r="C485" t="s">
+        <v>514</v>
+      </c>
+      <c r="D485" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        RH=483,</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B486" s="1">
+        <f t="shared" si="15"/>
+        <v>484</v>
+      </c>
+      <c r="C486" t="s">
+        <v>515</v>
+      </c>
+      <c r="D486" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        SEGMENT=484,</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B487" s="1">
+        <f t="shared" si="15"/>
+        <v>485</v>
+      </c>
+      <c r="C487" t="s">
+        <v>516</v>
+      </c>
+      <c r="D487" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        SEND=485,</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B488" s="1">
+        <f t="shared" si="15"/>
+        <v>486</v>
+      </c>
+      <c r="C488" t="s">
+        <v>517</v>
+      </c>
+      <c r="D488" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        SOURCE=486,</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B489" s="1">
+        <f t="shared" si="15"/>
+        <v>487</v>
+      </c>
+      <c r="C489" t="s">
+        <v>518</v>
+      </c>
+      <c r="D489" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        SUB_QUEUE_1=487,</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B490" s="1">
+        <f t="shared" si="15"/>
+        <v>488</v>
+      </c>
+      <c r="C490" t="s">
+        <v>519</v>
+      </c>
+      <c r="D490" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        SUB_QUEUE_2=488,</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B491" s="1">
+        <f t="shared" si="15"/>
+        <v>489</v>
+      </c>
+      <c r="C491" t="s">
+        <v>520</v>
+      </c>
+      <c r="D491" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        SUB_QUEUE_3=489,</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B492" s="1">
+        <f t="shared" si="15"/>
+        <v>490</v>
+      </c>
+      <c r="C492" t="s">
+        <v>521</v>
+      </c>
+      <c r="D492" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        SUM=490,</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B493" s="1">
+        <f t="shared" si="15"/>
+        <v>491</v>
+      </c>
+      <c r="C493" t="s">
+        <v>522</v>
+      </c>
+      <c r="D493" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        TABLE=491,</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B494" s="1">
+        <f t="shared" si="15"/>
+        <v>492</v>
+      </c>
+      <c r="C494" t="s">
+        <v>523</v>
+      </c>
+      <c r="D494" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        TERMINAL=492,</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B495" s="1">
+        <f t="shared" si="15"/>
+        <v>493</v>
+      </c>
+      <c r="C495" t="s">
+        <v>524</v>
+      </c>
+      <c r="D495" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        TERMINATE=493,</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B496" s="1">
+        <f t="shared" si="15"/>
+        <v>494</v>
+      </c>
+      <c r="C496" t="s">
+        <v>525</v>
+      </c>
+      <c r="D496" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        TEXT=494,</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>529</v>
+      </c>
+      <c r="B497" s="1">
+        <f t="shared" si="15"/>
+        <v>495</v>
+      </c>
+      <c r="C497" t="s">
+        <v>526</v>
+      </c>
+      <c r="D497" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        END_JSON=495,</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B498" s="1">
+        <f t="shared" si="15"/>
+        <v>496</v>
+      </c>
+      <c r="C498" t="s">
+        <v>527</v>
+      </c>
+      <c r="D498" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        JSON=496,</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B499" s="1">
+        <f t="shared" si="15"/>
+        <v>497</v>
+      </c>
+      <c r="C499" t="s">
+        <v>528</v>
+      </c>
+      <c r="D499" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        VOLATILE=497,</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>530</v>
+      </c>
+      <c r="B500" s="1">
+        <f t="shared" si="15"/>
+        <v>498</v>
+      </c>
+      <c r="C500" t="s">
+        <v>448</v>
+      </c>
+      <c r="D500" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        TYPEDEF=498,</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B501" s="1">
+        <f t="shared" si="15"/>
+        <v>499</v>
+      </c>
+      <c r="C501" t="s">
+        <v>449</v>
+      </c>
+      <c r="D501" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        STRONG=499,</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>531</v>
+      </c>
+      <c r="B502" s="1">
+        <f t="shared" si="15"/>
+        <v>500</v>
+      </c>
+      <c r="C502" t="s">
+        <v>450</v>
+      </c>
+      <c r="D502" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        UNSAFE=500,</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B503" s="1">
+        <f t="shared" si="15"/>
+        <v>501</v>
+      </c>
+      <c r="C503" t="s">
+        <v>453</v>
+      </c>
+      <c r="D503" t="str">
+        <f t="shared" ref="D503:D511" si="16">"        "&amp;C503&amp;"="&amp;B503&amp;","</f>
+        <v xml:space="preserve">        PUBLIC=501,</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B504" s="1">
+        <f t="shared" si="15"/>
+        <v>502</v>
+      </c>
+      <c r="C504" t="s">
+        <v>454</v>
+      </c>
+      <c r="D504" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        PRIVATE=502,</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B505" s="1">
+        <f t="shared" si="15"/>
+        <v>503</v>
+      </c>
+      <c r="C505" t="s">
+        <v>462</v>
+      </c>
+      <c r="D505" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        IN_OUT=503,</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B506" s="1">
+        <f t="shared" si="15"/>
+        <v>504</v>
+      </c>
+      <c r="C506" t="s">
+        <v>463</v>
+      </c>
+      <c r="D506" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        STRICT=504,</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B507" s="1">
+        <f t="shared" ref="B507:B511" si="17">B506+1</f>
+        <v>505</v>
+      </c>
+      <c r="C507" t="s">
+        <v>464</v>
+      </c>
+      <c r="D507" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        QuestionMark=505,</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B508" s="1">
+        <f t="shared" si="17"/>
+        <v>506</v>
+      </c>
+      <c r="C508" t="s">
+        <v>465</v>
+      </c>
+      <c r="D508" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        CompilerDirective=506,</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B509" s="1">
+        <f t="shared" si="17"/>
+        <v>507</v>
+      </c>
+      <c r="C509" t="s">
+        <v>466</v>
+      </c>
+      <c r="D509" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        CopyImportDirective=507,</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B510" s="1">
+        <f t="shared" si="17"/>
+        <v>508</v>
+      </c>
+      <c r="C510" t="s">
+        <v>467</v>
+      </c>
+      <c r="D510" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        ReplaceDirective=508,</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B511" s="1">
+        <f t="shared" si="17"/>
+        <v>509</v>
+      </c>
+      <c r="C511" t="s">
+        <v>468</v>
+      </c>
+      <c r="D511" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        ContinuationTokenGroup=509,</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  <conditionalFormatting sqref="C1:C441 C454:C496 C552:C1048576 C500:C539">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C441 C454:C496 C552:C1048576 C500:C539">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C497:C499">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
+++ b/TypeCobol.Grammar/Grammars/Cobol/TokenTypes.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="533">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -1623,6 +1620,9 @@
   </si>
   <si>
     <t>//TypeCobol</t>
+  </si>
+  <si>
+    <t>GLOBAL_STORAGE</t>
   </si>
 </sst>
 </file>
@@ -1667,47 +1667,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1769,19 +1729,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2047,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D511"/>
+  <dimension ref="A1:D512"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="C503" sqref="C503"/>
+      <selection activeCell="C507" sqref="C507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9126,7 +9073,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
-        <f t="shared" ref="B443:B506" si="15">B442+1</f>
+        <f t="shared" ref="B443:B505" si="15">B442+1</f>
         <v>441</v>
       </c>
       <c r="C443" t="s">
@@ -9922,7 +9869,7 @@
         <v>453</v>
       </c>
       <c r="D503" t="str">
-        <f t="shared" ref="D503:D511" si="16">"        "&amp;C503&amp;"="&amp;B503&amp;","</f>
+        <f t="shared" ref="D503:D512" si="16">"        "&amp;C503&amp;"="&amp;B503&amp;","</f>
         <v xml:space="preserve">        PUBLIC=501,</v>
       </c>
     </row>
@@ -9954,7 +9901,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B506" s="1">
-        <f t="shared" si="15"/>
+        <f>B505+1</f>
         <v>504</v>
       </c>
       <c r="C506" t="s">
@@ -9967,15 +9914,15 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B507" s="1">
-        <f t="shared" ref="B507:B511" si="17">B506+1</f>
+        <f t="shared" ref="B507:B512" si="17">B506+1</f>
         <v>505</v>
       </c>
       <c r="C507" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="D507" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">        QuestionMark=505,</v>
+        <v xml:space="preserve">        GLOBAL_STORAGE=505,</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9984,11 +9931,11 @@
         <v>506</v>
       </c>
       <c r="C508" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D508" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">        CompilerDirective=506,</v>
+        <v xml:space="preserve">        QuestionMark=506,</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9997,11 +9944,11 @@
         <v>507</v>
       </c>
       <c r="C509" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D509" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">        CopyImportDirective=507,</v>
+        <v xml:space="preserve">        CompilerDirective=507,</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -10010,11 +9957,11 @@
         <v>508</v>
       </c>
       <c r="C510" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D510" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">        ReplaceDirective=508,</v>
+        <v xml:space="preserve">        CopyImportDirective=508,</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -10023,23 +9970,36 @@
         <v>509</v>
       </c>
       <c r="C511" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D511" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">        ContinuationTokenGroup=509,</v>
+        <v xml:space="preserve">        ReplaceDirective=509,</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B512" s="1">
+        <f t="shared" si="17"/>
+        <v>510</v>
+      </c>
+      <c r="C512" t="s">
+        <v>468</v>
+      </c>
+      <c r="D512" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">        ContinuationTokenGroup=510,</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C441 C454:C496 C552:C1048576 C500:C539">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  <conditionalFormatting sqref="C553:C1048576 C1:C441 C454:C496 C500:C540">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C441 C454:C496 C552:C1048576 C500:C539">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  <conditionalFormatting sqref="C553:C1048576 C1:C441 C454:C496 C500:C540">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C497:C499">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
